--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7EA14-6AC1-1746-8476-EC1536E009D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DD1264-5726-7246-975F-14CBCEAC4FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6137,82 +6137,89 @@
         <v>169.28571428571428</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>234</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>192.28571428571428</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -6238,7 +6245,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11242,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D400" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11630,82 +11637,89 @@
         <v>4.5714285714285712</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="10">
+        <v>3</v>
+      </c>
+      <c r="D401" s="9">
+        <f t="shared" si="6"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -11730,8 +11744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16430,7 +16444,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16818,82 +16832,89 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>10</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>66.857142857142861</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -16919,7 +16940,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21618,7 +21639,7 @@
         <v>93</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>78</v>
       </c>
     </row>
@@ -22006,82 +22027,89 @@
         <v>186.85714285714286</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>190</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>188.71428571428572</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>44314</v>
       </c>
@@ -22107,7 +22135,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26806,7 +26834,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27194,82 +27222,89 @@
         <v>17.571428571428573</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>19</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>44314</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DD1264-5726-7246-975F-14CBCEAC4FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB5A53-F565-DF48-8EDB-5911FEF8F988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6152,6 +6152,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>245</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>214.42857142857142</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6245,7 +6252,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11249,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D401" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11652,6 +11659,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="10">
+        <v>4</v>
+      </c>
+      <c r="D402" s="9">
+        <f t="shared" si="6"/>
+        <v>4.5714285714285712</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11744,8 +11758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16444,7 +16458,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16847,6 +16861,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>217</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>76.428571428571431</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -16940,7 +16961,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21639,7 +21660,7 @@
         <v>93</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>78</v>
       </c>
     </row>
@@ -22042,6 +22063,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>187</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>188.42857142857142</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -22134,8 +22162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26834,7 +26862,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27237,6 +27265,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>19</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB5A53-F565-DF48-8EDB-5911FEF8F988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432C9D9-7996-3C41-978B-1ABD7FBE862D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6164,6 +6164,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>276</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>221.14285714285714</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6252,7 +6259,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11256,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D402" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11671,6 +11678,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="10">
+        <v>0</v>
+      </c>
+      <c r="D403" s="9">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11758,8 +11772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16458,7 +16472,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16873,6 +16887,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>0</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>76.428571428571431</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -16961,7 +16982,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21660,7 +21681,7 @@
         <v>93</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>78</v>
       </c>
     </row>
@@ -22075,6 +22096,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>200</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>190.42857142857142</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -22162,8 +22190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26862,7 +26890,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27277,6 +27305,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>19</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432C9D9-7996-3C41-978B-1ABD7FBE862D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91A2EC-75E4-464A-9118-168E6D763D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6176,6 +6176,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>170</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>215.28571428571428</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6259,7 +6266,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11263,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D403" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11690,6 +11697,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="10">
+        <v>4</v>
+      </c>
+      <c r="D404" s="9">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11773,7 +11787,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16472,7 +16486,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16899,6 +16913,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>42</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -16981,8 +17002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21681,7 +21702,7 @@
         <v>93</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>78</v>
       </c>
     </row>
@@ -22108,6 +22129,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>197</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>192</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -22191,7 +22219,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26890,7 +26918,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27317,6 +27345,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>17</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91A2EC-75E4-464A-9118-168E6D763D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF5D94-D0B6-4449-84C6-F24F1A21A9D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6188,6 +6188,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>184</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>221.42857142857142</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6266,7 +6273,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11270,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D404" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11709,6 +11716,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="10">
+        <v>5</v>
+      </c>
+      <c r="D405" s="9">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11786,8 +11800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16486,7 +16500,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16925,6 +16939,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>199</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>107.42857142857143</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -17000,10 +17021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21702,7 +21723,7 @@
         <v>93</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>78</v>
       </c>
     </row>
@@ -22090,7 +22111,7 @@
         <v>186.85714285714286</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>44299</v>
       </c>
@@ -22102,7 +22123,7 @@
         <v>188.71428571428572</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>44300</v>
       </c>
@@ -22114,7 +22135,7 @@
         <v>188.42857142857142</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>44301</v>
       </c>
@@ -22126,7 +22147,7 @@
         <v>190.42857142857142</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>44302</v>
       </c>
@@ -22138,62 +22159,73 @@
         <v>192</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>44303</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C405" s="2">
+        <v>184</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="E405">
+        <f>C405-C404</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>44314</v>
       </c>
@@ -22218,8 +22250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26918,7 +26950,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27357,6 +27389,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>18</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF5D94-D0B6-4449-84C6-F24F1A21A9D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FB726-9F0D-7947-8925-141D8D962173}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6200,6 +6200,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>242</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>209.85714285714286</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6272,8 +6279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11277,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D405" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11728,6 +11735,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="10">
+        <v>3</v>
+      </c>
+      <c r="D406" s="9">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11801,7 +11815,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16500,7 +16514,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16951,6 +16965,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>66.857142857142861</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -17024,7 +17045,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22178,6 +22199,17 @@
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>190</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" ref="D406" si="6">AVERAGE(C400:C406)</f>
+        <v>190.85714285714286</v>
+      </c>
+      <c r="E406">
+        <f>C406-C405</f>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -22251,7 +22283,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26950,7 +26982,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27401,6 +27433,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>17</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FB726-9F0D-7947-8925-141D8D962173}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F4E05-33EB-AC45-916F-43B11C694202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6212,6 +6212,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>23</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>196.28571428571428</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -6280,7 +6287,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11284,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D406" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11747,6 +11754,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="10">
+        <v>3</v>
+      </c>
+      <c r="D407" s="9">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11814,8 +11828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16514,7 +16528,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16977,6 +16991,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>126</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>84.857142857142861</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -17044,8 +17065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22215,6 +22236,17 @@
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>196</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" ref="D407" si="7">AVERAGE(C401:C407)</f>
+        <v>192</v>
+      </c>
+      <c r="E407">
+        <f>C407-C406</f>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -22282,8 +22314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26982,7 +27014,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27445,6 +27477,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>16</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F4E05-33EB-AC45-916F-43B11C694202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A3D9C5-22D5-8E40-8332-72F67F30A5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6224,6 +6224,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>183</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>189</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6287,7 +6294,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11291,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D407" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11766,6 +11773,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="10">
+        <v>1</v>
+      </c>
+      <c r="D408" s="9">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11829,7 +11843,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16528,7 +16542,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17003,6 +17017,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>0</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>83.428571428571431</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -17065,8 +17086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22252,6 +22273,17 @@
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>201</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" ref="D408" si="8">AVERAGE(C402:C408)</f>
+        <v>193.57142857142858</v>
+      </c>
+      <c r="E408">
+        <f>C408-C407</f>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -22314,8 +22346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27014,7 +27046,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27489,6 +27521,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>17</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A3D9C5-22D5-8E40-8332-72F67F30A5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C4D81-A5B7-A54E-A216-EA33B269AF8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6236,6 +6236,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>213</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>184.42857142857142</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6294,7 +6301,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11298,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D408" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11785,6 +11792,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="10">
+        <v>2</v>
+      </c>
+      <c r="D409" s="9">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11843,7 +11857,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16542,7 +16556,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17029,6 +17043,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>125</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>70.285714285714292</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -17087,7 +17108,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22289,6 +22310,17 @@
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>200</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" ref="D409" si="9">AVERAGE(C403:C409)</f>
+        <v>195.42857142857142</v>
+      </c>
+      <c r="E409">
+        <f>C409-C408</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -22347,7 +22379,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27046,7 +27078,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27533,6 +27565,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>18</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C4D81-A5B7-A54E-A216-EA33B269AF8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B46DD4-62E4-6348-AD07-49BD211DC418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6248,6 +6248,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>126</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>163</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,7 +6308,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11305,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D409" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11804,6 +11811,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="10">
+        <v>6</v>
+      </c>
+      <c r="D410" s="9">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11857,7 +11871,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16556,7 +16570,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17055,6 +17069,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>1</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>70.428571428571431</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -17107,8 +17128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22326,6 +22347,17 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>190</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" ref="D410" si="10">AVERAGE(C404:C410)</f>
+        <v>194</v>
+      </c>
+      <c r="E410">
+        <f>C410-C409</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -22378,8 +22410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="G408" sqref="G408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27078,7 +27110,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27577,6 +27609,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>17</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>17.142857142857142</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B46DD4-62E4-6348-AD07-49BD211DC418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A46CA-D035-AB4C-B81D-04E15D08C4D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6260,6 +6260,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>395</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>195.14285714285714</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -6308,7 +6315,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11312,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D410" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11823,6 +11830,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="10">
+        <v>1</v>
+      </c>
+      <c r="D411" s="9">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11870,8 +11884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16570,7 +16584,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17081,6 +17095,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>0</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>64.428571428571431</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -17128,8 +17149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22276,7 +22297,7 @@
         <v>191</v>
       </c>
       <c r="E405">
-        <f>C405-C404</f>
+        <f t="shared" ref="E405:E410" si="6">C405-C404</f>
         <v>-13</v>
       </c>
     </row>
@@ -22288,11 +22309,11 @@
         <v>190</v>
       </c>
       <c r="D406" s="3">
-        <f t="shared" ref="D406" si="6">AVERAGE(C400:C406)</f>
+        <f t="shared" ref="D406" si="7">AVERAGE(C400:C406)</f>
         <v>190.85714285714286</v>
       </c>
       <c r="E406">
-        <f>C406-C405</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -22304,11 +22325,11 @@
         <v>196</v>
       </c>
       <c r="D407" s="3">
-        <f t="shared" ref="D407" si="7">AVERAGE(C401:C407)</f>
+        <f t="shared" ref="D407" si="8">AVERAGE(C401:C407)</f>
         <v>192</v>
       </c>
       <c r="E407">
-        <f>C407-C406</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -22320,11 +22341,11 @@
         <v>201</v>
       </c>
       <c r="D408" s="3">
-        <f t="shared" ref="D408" si="8">AVERAGE(C402:C408)</f>
+        <f t="shared" ref="D408" si="9">AVERAGE(C402:C408)</f>
         <v>193.57142857142858</v>
       </c>
       <c r="E408">
-        <f>C408-C407</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -22336,11 +22357,11 @@
         <v>200</v>
       </c>
       <c r="D409" s="3">
-        <f t="shared" ref="D409" si="9">AVERAGE(C403:C409)</f>
+        <f t="shared" ref="D409" si="10">AVERAGE(C403:C409)</f>
         <v>195.42857142857142</v>
       </c>
       <c r="E409">
-        <f>C409-C408</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
@@ -22352,17 +22373,28 @@
         <v>190</v>
       </c>
       <c r="D410" s="3">
-        <f t="shared" ref="D410" si="10">AVERAGE(C404:C410)</f>
+        <f t="shared" ref="D410" si="11">AVERAGE(C404:C410)</f>
         <v>194</v>
       </c>
       <c r="E410">
-        <f>C410-C409</f>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>186</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" ref="D411" si="12">AVERAGE(C405:C411)</f>
+        <v>192.42857142857142</v>
+      </c>
+      <c r="E411">
+        <f t="shared" ref="E411" si="13">C411-C410</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -22410,8 +22442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="G408" sqref="G408"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27110,7 +27142,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27621,6 +27653,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>16</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A46CA-D035-AB4C-B81D-04E15D08C4D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9402A30B-D82A-0C48-88CC-5D0999EE531B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>83.714285714285708</v>
       </c>
     </row>
@@ -6272,6 +6272,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>226</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>201.14285714285714</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11319,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="9">
-        <f t="shared" ref="D368:D411" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11842,6 +11849,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="10">
+        <v>1</v>
+      </c>
+      <c r="D412" s="9">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11885,7 +11899,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16584,7 +16598,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17107,6 +17121,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>334</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>83.714285714285708</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -17150,7 +17171,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22400,6 +22421,17 @@
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>183</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" ref="D412" si="14">AVERAGE(C406:C412)</f>
+        <v>192.28571428571428</v>
+      </c>
+      <c r="E412">
+        <f t="shared" ref="E412" si="15">C412-C411</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -22442,8 +22474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27142,7 +27174,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27665,6 +27697,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>18</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7893C-1C49-DC44-86B9-3C0182BD1466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1272759-89A2-114C-85B9-7060EA8A43DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6294,6 +6294,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>11</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>201</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6326,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11027,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D413" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11574,6 +11581,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414" s="8">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11606,8 +11620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16306,7 +16320,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16853,6 +16867,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414" s="2">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>65.714285714285708</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -16885,8 +16906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="A413" sqref="A413:D413"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22168,6 +22189,17 @@
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>44312</v>
+      </c>
+      <c r="C414" s="2">
+        <v>187</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" ref="D414" si="18">AVERAGE(C408:C414)</f>
+        <v>190</v>
+      </c>
+      <c r="E414">
+        <f t="shared" ref="E414" si="19">C414-C413</f>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -22200,8 +22232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26900,7 +26932,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27447,6 +27479,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>16</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1272759-89A2-114C-85B9-7060EA8A43DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83227400-8A8E-1948-940E-DBCF43FAA892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D419" sqref="D419"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6306,6 +6306,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>114</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>191.28571428571428</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6334,7 +6341,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11034,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D414" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11593,6 +11600,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>5</v>
+      </c>
+      <c r="D415" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11621,7 +11635,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16320,7 +16334,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16879,6 +16893,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415" s="2">
+        <v>293</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>107.57142857142857</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -16907,7 +16928,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22205,6 +22226,17 @@
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>44313</v>
+      </c>
+      <c r="C415" s="2">
+        <v>189</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" ref="D415" si="20">AVERAGE(C409:C415)</f>
+        <v>188.28571428571428</v>
+      </c>
+      <c r="E415">
+        <f t="shared" ref="E415" si="21">C415-C414</f>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -22232,8 +22264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26932,7 +26964,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27491,6 +27523,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>18</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83227400-8A8E-1948-940E-DBCF43FAA892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3463A-9968-C04A-B461-F00494487F34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6318,6 +6318,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>155</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>182.85714285714286</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -6341,7 +6348,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11041,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D415" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11612,6 +11619,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+      <c r="D416" s="8">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -11635,7 +11649,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16334,7 +16348,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16905,6 +16919,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416" s="2">
+        <v>1</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>89.857142857142861</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -16927,8 +16948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="E425" sqref="E425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22242,6 +22263,17 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>44314</v>
+      </c>
+      <c r="C416" s="2">
+        <v>197</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" ref="D416" si="22">AVERAGE(C410:C416)</f>
+        <v>187.85714285714286</v>
+      </c>
+      <c r="E416">
+        <f t="shared" ref="E416" si="23">C416-C415</f>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -22264,8 +22296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="D415" sqref="D415"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26964,7 +26996,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27535,6 +27567,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>19</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>17.142857142857142</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3463A-9968-C04A-B461-F00494487F34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71510A76-9763-A44A-A3CD-93F324B3FBC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6327,12 +6327,19 @@
         <v>182.85714285714286</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>185</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>190.71428571428572</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -6348,7 +6355,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11048,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D416" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11628,12 +11635,19 @@
         <v>2.7142857142857144</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>4</v>
+      </c>
+      <c r="D417" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -11649,7 +11663,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16348,7 +16362,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16928,12 +16942,19 @@
         <v>89.857142857142861</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417" s="2">
+        <v>66</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>99.142857142857139</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -16948,8 +16969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="E425" sqref="E425"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22276,12 +22297,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417" s="2">
+        <v>194</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" ref="D417" si="24">AVERAGE(C411:C417)</f>
+        <v>188.42857142857142</v>
+      </c>
+      <c r="E417">
+        <f t="shared" ref="E417" si="25">C417-C416</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>44316</v>
       </c>
@@ -22296,8 +22328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26996,7 +27028,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27576,12 +27608,19 @@
         <v>17.142857142857142</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>19</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>44316</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71510A76-9763-A44A-A3CD-93F324B3FBC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78BCDD-EF4E-2546-B2E1-E8A6E1D740E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6342,6 +6342,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>108</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>149.71428571428572</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +6362,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11055,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D417" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11650,6 +11657,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
   </sheetData>
@@ -11663,7 +11677,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16362,7 +16376,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16957,6 +16971,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418" s="2">
+        <v>1</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>99.285714285714292</v>
       </c>
     </row>
   </sheetData>
@@ -16970,7 +16991,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22316,6 +22337,17 @@
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>44316</v>
+      </c>
+      <c r="C418" s="2">
+        <v>189</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" ref="D418" si="26">AVERAGE(C412:C418)</f>
+        <v>188.85714285714286</v>
+      </c>
+      <c r="E418">
+        <f t="shared" ref="E418" si="27">C418-C417</f>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -22329,7 +22361,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27028,7 +27060,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27623,6 +27655,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>18</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>17.714285714285715</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78BCDD-EF4E-2546-B2E1-E8A6E1D740E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FD92EE-2619-7D43-BC55-452173DADD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6500" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J418"/>
+  <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6349,6 +6349,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>149.71428571428572</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>167</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>141.14285714285714</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>155</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>127.85714285714286</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>91</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>139.28571428571428</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -6359,10 +6535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11062,7 +11238,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D418" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11664,6 +11840,182 @@
       <c r="D418" s="8">
         <f t="shared" si="6"/>
         <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+      <c r="D419" s="8">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>6</v>
+      </c>
+      <c r="D421" s="8">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -11674,10 +12026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16376,7 +16728,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -16978,6 +17330,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>99.285714285714292</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419" s="2">
+        <v>295</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>93.714285714285708</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420" s="2">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>93.714285714285708</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421" s="2">
+        <v>723</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -16988,10 +17516,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22350,6 +22878,194 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419" s="2">
+        <v>184</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" ref="D419" si="28">AVERAGE(C413:C419)</f>
+        <v>189</v>
+      </c>
+      <c r="E419">
+        <f t="shared" ref="E419" si="29">C419-C418</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420" s="2">
+        <v>180</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" ref="D420" si="30">AVERAGE(C414:C420)</f>
+        <v>188.57142857142858</v>
+      </c>
+      <c r="E420">
+        <f t="shared" ref="E420" si="31">C420-C419</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421" s="2">
+        <v>179</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" ref="D421" si="32">AVERAGE(C415:C421)</f>
+        <v>187.42857142857142</v>
+      </c>
+      <c r="E421">
+        <f t="shared" ref="E421" si="33">C421-C420</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22358,10 +23074,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27060,7 +27776,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -27662,6 +28378,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>17.714285714285715</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>17</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>18</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>17</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FD92EE-2619-7D43-BC55-452173DADD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB7F52-190A-0A48-988F-8790E6C37144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6390,6 +6390,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>64</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>132.14285714285714</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6538,7 +6545,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11238,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D421" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11881,6 +11888,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>4</v>
+      </c>
+      <c r="D422" s="8">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12028,8 +12042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16728,7 +16742,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17371,6 +17385,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422" s="2">
+        <v>221</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>186.71428571428572</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -17519,7 +17540,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22929,6 +22950,17 @@
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422" s="2">
+        <v>183</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" ref="D422" si="34">AVERAGE(C416:C422)</f>
+        <v>186.57142857142858</v>
+      </c>
+      <c r="E422">
+        <f t="shared" ref="E422" si="35">C422-C421</f>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -23076,8 +23108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="F413" sqref="F413"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27776,7 +27808,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28419,6 +28451,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>18</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB7F52-190A-0A48-988F-8790E6C37144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDEBD9-4EEF-B842-A059-16D079197A71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6402,6 +6402,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>96</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>123.71428571428571</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6545,7 +6552,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11245,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D422" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11900,6 +11907,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" s="8">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12042,8 +12056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16742,7 +16756,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17397,6 +17411,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423" s="2">
+        <v>257</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>223.28571428571428</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -17539,8 +17560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22966,6 +22987,17 @@
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423" s="2">
+        <v>183</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" ref="D423" si="36">AVERAGE(C417:C423)</f>
+        <v>184.57142857142858</v>
+      </c>
+      <c r="E423">
+        <f t="shared" ref="E423" si="37">C423-C422</f>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -23109,7 +23141,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27808,7 +27840,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28463,6 +28495,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>16</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDEBD9-4EEF-B842-A059-16D079197A71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926D8E07-C9A4-B340-AB90-8AAD3E1F6010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6414,6 +6414,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>117</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>114</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6552,7 +6559,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11252,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D423" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11919,6 +11926,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424" s="8">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12056,8 +12070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16756,7 +16770,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17423,6 +17437,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424" s="2">
+        <v>244</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>248.71428571428572</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -17560,8 +17581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23003,6 +23024,17 @@
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424" s="2">
+        <v>180</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" ref="D424" si="38">AVERAGE(C418:C424)</f>
+        <v>182.57142857142858</v>
+      </c>
+      <c r="E424">
+        <f t="shared" ref="E424" si="39">C424-C423</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -23141,7 +23173,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27840,7 +27872,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28507,6 +28539,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>16</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>17.142857142857142</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926D8E07-C9A4-B340-AB90-8AAD3E1F6010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48EDF7-5660-9A41-8C9C-9E538C0BD8E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6426,6 +6426,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>187</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>125.28571428571429</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6559,7 +6566,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11259,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D424" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11938,6 +11945,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>4</v>
+      </c>
+      <c r="D425" s="8">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -12070,8 +12084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16770,7 +16784,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17449,6 +17463,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425" s="2">
+        <v>1</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>248.71428571428572</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -17581,8 +17602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23040,6 +23061,17 @@
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425" s="2">
+        <v>174</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" ref="D425" si="40">AVERAGE(C419:C425)</f>
+        <v>180.42857142857142</v>
+      </c>
+      <c r="E425">
+        <f t="shared" ref="E425" si="41">C425-C424</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -23172,8 +23204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27872,7 +27904,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28551,6 +28583,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>16</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48EDF7-5660-9A41-8C9C-9E538C0BD8E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10BA7F4-AB06-0A49-A0AA-3265536F225C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6438,6 +6438,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>116</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>118</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6566,7 +6573,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11266,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D425" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11957,6 +11964,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426" s="8">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12084,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16784,7 +16798,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17475,6 +17489,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426" s="2">
+        <v>318</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>252</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -17602,8 +17623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23077,6 +23098,17 @@
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426" s="2">
+        <v>172</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" ref="D426" si="42">AVERAGE(C420:C426)</f>
+        <v>178.71428571428572</v>
+      </c>
+      <c r="E426">
+        <f t="shared" ref="E426" si="43">C426-C425</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -23205,7 +23237,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27904,7 +27936,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28595,6 +28627,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>14</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>16.428571428571427</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10BA7F4-AB06-0A49-A0AA-3265536F225C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E0225-425E-874B-BB92-63B9D8C0D7D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3120" yWindow="900" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6450,6 +6450,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>141</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>116</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6573,7 +6580,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11273,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D426" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -11976,6 +11983,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" s="8">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12098,8 +12112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16798,7 +16812,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17501,6 +17515,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427" s="2">
+        <v>1</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>252.14285714285714</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -17624,7 +17645,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23114,6 +23135,17 @@
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427" s="2">
+        <v>171</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" ref="D427" si="44">AVERAGE(C421:C427)</f>
+        <v>177.42857142857142</v>
+      </c>
+      <c r="E427">
+        <f t="shared" ref="E427" si="45">C427-C426</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -23236,8 +23268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27936,7 +27968,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>9.4285714285714288</v>
       </c>
     </row>
@@ -28639,6 +28671,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>12</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5A2D9-6B60-BF4B-A718-482F4976A280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD37C77-46DD-D043-8CE9-374BC1C54EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Dimessi   Guariti" sheetId="3" r:id="rId3"/>
     <sheet name="Ricoveri" sheetId="4" r:id="rId4"/>
     <sheet name="Terapia" sheetId="5" r:id="rId5"/>
-    <sheet name="Foglio1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>data</t>
   </si>
@@ -114,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -124,7 +123,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -442,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6476,6 +6474,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>19</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>102.57142857142857</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6589,7 +6594,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11289,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D428" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12016,6 +12021,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429" s="8">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12129,7 +12141,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16828,7 +16840,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17555,6 +17567,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429" s="2">
+        <v>101</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>145.71428571428572</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -17668,7 +17687,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="F433" sqref="F433"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23178,6 +23197,17 @@
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>184</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" ref="D429" si="48">AVERAGE(C423:C429)</f>
+        <v>193.71428571428572</v>
+      </c>
+      <c r="E429">
+        <f t="shared" ref="E429" si="49">C429-C428</f>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -23291,7 +23321,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27982,7 +28012,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28709,6 +28739,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429" s="2">
+        <v>15</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -28815,7550 +28852,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305FF63B-87BE-7D49-8C0A-B1004B0420F9}">
-  <dimension ref="A1:H428"/>
-  <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H428"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>43900</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="9">
-        <v>43900</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>43900</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43901</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9">
-        <v>43901</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>43901</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>43902</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9">
-        <v>43902</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>43902</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>43903</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9">
-        <v>43903</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>43903</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>43904</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9">
-        <v>43904</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>43904</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>43905</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9">
-        <v>43905</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>43905</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>43906</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="9">
-        <v>43906</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>43906</v>
-      </c>
-      <c r="H8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>43907</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9">
-        <v>43907</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>43907</v>
-      </c>
-      <c r="H9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>43908</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9">
-        <v>43908</v>
-      </c>
-      <c r="G10" s="9">
-        <v>43908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>43909</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9">
-        <v>43909</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>43909</v>
-      </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9">
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>43911</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>43912</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9">
-        <v>43912</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>43913</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9">
-        <v>43913</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9">
-        <v>43913</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>43914</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9">
-        <v>43914</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="G16" s="9">
-        <v>43914</v>
-      </c>
-      <c r="H16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9">
-        <v>43915</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9">
-        <v>43915</v>
-      </c>
-      <c r="H17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9">
-        <v>43916</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="9">
-        <v>43916</v>
-      </c>
-      <c r="H18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>43917</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9">
-        <v>43917</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9">
-        <v>43917</v>
-      </c>
-      <c r="H19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>43918</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="9">
-        <v>43918</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9">
-        <v>43918</v>
-      </c>
-      <c r="H20">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>43919</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9">
-        <v>43919</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9">
-        <v>43919</v>
-      </c>
-      <c r="H21">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="9">
-        <v>43920</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="9">
-        <v>43920</v>
-      </c>
-      <c r="H22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>43921</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="9">
-        <v>43921</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9">
-        <v>43921</v>
-      </c>
-      <c r="H23">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>43922</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="9">
-        <v>43922</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9">
-        <v>43922</v>
-      </c>
-      <c r="H24">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9">
-        <v>43923</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="G25" s="9">
-        <v>43923</v>
-      </c>
-      <c r="H25">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9">
-        <v>43924</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9">
-        <v>43924</v>
-      </c>
-      <c r="H26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>43925</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="9">
-        <v>43925</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9">
-        <v>43925</v>
-      </c>
-      <c r="H27">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>43926</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="9">
-        <v>43926</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9">
-        <v>43926</v>
-      </c>
-      <c r="H28">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>43927</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="9">
-        <v>43927</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="G29" s="9">
-        <v>43927</v>
-      </c>
-      <c r="H29">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>43928</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9">
-        <v>43928</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9">
-        <v>43928</v>
-      </c>
-      <c r="H30">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>43929</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9">
-        <v>43929</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="G31" s="9">
-        <v>43929</v>
-      </c>
-      <c r="H31">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9">
-        <v>43930</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="G32" s="9">
-        <v>43930</v>
-      </c>
-      <c r="H32">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>43931</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="9">
-        <v>43931</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="G33" s="9">
-        <v>43931</v>
-      </c>
-      <c r="H33">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>43932</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="9">
-        <v>43932</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="G34" s="9">
-        <v>43932</v>
-      </c>
-      <c r="H34">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>43933</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="9">
-        <v>43933</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="G35" s="9">
-        <v>43933</v>
-      </c>
-      <c r="H35">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>43934</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="9">
-        <v>43934</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="G36" s="9">
-        <v>43934</v>
-      </c>
-      <c r="H36">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>43935</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="9">
-        <v>43935</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="G37" s="9">
-        <v>43935</v>
-      </c>
-      <c r="H37">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>43936</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9">
-        <v>43936</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="G38" s="9">
-        <v>43936</v>
-      </c>
-      <c r="H38">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>43937</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="9">
-        <v>43937</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="G39" s="9">
-        <v>43937</v>
-      </c>
-      <c r="H39">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>43938</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="9">
-        <v>43938</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="G40" s="9">
-        <v>43938</v>
-      </c>
-      <c r="H40">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>43939</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="9">
-        <v>43939</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="G41" s="9">
-        <v>43939</v>
-      </c>
-      <c r="H41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>43940</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="9">
-        <v>43940</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="G42" s="9">
-        <v>43940</v>
-      </c>
-      <c r="H42">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="9">
-        <v>43941</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="G43" s="9">
-        <v>43941</v>
-      </c>
-      <c r="H43">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>43942</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="9">
-        <v>43942</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="G44" s="9">
-        <v>43942</v>
-      </c>
-      <c r="H44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>43943</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="9">
-        <v>43943</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="G45" s="9">
-        <v>43943</v>
-      </c>
-      <c r="H45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>43944</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="9">
-        <v>43944</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="G46" s="9">
-        <v>43944</v>
-      </c>
-      <c r="H46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>43945</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="9">
-        <v>43945</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="G47" s="9">
-        <v>43945</v>
-      </c>
-      <c r="H47">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>43946</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="9">
-        <v>43946</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="G48" s="9">
-        <v>43946</v>
-      </c>
-      <c r="H48">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>43947</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="9">
-        <v>43947</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="G49" s="9">
-        <v>43947</v>
-      </c>
-      <c r="H49">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>43948</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="9">
-        <v>43948</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9">
-        <v>43948</v>
-      </c>
-      <c r="H50">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>43949</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="9">
-        <v>43949</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="9">
-        <v>43949</v>
-      </c>
-      <c r="H51">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>43950</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="9">
-        <v>43950</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9">
-        <v>43950</v>
-      </c>
-      <c r="H52">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="9">
-        <v>43951</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="9">
-        <v>43951</v>
-      </c>
-      <c r="H53">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>43952</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="9">
-        <v>43952</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="G54" s="9">
-        <v>43952</v>
-      </c>
-      <c r="H54">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="9">
-        <v>43953</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="G55" s="9">
-        <v>43953</v>
-      </c>
-      <c r="H55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>43954</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="9">
-        <v>43954</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>43954</v>
-      </c>
-      <c r="H56">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>43955</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="9">
-        <v>43955</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>43955</v>
-      </c>
-      <c r="H57">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>43956</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="9">
-        <v>43956</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>43956</v>
-      </c>
-      <c r="H58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>43957</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="9">
-        <v>43957</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>43957</v>
-      </c>
-      <c r="H59">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>43958</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="9">
-        <v>43958</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>43958</v>
-      </c>
-      <c r="H60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="9">
-        <v>43959</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>43959</v>
-      </c>
-      <c r="H61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>43960</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="9">
-        <v>43960</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>43960</v>
-      </c>
-      <c r="H62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>43961</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="9">
-        <v>43961</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>43961</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>43962</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="9">
-        <v>43962</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>43962</v>
-      </c>
-      <c r="H64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="9">
-        <v>43963</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>43963</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>43964</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="9">
-        <v>43964</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>43964</v>
-      </c>
-      <c r="H66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>43965</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="9">
-        <v>43965</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
-        <v>43965</v>
-      </c>
-      <c r="H67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="9">
-        <v>43966</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>43966</v>
-      </c>
-      <c r="H68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>43967</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="9">
-        <v>43967</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>43967</v>
-      </c>
-      <c r="H69">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>43968</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="9">
-        <v>43968</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="9">
-        <v>43968</v>
-      </c>
-      <c r="H70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>43969</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="9">
-        <v>43969</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="9">
-        <v>43969</v>
-      </c>
-      <c r="H71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>43970</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="9">
-        <v>43970</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9">
-        <v>43970</v>
-      </c>
-      <c r="H72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>43971</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="9">
-        <v>43971</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
-        <v>43971</v>
-      </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>43972</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="9">
-        <v>43972</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="G74" s="9">
-        <v>43972</v>
-      </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>43973</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="9">
-        <v>43973</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="9">
-        <v>43973</v>
-      </c>
-      <c r="H75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>43974</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="9">
-        <v>43974</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="9">
-        <v>43974</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>43975</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="9">
-        <v>43975</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="9">
-        <v>43975</v>
-      </c>
-      <c r="H77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>43976</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="9">
-        <v>43976</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="9">
-        <v>43976</v>
-      </c>
-      <c r="H78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>43977</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="9">
-        <v>43977</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="G79" s="9">
-        <v>43977</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>43978</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="9">
-        <v>43978</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="9">
-        <v>43978</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>43979</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="9">
-        <v>43979</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="G81" s="9">
-        <v>43979</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>43980</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="9">
-        <v>43980</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="G82" s="9">
-        <v>43980</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>43981</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="9">
-        <v>43981</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="G83" s="9">
-        <v>43981</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>43982</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="9">
-        <v>43982</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="G84" s="9">
-        <v>43982</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="9">
-        <v>43983</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="G85" s="9">
-        <v>43983</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>43984</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="9">
-        <v>43984</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="G86" s="9">
-        <v>43984</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="9">
-        <v>43985</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9">
-        <v>43985</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="9">
-        <v>43986</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="G88" s="9">
-        <v>43986</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="9">
-        <v>43987</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
-        <v>43987</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="9">
-        <v>43988</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9">
-        <v>43988</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>43989</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="9">
-        <v>43989</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="G91" s="9">
-        <v>43989</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="9">
-        <v>43990</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="G92" s="9">
-        <v>43990</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>43991</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="9">
-        <v>43991</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9">
-        <v>43991</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="9">
-        <v>43992</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="G94" s="9">
-        <v>43992</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="9">
-        <v>43993</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9">
-        <v>43993</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="9">
-        <v>43994</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="G96" s="9">
-        <v>43994</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="9">
-        <v>43995</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="G97" s="9">
-        <v>43995</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>43996</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="9">
-        <v>43996</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="G98" s="9">
-        <v>43996</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>43997</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="9">
-        <v>43997</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9">
-        <v>43997</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="9">
-        <v>43998</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="G100" s="9">
-        <v>43998</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>43999</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="9">
-        <v>43999</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="G101" s="9">
-        <v>43999</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>44000</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="9">
-        <v>44000</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="9">
-        <v>44000</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>44001</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="9">
-        <v>44001</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="G103" s="9">
-        <v>44001</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <v>44002</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="9">
-        <v>44002</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="G104" s="9">
-        <v>44002</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <v>44003</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="9">
-        <v>44003</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
-        <v>44003</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>44004</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="9">
-        <v>44004</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="G106" s="9">
-        <v>44004</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <v>44005</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="9">
-        <v>44005</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="G107" s="9">
-        <v>44005</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>44006</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="9">
-        <v>44006</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="G108" s="9">
-        <v>44006</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <v>44007</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="9">
-        <v>44007</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="G109" s="9">
-        <v>44007</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <v>44008</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="9">
-        <v>44008</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="G110" s="9">
-        <v>44008</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>44009</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="9">
-        <v>44009</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="G111" s="9">
-        <v>44009</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>44010</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="9">
-        <v>44010</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="G112" s="9">
-        <v>44010</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <v>44011</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="9">
-        <v>44011</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
-        <v>44011</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>44012</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="9">
-        <v>44012</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="G114" s="9">
-        <v>44012</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <v>44013</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="9">
-        <v>44013</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="G115" s="9">
-        <v>44013</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <v>44014</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="9">
-        <v>44014</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="G116" s="9">
-        <v>44014</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <v>44015</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="9">
-        <v>44015</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="G117" s="9">
-        <v>44015</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <v>44016</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="9">
-        <v>44016</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="G118" s="9">
-        <v>44016</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <v>44017</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="9">
-        <v>44017</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
-        <v>44017</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <v>44018</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="9">
-        <v>44018</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="G120" s="9">
-        <v>44018</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <v>44019</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="9">
-        <v>44019</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="G121" s="9">
-        <v>44019</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <v>44020</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="9">
-        <v>44020</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="G122" s="9">
-        <v>44020</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <v>44021</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="9">
-        <v>44021</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="G123" s="9">
-        <v>44021</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <v>44022</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="9">
-        <v>44022</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="G124" s="9">
-        <v>44022</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <v>44023</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="9">
-        <v>44023</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="G125" s="9">
-        <v>44023</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>44024</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="9">
-        <v>44024</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="G126" s="9">
-        <v>44024</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <v>44025</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="9">
-        <v>44025</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="G127" s="9">
-        <v>44025</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>44026</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="9">
-        <v>44026</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="G128" s="9">
-        <v>44026</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <v>44027</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="9">
-        <v>44027</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="G129" s="9">
-        <v>44027</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>44028</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="9">
-        <v>44028</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="G130" s="9">
-        <v>44028</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <v>44029</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="9">
-        <v>44029</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="G131" s="9">
-        <v>44029</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>44030</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="9">
-        <v>44030</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="G132" s="9">
-        <v>44030</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>44031</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="9">
-        <v>44031</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="G133" s="9">
-        <v>44031</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>44032</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="9">
-        <v>44032</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="G134" s="9">
-        <v>44032</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <v>44033</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="9">
-        <v>44033</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="G135" s="9">
-        <v>44033</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <v>44034</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="9">
-        <v>44034</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="G136" s="9">
-        <v>44034</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <v>44035</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="9">
-        <v>44035</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="G137" s="9">
-        <v>44035</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <v>44036</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="9">
-        <v>44036</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="G138" s="9">
-        <v>44036</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
-        <v>44037</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="9">
-        <v>44037</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="G139" s="9">
-        <v>44037</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>44038</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="9">
-        <v>44038</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="G140" s="9">
-        <v>44038</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
-        <v>44039</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="9">
-        <v>44039</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="G141" s="9">
-        <v>44039</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <v>44040</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="9">
-        <v>44040</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="G142" s="9">
-        <v>44040</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <v>44041</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="9">
-        <v>44041</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="G143" s="9">
-        <v>44041</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <v>44042</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="9">
-        <v>44042</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="G144" s="9">
-        <v>44042</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <v>44043</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="9">
-        <v>44043</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="G145" s="9">
-        <v>44043</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>44044</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="9">
-        <v>44044</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="G146" s="9">
-        <v>44044</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <v>44045</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="9">
-        <v>44045</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="G147" s="9">
-        <v>44045</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <v>44046</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="9">
-        <v>44046</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="G148" s="9">
-        <v>44046</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
-        <v>44047</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="9">
-        <v>44047</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="G149" s="9">
-        <v>44047</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <v>44048</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="9">
-        <v>44048</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="G150" s="9">
-        <v>44048</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
-        <v>44049</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="9">
-        <v>44049</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="G151" s="9">
-        <v>44049</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <v>44050</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="9">
-        <v>44050</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="G152" s="9">
-        <v>44050</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <v>44051</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="9">
-        <v>44051</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="G153" s="9">
-        <v>44051</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
-        <v>44052</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="9">
-        <v>44052</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="G154" s="9">
-        <v>44052</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <v>44053</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="9">
-        <v>44053</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="G155" s="9">
-        <v>44053</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
-        <v>44054</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="9">
-        <v>44054</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="G156" s="9">
-        <v>44054</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
-        <v>44055</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="9">
-        <v>44055</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="G157" s="9">
-        <v>44055</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
-        <v>44056</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="9">
-        <v>44056</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="G158" s="9">
-        <v>44056</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <v>44057</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="9">
-        <v>44057</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="G159" s="9">
-        <v>44057</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
-        <v>44058</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="9">
-        <v>44058</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="G160" s="9">
-        <v>44058</v>
-      </c>
-      <c r="H160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
-        <v>44059</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="9">
-        <v>44059</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="G161" s="9">
-        <v>44059</v>
-      </c>
-      <c r="H161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
-        <v>44060</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="9">
-        <v>44060</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="G162" s="9">
-        <v>44060</v>
-      </c>
-      <c r="H162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
-        <v>44061</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="9">
-        <v>44061</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="G163" s="9">
-        <v>44061</v>
-      </c>
-      <c r="H163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
-        <v>44062</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="9">
-        <v>44062</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="G164" s="9">
-        <v>44062</v>
-      </c>
-      <c r="H164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
-        <v>44063</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="9">
-        <v>44063</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="G165" s="9">
-        <v>44063</v>
-      </c>
-      <c r="H165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
-        <v>44064</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="9">
-        <v>44064</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="G166" s="9">
-        <v>44064</v>
-      </c>
-      <c r="H166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
-        <v>44065</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="9">
-        <v>44065</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="G167" s="9">
-        <v>44065</v>
-      </c>
-      <c r="H167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
-        <v>44066</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="9">
-        <v>44066</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="G168" s="9">
-        <v>44066</v>
-      </c>
-      <c r="H168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
-        <v>44067</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="9">
-        <v>44067</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="G169" s="9">
-        <v>44067</v>
-      </c>
-      <c r="H169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
-        <v>44068</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="9">
-        <v>44068</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="G170" s="9">
-        <v>44068</v>
-      </c>
-      <c r="H170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
-        <v>44069</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="9">
-        <v>44069</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="G171" s="9">
-        <v>44069</v>
-      </c>
-      <c r="H171">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
-        <v>44070</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="9">
-        <v>44070</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="G172" s="9">
-        <v>44070</v>
-      </c>
-      <c r="H172">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
-        <v>44071</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="9">
-        <v>44071</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="G173" s="9">
-        <v>44071</v>
-      </c>
-      <c r="H173">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
-        <v>44072</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" s="9">
-        <v>44072</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="G174" s="9">
-        <v>44072</v>
-      </c>
-      <c r="H174">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
-        <v>44073</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="9">
-        <v>44073</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="G175" s="9">
-        <v>44073</v>
-      </c>
-      <c r="H175">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
-        <v>44074</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="9">
-        <v>44074</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="G176" s="9">
-        <v>44074</v>
-      </c>
-      <c r="H176">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
-        <v>44075</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="9">
-        <v>44075</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="G177" s="9">
-        <v>44075</v>
-      </c>
-      <c r="H177">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
-        <v>44076</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="9">
-        <v>44076</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="G178" s="9">
-        <v>44076</v>
-      </c>
-      <c r="H178">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
-        <v>44077</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="9">
-        <v>44077</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="G179" s="9">
-        <v>44077</v>
-      </c>
-      <c r="H179">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
-        <v>44078</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="9">
-        <v>44078</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="G180" s="9">
-        <v>44078</v>
-      </c>
-      <c r="H180">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
-        <v>44079</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="9">
-        <v>44079</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="G181" s="9">
-        <v>44079</v>
-      </c>
-      <c r="H181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
-        <v>44080</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" s="9">
-        <v>44080</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="G182" s="9">
-        <v>44080</v>
-      </c>
-      <c r="H182">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
-        <v>44081</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="9">
-        <v>44081</v>
-      </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="G183" s="9">
-        <v>44081</v>
-      </c>
-      <c r="H183">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
-        <v>44082</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" s="9">
-        <v>44082</v>
-      </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
-      <c r="G184" s="9">
-        <v>44082</v>
-      </c>
-      <c r="H184">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
-        <v>44083</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" s="9">
-        <v>44083</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="G185" s="9">
-        <v>44083</v>
-      </c>
-      <c r="H185">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
-        <v>44084</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="9">
-        <v>44084</v>
-      </c>
-      <c r="D186">
-        <v>3</v>
-      </c>
-      <c r="G186" s="9">
-        <v>44084</v>
-      </c>
-      <c r="H186">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
-        <v>44085</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="9">
-        <v>44085</v>
-      </c>
-      <c r="D187">
-        <v>3</v>
-      </c>
-      <c r="G187" s="9">
-        <v>44085</v>
-      </c>
-      <c r="H187">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
-        <v>44086</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="9">
-        <v>44086</v>
-      </c>
-      <c r="D188">
-        <v>3</v>
-      </c>
-      <c r="G188" s="9">
-        <v>44086</v>
-      </c>
-      <c r="H188">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
-        <v>44087</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="9">
-        <v>44087</v>
-      </c>
-      <c r="D189">
-        <v>3</v>
-      </c>
-      <c r="G189" s="9">
-        <v>44087</v>
-      </c>
-      <c r="H189">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
-        <v>44088</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" s="9">
-        <v>44088</v>
-      </c>
-      <c r="D190">
-        <v>2</v>
-      </c>
-      <c r="G190" s="9">
-        <v>44088</v>
-      </c>
-      <c r="H190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
-        <v>44089</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="9">
-        <v>44089</v>
-      </c>
-      <c r="D191">
-        <v>2</v>
-      </c>
-      <c r="G191" s="9">
-        <v>44089</v>
-      </c>
-      <c r="H191">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
-        <v>44090</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="9">
-        <v>44090</v>
-      </c>
-      <c r="D192">
-        <v>2</v>
-      </c>
-      <c r="G192" s="9">
-        <v>44090</v>
-      </c>
-      <c r="H192">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
-        <v>44091</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="9">
-        <v>44091</v>
-      </c>
-      <c r="D193">
-        <v>3</v>
-      </c>
-      <c r="G193" s="9">
-        <v>44091</v>
-      </c>
-      <c r="H193">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
-        <v>44092</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" s="9">
-        <v>44092</v>
-      </c>
-      <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="G194" s="9">
-        <v>44092</v>
-      </c>
-      <c r="H194">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
-        <v>44093</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="9">
-        <v>44093</v>
-      </c>
-      <c r="D195">
-        <v>3</v>
-      </c>
-      <c r="G195" s="9">
-        <v>44093</v>
-      </c>
-      <c r="H195">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
-        <v>44094</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="9">
-        <v>44094</v>
-      </c>
-      <c r="D196">
-        <v>3</v>
-      </c>
-      <c r="G196" s="9">
-        <v>44094</v>
-      </c>
-      <c r="H196">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
-        <v>44095</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" s="9">
-        <v>44095</v>
-      </c>
-      <c r="D197">
-        <v>3</v>
-      </c>
-      <c r="G197" s="9">
-        <v>44095</v>
-      </c>
-      <c r="H197">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
-        <v>44096</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" s="9">
-        <v>44096</v>
-      </c>
-      <c r="D198">
-        <v>3</v>
-      </c>
-      <c r="G198" s="9">
-        <v>44096</v>
-      </c>
-      <c r="H198">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
-        <v>44097</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="9">
-        <v>44097</v>
-      </c>
-      <c r="D199">
-        <v>3</v>
-      </c>
-      <c r="G199" s="9">
-        <v>44097</v>
-      </c>
-      <c r="H199">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
-        <v>44098</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" s="9">
-        <v>44098</v>
-      </c>
-      <c r="D200">
-        <v>3</v>
-      </c>
-      <c r="G200" s="9">
-        <v>44098</v>
-      </c>
-      <c r="H200">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
-        <v>44099</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="9">
-        <v>44099</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="G201" s="9">
-        <v>44099</v>
-      </c>
-      <c r="H201">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
-        <v>44100</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" s="9">
-        <v>44100</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="G202" s="9">
-        <v>44100</v>
-      </c>
-      <c r="H202">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
-        <v>44101</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="9">
-        <v>44101</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="G203" s="9">
-        <v>44101</v>
-      </c>
-      <c r="H203">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
-        <v>44102</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="9">
-        <v>44102</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="G204" s="9">
-        <v>44102</v>
-      </c>
-      <c r="H204">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
-        <v>44103</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="9">
-        <v>44103</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="G205" s="9">
-        <v>44103</v>
-      </c>
-      <c r="H205">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
-        <v>44104</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="9">
-        <v>44104</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="G206" s="9">
-        <v>44104</v>
-      </c>
-      <c r="H206">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
-        <v>44105</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="9">
-        <v>44105</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="G207" s="9">
-        <v>44105</v>
-      </c>
-      <c r="H207">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
-        <v>44106</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="9">
-        <v>44106</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="G208" s="9">
-        <v>44106</v>
-      </c>
-      <c r="H208">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
-        <v>44107</v>
-      </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="9">
-        <v>44107</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="G209" s="9">
-        <v>44107</v>
-      </c>
-      <c r="H209">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
-        <v>44108</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="9">
-        <v>44108</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="G210" s="9">
-        <v>44108</v>
-      </c>
-      <c r="H210">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
-        <v>44109</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="9">
-        <v>44109</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="G211" s="9">
-        <v>44109</v>
-      </c>
-      <c r="H211">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
-        <v>44110</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="9">
-        <v>44110</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="G212" s="9">
-        <v>44110</v>
-      </c>
-      <c r="H212">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
-        <v>44111</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="9">
-        <v>44111</v>
-      </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-      <c r="G213" s="9">
-        <v>44111</v>
-      </c>
-      <c r="H213">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
-        <v>44112</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="9">
-        <v>44112</v>
-      </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="G214" s="9">
-        <v>44112</v>
-      </c>
-      <c r="H214">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
-        <v>44113</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="9">
-        <v>44113</v>
-      </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-      <c r="G215" s="9">
-        <v>44113</v>
-      </c>
-      <c r="H215">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
-        <v>44114</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="9">
-        <v>44114</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="G216" s="9">
-        <v>44114</v>
-      </c>
-      <c r="H216">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
-        <v>44115</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="9">
-        <v>44115</v>
-      </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="G217" s="9">
-        <v>44115</v>
-      </c>
-      <c r="H217">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
-        <v>44116</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="9">
-        <v>44116</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="G218" s="9">
-        <v>44116</v>
-      </c>
-      <c r="H218">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
-        <v>44117</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="9">
-        <v>44117</v>
-      </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="G219" s="9">
-        <v>44117</v>
-      </c>
-      <c r="H219">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
-        <v>44118</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="9">
-        <v>44118</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="G220" s="9">
-        <v>44118</v>
-      </c>
-      <c r="H220">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
-        <v>44119</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="9">
-        <v>44119</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="G221" s="9">
-        <v>44119</v>
-      </c>
-      <c r="H221">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
-        <v>44120</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="9">
-        <v>44120</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="G222" s="9">
-        <v>44120</v>
-      </c>
-      <c r="H222">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
-        <v>44121</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="9">
-        <v>44121</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-      <c r="G223" s="9">
-        <v>44121</v>
-      </c>
-      <c r="H223">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
-        <v>44122</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="9">
-        <v>44122</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-      <c r="G224" s="9">
-        <v>44122</v>
-      </c>
-      <c r="H224">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
-        <v>44123</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="9">
-        <v>44123</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-      <c r="G225" s="9">
-        <v>44123</v>
-      </c>
-      <c r="H225">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
-        <v>44124</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="9">
-        <v>44124</v>
-      </c>
-      <c r="D226">
-        <v>2</v>
-      </c>
-      <c r="G226" s="9">
-        <v>44124</v>
-      </c>
-      <c r="H226">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
-        <v>44125</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="9">
-        <v>44125</v>
-      </c>
-      <c r="D227">
-        <v>2</v>
-      </c>
-      <c r="G227" s="9">
-        <v>44125</v>
-      </c>
-      <c r="H227">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
-        <v>44126</v>
-      </c>
-      <c r="B228" s="2"/>
-      <c r="C228" s="9">
-        <v>44126</v>
-      </c>
-      <c r="D228">
-        <v>2</v>
-      </c>
-      <c r="G228" s="9">
-        <v>44126</v>
-      </c>
-      <c r="H228">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
-        <v>44127</v>
-      </c>
-      <c r="B229" s="2"/>
-      <c r="C229" s="9">
-        <v>44127</v>
-      </c>
-      <c r="D229">
-        <v>3</v>
-      </c>
-      <c r="G229" s="9">
-        <v>44127</v>
-      </c>
-      <c r="H229">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
-        <v>44128</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="9">
-        <v>44128</v>
-      </c>
-      <c r="D230">
-        <v>3</v>
-      </c>
-      <c r="G230" s="9">
-        <v>44128</v>
-      </c>
-      <c r="H230">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
-        <v>44129</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="9">
-        <v>44129</v>
-      </c>
-      <c r="D231">
-        <v>3</v>
-      </c>
-      <c r="G231" s="9">
-        <v>44129</v>
-      </c>
-      <c r="H231">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
-        <v>44130</v>
-      </c>
-      <c r="B232" s="2"/>
-      <c r="C232" s="9">
-        <v>44130</v>
-      </c>
-      <c r="D232">
-        <v>3</v>
-      </c>
-      <c r="G232" s="9">
-        <v>44130</v>
-      </c>
-      <c r="H232">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
-        <v>44131</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" s="9">
-        <v>44131</v>
-      </c>
-      <c r="D233">
-        <v>2</v>
-      </c>
-      <c r="G233" s="9">
-        <v>44131</v>
-      </c>
-      <c r="H233">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
-        <v>44132</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="9">
-        <v>44132</v>
-      </c>
-      <c r="D234">
-        <v>5</v>
-      </c>
-      <c r="G234" s="9">
-        <v>44132</v>
-      </c>
-      <c r="H234">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
-        <v>44133</v>
-      </c>
-      <c r="B235" s="2"/>
-      <c r="C235" s="9">
-        <v>44133</v>
-      </c>
-      <c r="D235">
-        <v>3</v>
-      </c>
-      <c r="G235" s="9">
-        <v>44133</v>
-      </c>
-      <c r="H235">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
-        <v>44134</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="9">
-        <v>44134</v>
-      </c>
-      <c r="D236">
-        <v>4</v>
-      </c>
-      <c r="G236" s="9">
-        <v>44134</v>
-      </c>
-      <c r="H236">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
-        <v>44135</v>
-      </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="9">
-        <v>44135</v>
-      </c>
-      <c r="D237">
-        <v>5</v>
-      </c>
-      <c r="G237" s="9">
-        <v>44135</v>
-      </c>
-      <c r="H237">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
-        <v>44136</v>
-      </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="9">
-        <v>44136</v>
-      </c>
-      <c r="D238">
-        <v>7</v>
-      </c>
-      <c r="G238" s="9">
-        <v>44136</v>
-      </c>
-      <c r="H238">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
-        <v>44137</v>
-      </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="9">
-        <v>44137</v>
-      </c>
-      <c r="D239">
-        <v>10</v>
-      </c>
-      <c r="G239" s="9">
-        <v>44137</v>
-      </c>
-      <c r="H239">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
-        <v>44138</v>
-      </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="9">
-        <v>44138</v>
-      </c>
-      <c r="D240">
-        <v>14</v>
-      </c>
-      <c r="G240" s="9">
-        <v>44138</v>
-      </c>
-      <c r="H240">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
-        <v>44139</v>
-      </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="9">
-        <v>44139</v>
-      </c>
-      <c r="D241">
-        <v>17</v>
-      </c>
-      <c r="G241" s="9">
-        <v>44139</v>
-      </c>
-      <c r="H241">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
-        <v>44140</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="9">
-        <v>44140</v>
-      </c>
-      <c r="D242">
-        <v>15</v>
-      </c>
-      <c r="G242" s="9">
-        <v>44140</v>
-      </c>
-      <c r="H242">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
-        <v>44141</v>
-      </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="9">
-        <v>44141</v>
-      </c>
-      <c r="D243">
-        <v>15</v>
-      </c>
-      <c r="G243" s="9">
-        <v>44141</v>
-      </c>
-      <c r="H243">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
-        <v>44142</v>
-      </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="9">
-        <v>44142</v>
-      </c>
-      <c r="D244">
-        <v>15</v>
-      </c>
-      <c r="G244" s="9">
-        <v>44142</v>
-      </c>
-      <c r="H244">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
-        <v>44143</v>
-      </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="9">
-        <v>44143</v>
-      </c>
-      <c r="D245">
-        <v>15</v>
-      </c>
-      <c r="G245" s="9">
-        <v>44143</v>
-      </c>
-      <c r="H245">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
-        <v>44144</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="9">
-        <v>44144</v>
-      </c>
-      <c r="D246">
-        <v>17</v>
-      </c>
-      <c r="G246" s="9">
-        <v>44144</v>
-      </c>
-      <c r="H246">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
-        <v>44145</v>
-      </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="9">
-        <v>44145</v>
-      </c>
-      <c r="D247">
-        <v>18</v>
-      </c>
-      <c r="G247" s="9">
-        <v>44145</v>
-      </c>
-      <c r="H247">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
-        <v>44146</v>
-      </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="9">
-        <v>44146</v>
-      </c>
-      <c r="D248">
-        <v>16</v>
-      </c>
-      <c r="G248" s="9">
-        <v>44146</v>
-      </c>
-      <c r="H248">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
-        <v>44147</v>
-      </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="9">
-        <v>44147</v>
-      </c>
-      <c r="D249">
-        <v>16</v>
-      </c>
-      <c r="G249" s="9">
-        <v>44147</v>
-      </c>
-      <c r="H249">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
-        <v>44148</v>
-      </c>
-      <c r="B250" s="2"/>
-      <c r="C250" s="9">
-        <v>44148</v>
-      </c>
-      <c r="D250">
-        <v>17</v>
-      </c>
-      <c r="G250" s="9">
-        <v>44148</v>
-      </c>
-      <c r="H250">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
-        <v>44149</v>
-      </c>
-      <c r="B251" s="2"/>
-      <c r="C251" s="9">
-        <v>44149</v>
-      </c>
-      <c r="D251">
-        <v>18</v>
-      </c>
-      <c r="G251" s="9">
-        <v>44149</v>
-      </c>
-      <c r="H251">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
-        <v>44150</v>
-      </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="9">
-        <v>44150</v>
-      </c>
-      <c r="D252">
-        <v>19</v>
-      </c>
-      <c r="G252" s="9">
-        <v>44150</v>
-      </c>
-      <c r="H252">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
-        <v>44151</v>
-      </c>
-      <c r="B253" s="2"/>
-      <c r="C253" s="9">
-        <v>44151</v>
-      </c>
-      <c r="D253">
-        <v>21</v>
-      </c>
-      <c r="G253" s="9">
-        <v>44151</v>
-      </c>
-      <c r="H253">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
-        <v>44152</v>
-      </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="9">
-        <v>44152</v>
-      </c>
-      <c r="D254">
-        <v>25</v>
-      </c>
-      <c r="G254" s="9">
-        <v>44152</v>
-      </c>
-      <c r="H254">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
-        <v>44153</v>
-      </c>
-      <c r="B255" s="2"/>
-      <c r="C255" s="9">
-        <v>44153</v>
-      </c>
-      <c r="D255">
-        <v>19</v>
-      </c>
-      <c r="G255" s="9">
-        <v>44153</v>
-      </c>
-      <c r="H255">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
-        <v>44154</v>
-      </c>
-      <c r="B256" s="2"/>
-      <c r="C256" s="9">
-        <v>44154</v>
-      </c>
-      <c r="D256">
-        <v>20</v>
-      </c>
-      <c r="G256" s="9">
-        <v>44154</v>
-      </c>
-      <c r="H256">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
-        <v>44155</v>
-      </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="9">
-        <v>44155</v>
-      </c>
-      <c r="D257">
-        <v>19</v>
-      </c>
-      <c r="G257" s="9">
-        <v>44155</v>
-      </c>
-      <c r="H257">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
-        <v>44156</v>
-      </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="9">
-        <v>44156</v>
-      </c>
-      <c r="D258">
-        <v>17</v>
-      </c>
-      <c r="G258" s="9">
-        <v>44156</v>
-      </c>
-      <c r="H258">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
-        <v>44157</v>
-      </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="9">
-        <v>44157</v>
-      </c>
-      <c r="D259">
-        <v>19</v>
-      </c>
-      <c r="G259" s="9">
-        <v>44157</v>
-      </c>
-      <c r="H259">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
-        <v>44158</v>
-      </c>
-      <c r="B260" s="2"/>
-      <c r="C260" s="9">
-        <v>44158</v>
-      </c>
-      <c r="D260">
-        <v>19</v>
-      </c>
-      <c r="G260" s="9">
-        <v>44158</v>
-      </c>
-      <c r="H260">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
-        <v>44159</v>
-      </c>
-      <c r="B261" s="2"/>
-      <c r="C261" s="9">
-        <v>44159</v>
-      </c>
-      <c r="D261">
-        <v>18</v>
-      </c>
-      <c r="G261" s="9">
-        <v>44159</v>
-      </c>
-      <c r="H261">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
-        <v>44160</v>
-      </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="9">
-        <v>44160</v>
-      </c>
-      <c r="D262">
-        <v>19</v>
-      </c>
-      <c r="G262" s="9">
-        <v>44160</v>
-      </c>
-      <c r="H262">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="4">
-        <v>44161</v>
-      </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="9">
-        <v>44161</v>
-      </c>
-      <c r="D263">
-        <v>21</v>
-      </c>
-      <c r="G263" s="9">
-        <v>44161</v>
-      </c>
-      <c r="H263">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
-        <v>44162</v>
-      </c>
-      <c r="B264" s="2"/>
-      <c r="C264" s="9">
-        <v>44162</v>
-      </c>
-      <c r="D264">
-        <v>21</v>
-      </c>
-      <c r="G264" s="9">
-        <v>44162</v>
-      </c>
-      <c r="H264">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="4">
-        <v>44163</v>
-      </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="9">
-        <v>44163</v>
-      </c>
-      <c r="D265">
-        <v>20</v>
-      </c>
-      <c r="G265" s="9">
-        <v>44163</v>
-      </c>
-      <c r="H265">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="4">
-        <v>44164</v>
-      </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="9">
-        <v>44164</v>
-      </c>
-      <c r="D266">
-        <v>21</v>
-      </c>
-      <c r="G266" s="9">
-        <v>44164</v>
-      </c>
-      <c r="H266">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="4">
-        <v>44165</v>
-      </c>
-      <c r="B267" s="2"/>
-      <c r="C267" s="9">
-        <v>44165</v>
-      </c>
-      <c r="D267">
-        <v>22</v>
-      </c>
-      <c r="G267" s="9">
-        <v>44165</v>
-      </c>
-      <c r="H267">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="4">
-        <v>44166</v>
-      </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="9">
-        <v>44166</v>
-      </c>
-      <c r="D268">
-        <v>21</v>
-      </c>
-      <c r="G268" s="9">
-        <v>44166</v>
-      </c>
-      <c r="H268">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="4">
-        <v>44167</v>
-      </c>
-      <c r="B269" s="2"/>
-      <c r="C269" s="9">
-        <v>44167</v>
-      </c>
-      <c r="D269">
-        <v>20</v>
-      </c>
-      <c r="G269" s="9">
-        <v>44167</v>
-      </c>
-      <c r="H269">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
-        <v>44168</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="9">
-        <v>44168</v>
-      </c>
-      <c r="D270">
-        <v>20</v>
-      </c>
-      <c r="G270" s="9">
-        <v>44168</v>
-      </c>
-      <c r="H270">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
-        <v>44169</v>
-      </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="9">
-        <v>44169</v>
-      </c>
-      <c r="D271">
-        <v>21</v>
-      </c>
-      <c r="G271" s="9">
-        <v>44169</v>
-      </c>
-      <c r="H271">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
-        <v>44170</v>
-      </c>
-      <c r="B272" s="2"/>
-      <c r="C272" s="9">
-        <v>44170</v>
-      </c>
-      <c r="D272">
-        <v>19</v>
-      </c>
-      <c r="G272" s="9">
-        <v>44170</v>
-      </c>
-      <c r="H272">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
-        <v>44171</v>
-      </c>
-      <c r="B273" s="2"/>
-      <c r="C273" s="9">
-        <v>44171</v>
-      </c>
-      <c r="D273">
-        <v>21</v>
-      </c>
-      <c r="G273" s="9">
-        <v>44171</v>
-      </c>
-      <c r="H273">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
-        <v>44172</v>
-      </c>
-      <c r="B274" s="2"/>
-      <c r="C274" s="9">
-        <v>44172</v>
-      </c>
-      <c r="D274">
-        <v>18</v>
-      </c>
-      <c r="G274" s="9">
-        <v>44172</v>
-      </c>
-      <c r="H274">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
-        <v>44173</v>
-      </c>
-      <c r="B275" s="2"/>
-      <c r="C275" s="9">
-        <v>44173</v>
-      </c>
-      <c r="D275">
-        <v>17</v>
-      </c>
-      <c r="G275" s="9">
-        <v>44173</v>
-      </c>
-      <c r="H275">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="4">
-        <v>44174</v>
-      </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="9">
-        <v>44174</v>
-      </c>
-      <c r="D276">
-        <v>17</v>
-      </c>
-      <c r="G276" s="9">
-        <v>44174</v>
-      </c>
-      <c r="H276">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="4">
-        <v>44175</v>
-      </c>
-      <c r="B277" s="2"/>
-      <c r="C277" s="9">
-        <v>44175</v>
-      </c>
-      <c r="D277">
-        <v>17</v>
-      </c>
-      <c r="G277" s="9">
-        <v>44175</v>
-      </c>
-      <c r="H277">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="4">
-        <v>44176</v>
-      </c>
-      <c r="B278" s="2"/>
-      <c r="C278" s="9">
-        <v>44176</v>
-      </c>
-      <c r="D278">
-        <v>16</v>
-      </c>
-      <c r="G278" s="9">
-        <v>44176</v>
-      </c>
-      <c r="H278">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="4">
-        <v>44177</v>
-      </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="9">
-        <v>44177</v>
-      </c>
-      <c r="D279">
-        <v>16</v>
-      </c>
-      <c r="G279" s="9">
-        <v>44177</v>
-      </c>
-      <c r="H279">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="4">
-        <v>44178</v>
-      </c>
-      <c r="B280" s="2"/>
-      <c r="C280" s="9">
-        <v>44178</v>
-      </c>
-      <c r="D280">
-        <v>14</v>
-      </c>
-      <c r="G280" s="9">
-        <v>44178</v>
-      </c>
-      <c r="H280">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="4">
-        <v>44179</v>
-      </c>
-      <c r="B281" s="2"/>
-      <c r="C281" s="9">
-        <v>44179</v>
-      </c>
-      <c r="D281">
-        <v>13</v>
-      </c>
-      <c r="G281" s="9">
-        <v>44179</v>
-      </c>
-      <c r="H281">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="4">
-        <v>44180</v>
-      </c>
-      <c r="B282" s="2"/>
-      <c r="C282" s="9">
-        <v>44180</v>
-      </c>
-      <c r="D282">
-        <v>13</v>
-      </c>
-      <c r="G282" s="9">
-        <v>44180</v>
-      </c>
-      <c r="H282">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="4">
-        <v>44181</v>
-      </c>
-      <c r="B283" s="2"/>
-      <c r="C283" s="9">
-        <v>44181</v>
-      </c>
-      <c r="D283">
-        <v>12</v>
-      </c>
-      <c r="G283" s="9">
-        <v>44181</v>
-      </c>
-      <c r="H283">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="4">
-        <v>44182</v>
-      </c>
-      <c r="B284" s="2"/>
-      <c r="C284" s="9">
-        <v>44182</v>
-      </c>
-      <c r="D284">
-        <v>14</v>
-      </c>
-      <c r="G284" s="9">
-        <v>44182</v>
-      </c>
-      <c r="H284">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="4">
-        <v>44183</v>
-      </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="9">
-        <v>44183</v>
-      </c>
-      <c r="D285">
-        <v>14</v>
-      </c>
-      <c r="G285" s="9">
-        <v>44183</v>
-      </c>
-      <c r="H285">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="4">
-        <v>44184</v>
-      </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="9">
-        <v>44184</v>
-      </c>
-      <c r="D286">
-        <v>16</v>
-      </c>
-      <c r="G286" s="9">
-        <v>44184</v>
-      </c>
-      <c r="H286">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="4">
-        <v>44185</v>
-      </c>
-      <c r="B287" s="2"/>
-      <c r="C287" s="9">
-        <v>44185</v>
-      </c>
-      <c r="D287">
-        <v>16</v>
-      </c>
-      <c r="G287" s="9">
-        <v>44185</v>
-      </c>
-      <c r="H287">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="4">
-        <v>44186</v>
-      </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="9">
-        <v>44186</v>
-      </c>
-      <c r="D288">
-        <v>11</v>
-      </c>
-      <c r="G288" s="9">
-        <v>44186</v>
-      </c>
-      <c r="H288">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="4">
-        <v>44187</v>
-      </c>
-      <c r="B289" s="2"/>
-      <c r="C289" s="9">
-        <v>44187</v>
-      </c>
-      <c r="D289">
-        <v>12</v>
-      </c>
-      <c r="G289" s="9">
-        <v>44187</v>
-      </c>
-      <c r="H289">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="4">
-        <v>44188</v>
-      </c>
-      <c r="B290" s="2"/>
-      <c r="C290" s="9">
-        <v>44188</v>
-      </c>
-      <c r="D290">
-        <v>10</v>
-      </c>
-      <c r="G290" s="9">
-        <v>44188</v>
-      </c>
-      <c r="H290">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="4">
-        <v>44189</v>
-      </c>
-      <c r="B291" s="2"/>
-      <c r="C291" s="9">
-        <v>44189</v>
-      </c>
-      <c r="D291">
-        <v>12</v>
-      </c>
-      <c r="G291" s="9">
-        <v>44189</v>
-      </c>
-      <c r="H291">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="4">
-        <v>44190</v>
-      </c>
-      <c r="B292" s="2"/>
-      <c r="C292" s="9">
-        <v>44190</v>
-      </c>
-      <c r="D292">
-        <v>11</v>
-      </c>
-      <c r="G292" s="9">
-        <v>44190</v>
-      </c>
-      <c r="H292">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="4">
-        <v>44191</v>
-      </c>
-      <c r="B293" s="2"/>
-      <c r="C293" s="9">
-        <v>44191</v>
-      </c>
-      <c r="D293">
-        <v>11</v>
-      </c>
-      <c r="G293" s="9">
-        <v>44191</v>
-      </c>
-      <c r="H293">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="4">
-        <v>44192</v>
-      </c>
-      <c r="B294" s="2"/>
-      <c r="C294" s="9">
-        <v>44192</v>
-      </c>
-      <c r="D294">
-        <v>11</v>
-      </c>
-      <c r="G294" s="9">
-        <v>44192</v>
-      </c>
-      <c r="H294">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="4">
-        <v>44193</v>
-      </c>
-      <c r="B295" s="2"/>
-      <c r="C295" s="9">
-        <v>44193</v>
-      </c>
-      <c r="D295">
-        <v>9</v>
-      </c>
-      <c r="G295" s="9">
-        <v>44193</v>
-      </c>
-      <c r="H295">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="4">
-        <v>44194</v>
-      </c>
-      <c r="B296" s="2"/>
-      <c r="C296" s="9">
-        <v>44194</v>
-      </c>
-      <c r="D296">
-        <v>10</v>
-      </c>
-      <c r="G296" s="9">
-        <v>44194</v>
-      </c>
-      <c r="H296">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" s="4">
-        <v>44195</v>
-      </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="9">
-        <v>44195</v>
-      </c>
-      <c r="D297">
-        <v>11</v>
-      </c>
-      <c r="G297" s="9">
-        <v>44195</v>
-      </c>
-      <c r="H297">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" s="4">
-        <v>44196</v>
-      </c>
-      <c r="B298" s="2"/>
-      <c r="C298" s="9">
-        <v>44196</v>
-      </c>
-      <c r="D298">
-        <v>13</v>
-      </c>
-      <c r="G298" s="9">
-        <v>44196</v>
-      </c>
-      <c r="H298">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C299" s="9">
-        <v>44197</v>
-      </c>
-      <c r="D299">
-        <v>12</v>
-      </c>
-      <c r="G299" s="9">
-        <v>44197</v>
-      </c>
-      <c r="H299">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" s="4">
-        <v>44198</v>
-      </c>
-      <c r="C300" s="9">
-        <v>44198</v>
-      </c>
-      <c r="D300">
-        <v>13</v>
-      </c>
-      <c r="G300" s="9">
-        <v>44198</v>
-      </c>
-      <c r="H300">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" s="4">
-        <v>44199</v>
-      </c>
-      <c r="C301" s="9">
-        <v>44199</v>
-      </c>
-      <c r="D301">
-        <v>11</v>
-      </c>
-      <c r="G301" s="9">
-        <v>44199</v>
-      </c>
-      <c r="H301">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" s="4">
-        <v>44200</v>
-      </c>
-      <c r="C302" s="9">
-        <v>44200</v>
-      </c>
-      <c r="D302">
-        <v>10</v>
-      </c>
-      <c r="G302" s="9">
-        <v>44200</v>
-      </c>
-      <c r="H302">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" s="4">
-        <v>44201</v>
-      </c>
-      <c r="C303" s="9">
-        <v>44201</v>
-      </c>
-      <c r="D303">
-        <v>10</v>
-      </c>
-      <c r="G303" s="9">
-        <v>44201</v>
-      </c>
-      <c r="H303">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" s="4">
-        <v>44202</v>
-      </c>
-      <c r="C304" s="9">
-        <v>44202</v>
-      </c>
-      <c r="D304">
-        <v>10</v>
-      </c>
-      <c r="G304" s="9">
-        <v>44202</v>
-      </c>
-      <c r="H304">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="4">
-        <v>44203</v>
-      </c>
-      <c r="C305" s="9">
-        <v>44203</v>
-      </c>
-      <c r="D305">
-        <v>11</v>
-      </c>
-      <c r="G305" s="9">
-        <v>44203</v>
-      </c>
-      <c r="H305">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="4">
-        <v>44204</v>
-      </c>
-      <c r="C306" s="9">
-        <v>44204</v>
-      </c>
-      <c r="D306">
-        <v>10</v>
-      </c>
-      <c r="G306" s="9">
-        <v>44204</v>
-      </c>
-      <c r="H306">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="4">
-        <v>44205</v>
-      </c>
-      <c r="C307" s="9">
-        <v>44205</v>
-      </c>
-      <c r="D307">
-        <v>10</v>
-      </c>
-      <c r="G307" s="9">
-        <v>44205</v>
-      </c>
-      <c r="H307">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="4">
-        <v>44206</v>
-      </c>
-      <c r="C308" s="9">
-        <v>44206</v>
-      </c>
-      <c r="D308">
-        <v>13</v>
-      </c>
-      <c r="G308" s="9">
-        <v>44206</v>
-      </c>
-      <c r="H308">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="4">
-        <v>44207</v>
-      </c>
-      <c r="C309" s="9">
-        <v>44207</v>
-      </c>
-      <c r="D309">
-        <v>12</v>
-      </c>
-      <c r="G309" s="9">
-        <v>44207</v>
-      </c>
-      <c r="H309">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="4">
-        <v>44208</v>
-      </c>
-      <c r="C310" s="9">
-        <v>44208</v>
-      </c>
-      <c r="D310">
-        <v>13</v>
-      </c>
-      <c r="G310" s="9">
-        <v>44208</v>
-      </c>
-      <c r="H310">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="4">
-        <v>44209</v>
-      </c>
-      <c r="C311" s="9">
-        <v>44209</v>
-      </c>
-      <c r="D311">
-        <v>14</v>
-      </c>
-      <c r="G311" s="9">
-        <v>44209</v>
-      </c>
-      <c r="H311">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="5">
-        <v>44210</v>
-      </c>
-      <c r="C312" s="9">
-        <v>44210</v>
-      </c>
-      <c r="D312">
-        <v>16</v>
-      </c>
-      <c r="G312" s="9">
-        <v>44210</v>
-      </c>
-      <c r="H312">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="5">
-        <v>44211</v>
-      </c>
-      <c r="C313" s="9">
-        <v>44211</v>
-      </c>
-      <c r="D313">
-        <v>14</v>
-      </c>
-      <c r="G313" s="9">
-        <v>44211</v>
-      </c>
-      <c r="H313">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" s="5">
-        <v>44212</v>
-      </c>
-      <c r="C314" s="9">
-        <v>44212</v>
-      </c>
-      <c r="D314">
-        <v>13</v>
-      </c>
-      <c r="G314" s="9">
-        <v>44212</v>
-      </c>
-      <c r="H314">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" s="5">
-        <v>44213</v>
-      </c>
-      <c r="C315" s="9">
-        <v>44213</v>
-      </c>
-      <c r="D315">
-        <v>13</v>
-      </c>
-      <c r="G315" s="9">
-        <v>44213</v>
-      </c>
-      <c r="H315">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" s="5">
-        <v>44214</v>
-      </c>
-      <c r="C316" s="9">
-        <v>44214</v>
-      </c>
-      <c r="D316">
-        <v>13</v>
-      </c>
-      <c r="G316" s="9">
-        <v>44214</v>
-      </c>
-      <c r="H316">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="5">
-        <v>44215</v>
-      </c>
-      <c r="C317" s="9">
-        <v>44215</v>
-      </c>
-      <c r="D317">
-        <v>13</v>
-      </c>
-      <c r="G317" s="9">
-        <v>44215</v>
-      </c>
-      <c r="H317">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" s="5">
-        <v>44216</v>
-      </c>
-      <c r="C318" s="9">
-        <v>44216</v>
-      </c>
-      <c r="D318">
-        <v>13</v>
-      </c>
-      <c r="G318" s="9">
-        <v>44216</v>
-      </c>
-      <c r="H318">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319" s="5">
-        <v>44217</v>
-      </c>
-      <c r="C319" s="9">
-        <v>44217</v>
-      </c>
-      <c r="D319">
-        <v>12</v>
-      </c>
-      <c r="G319" s="9">
-        <v>44217</v>
-      </c>
-      <c r="H319">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A320" s="5">
-        <v>44218</v>
-      </c>
-      <c r="C320" s="9">
-        <v>44218</v>
-      </c>
-      <c r="D320">
-        <v>13</v>
-      </c>
-      <c r="G320" s="9">
-        <v>44218</v>
-      </c>
-      <c r="H320">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A321" s="5">
-        <v>44219</v>
-      </c>
-      <c r="C321" s="9">
-        <v>44219</v>
-      </c>
-      <c r="D321">
-        <v>13</v>
-      </c>
-      <c r="G321" s="9">
-        <v>44219</v>
-      </c>
-      <c r="H321">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="5">
-        <v>44220</v>
-      </c>
-      <c r="C322" s="9">
-        <v>44220</v>
-      </c>
-      <c r="D322">
-        <v>11</v>
-      </c>
-      <c r="G322" s="9">
-        <v>44220</v>
-      </c>
-      <c r="H322">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="5">
-        <v>44221</v>
-      </c>
-      <c r="C323" s="9">
-        <v>44221</v>
-      </c>
-      <c r="D323">
-        <v>14</v>
-      </c>
-      <c r="G323" s="9">
-        <v>44221</v>
-      </c>
-      <c r="H323">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="5">
-        <v>44222</v>
-      </c>
-      <c r="C324" s="9">
-        <v>44222</v>
-      </c>
-      <c r="D324">
-        <v>12</v>
-      </c>
-      <c r="G324" s="9">
-        <v>44222</v>
-      </c>
-      <c r="H324">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="5">
-        <v>44223</v>
-      </c>
-      <c r="C325" s="9">
-        <v>44223</v>
-      </c>
-      <c r="D325">
-        <v>11</v>
-      </c>
-      <c r="G325" s="9">
-        <v>44223</v>
-      </c>
-      <c r="H325">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="5">
-        <v>44224</v>
-      </c>
-      <c r="C326" s="9">
-        <v>44224</v>
-      </c>
-      <c r="D326">
-        <v>11</v>
-      </c>
-      <c r="G326" s="9">
-        <v>44224</v>
-      </c>
-      <c r="H326">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="5">
-        <v>44225</v>
-      </c>
-      <c r="C327" s="9">
-        <v>44225</v>
-      </c>
-      <c r="D327">
-        <v>10</v>
-      </c>
-      <c r="G327" s="9">
-        <v>44225</v>
-      </c>
-      <c r="H327">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="5">
-        <v>44226</v>
-      </c>
-      <c r="C328" s="9">
-        <v>44226</v>
-      </c>
-      <c r="D328">
-        <v>9</v>
-      </c>
-      <c r="G328" s="9">
-        <v>44226</v>
-      </c>
-      <c r="H328">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="5">
-        <v>44227</v>
-      </c>
-      <c r="C329" s="9">
-        <v>44227</v>
-      </c>
-      <c r="D329">
-        <v>8</v>
-      </c>
-      <c r="G329" s="9">
-        <v>44227</v>
-      </c>
-      <c r="H329">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="5">
-        <v>44228</v>
-      </c>
-      <c r="C330" s="9">
-        <v>44228</v>
-      </c>
-      <c r="D330">
-        <v>9</v>
-      </c>
-      <c r="G330" s="9">
-        <v>44228</v>
-      </c>
-      <c r="H330">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="5">
-        <v>44229</v>
-      </c>
-      <c r="C331" s="9">
-        <v>44229</v>
-      </c>
-      <c r="D331">
-        <v>10</v>
-      </c>
-      <c r="G331" s="9">
-        <v>44229</v>
-      </c>
-      <c r="H331">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="5">
-        <v>44230</v>
-      </c>
-      <c r="C332" s="9">
-        <v>44230</v>
-      </c>
-      <c r="D332">
-        <v>9</v>
-      </c>
-      <c r="G332" s="9">
-        <v>44230</v>
-      </c>
-      <c r="H332">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="5">
-        <v>44231</v>
-      </c>
-      <c r="C333" s="9">
-        <v>44231</v>
-      </c>
-      <c r="D333">
-        <v>10</v>
-      </c>
-      <c r="G333" s="9">
-        <v>44231</v>
-      </c>
-      <c r="H333">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="5">
-        <v>44232</v>
-      </c>
-      <c r="C334" s="9">
-        <v>44232</v>
-      </c>
-      <c r="D334">
-        <v>10</v>
-      </c>
-      <c r="G334" s="9">
-        <v>44232</v>
-      </c>
-      <c r="H334">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="5">
-        <v>44233</v>
-      </c>
-      <c r="C335" s="9">
-        <v>44233</v>
-      </c>
-      <c r="D335">
-        <v>10</v>
-      </c>
-      <c r="G335" s="9">
-        <v>44233</v>
-      </c>
-      <c r="H335">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="5">
-        <v>44234</v>
-      </c>
-      <c r="C336" s="9">
-        <v>44234</v>
-      </c>
-      <c r="D336">
-        <v>11</v>
-      </c>
-      <c r="G336" s="9">
-        <v>44234</v>
-      </c>
-      <c r="H336">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="5">
-        <v>44235</v>
-      </c>
-      <c r="C337" s="9">
-        <v>44235</v>
-      </c>
-      <c r="D337">
-        <v>10</v>
-      </c>
-      <c r="G337" s="9">
-        <v>44235</v>
-      </c>
-      <c r="H337">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="5">
-        <v>44236</v>
-      </c>
-      <c r="C338" s="9">
-        <v>44236</v>
-      </c>
-      <c r="D338">
-        <v>9</v>
-      </c>
-      <c r="G338" s="9">
-        <v>44236</v>
-      </c>
-      <c r="H338">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="5">
-        <v>44237</v>
-      </c>
-      <c r="C339" s="9">
-        <v>44237</v>
-      </c>
-      <c r="D339">
-        <v>10</v>
-      </c>
-      <c r="G339" s="9">
-        <v>44237</v>
-      </c>
-      <c r="H339">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="5">
-        <v>44238</v>
-      </c>
-      <c r="C340" s="9">
-        <v>44238</v>
-      </c>
-      <c r="D340">
-        <v>9</v>
-      </c>
-      <c r="G340" s="9">
-        <v>44238</v>
-      </c>
-      <c r="H340">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="5">
-        <v>44239</v>
-      </c>
-      <c r="C341" s="9">
-        <v>44239</v>
-      </c>
-      <c r="D341">
-        <v>9</v>
-      </c>
-      <c r="G341" s="9">
-        <v>44239</v>
-      </c>
-      <c r="H341">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="5">
-        <v>44240</v>
-      </c>
-      <c r="C342" s="9">
-        <v>44240</v>
-      </c>
-      <c r="D342">
-        <v>9</v>
-      </c>
-      <c r="G342" s="9">
-        <v>44240</v>
-      </c>
-      <c r="H342">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="5">
-        <v>44241</v>
-      </c>
-      <c r="C343" s="9">
-        <v>44241</v>
-      </c>
-      <c r="D343">
-        <v>8</v>
-      </c>
-      <c r="G343" s="9">
-        <v>44241</v>
-      </c>
-      <c r="H343">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="5">
-        <v>44242</v>
-      </c>
-      <c r="C344" s="9">
-        <v>44242</v>
-      </c>
-      <c r="D344">
-        <v>9</v>
-      </c>
-      <c r="G344" s="9">
-        <v>44242</v>
-      </c>
-      <c r="H344">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="5">
-        <v>44243</v>
-      </c>
-      <c r="C345" s="9">
-        <v>44243</v>
-      </c>
-      <c r="D345">
-        <v>6</v>
-      </c>
-      <c r="G345" s="9">
-        <v>44243</v>
-      </c>
-      <c r="H345">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="5">
-        <v>44244</v>
-      </c>
-      <c r="C346" s="9">
-        <v>44244</v>
-      </c>
-      <c r="D346">
-        <v>5</v>
-      </c>
-      <c r="G346" s="9">
-        <v>44244</v>
-      </c>
-      <c r="H346">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="5">
-        <v>44245</v>
-      </c>
-      <c r="C347" s="9">
-        <v>44245</v>
-      </c>
-      <c r="D347">
-        <v>5</v>
-      </c>
-      <c r="G347" s="9">
-        <v>44245</v>
-      </c>
-      <c r="H347">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="5">
-        <v>44246</v>
-      </c>
-      <c r="C348" s="9">
-        <v>44246</v>
-      </c>
-      <c r="D348">
-        <v>5</v>
-      </c>
-      <c r="G348" s="9">
-        <v>44246</v>
-      </c>
-      <c r="H348">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="5">
-        <v>44247</v>
-      </c>
-      <c r="C349" s="9">
-        <v>44247</v>
-      </c>
-      <c r="D349">
-        <v>5</v>
-      </c>
-      <c r="G349" s="9">
-        <v>44247</v>
-      </c>
-      <c r="H349">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="5">
-        <v>44248</v>
-      </c>
-      <c r="C350" s="9">
-        <v>44248</v>
-      </c>
-      <c r="D350">
-        <v>6</v>
-      </c>
-      <c r="G350" s="9">
-        <v>44248</v>
-      </c>
-      <c r="H350">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="5">
-        <v>44249</v>
-      </c>
-      <c r="C351" s="9">
-        <v>44249</v>
-      </c>
-      <c r="D351">
-        <v>7</v>
-      </c>
-      <c r="G351" s="9">
-        <v>44249</v>
-      </c>
-      <c r="H351">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="5">
-        <v>44250</v>
-      </c>
-      <c r="C352" s="9">
-        <v>44250</v>
-      </c>
-      <c r="D352">
-        <v>7</v>
-      </c>
-      <c r="G352" s="9">
-        <v>44250</v>
-      </c>
-      <c r="H352">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A353" s="5">
-        <v>44251</v>
-      </c>
-      <c r="C353" s="9">
-        <v>44251</v>
-      </c>
-      <c r="D353">
-        <v>7</v>
-      </c>
-      <c r="G353" s="9">
-        <v>44251</v>
-      </c>
-      <c r="H353">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A354" s="5">
-        <v>44252</v>
-      </c>
-      <c r="C354" s="9">
-        <v>44252</v>
-      </c>
-      <c r="D354">
-        <v>4</v>
-      </c>
-      <c r="G354" s="9">
-        <v>44252</v>
-      </c>
-      <c r="H354">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A355" s="5">
-        <v>44253</v>
-      </c>
-      <c r="C355" s="9">
-        <v>44253</v>
-      </c>
-      <c r="D355">
-        <v>3</v>
-      </c>
-      <c r="G355" s="9">
-        <v>44253</v>
-      </c>
-      <c r="H355">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A356" s="5">
-        <v>44254</v>
-      </c>
-      <c r="C356" s="9">
-        <v>44254</v>
-      </c>
-      <c r="D356">
-        <v>3</v>
-      </c>
-      <c r="G356" s="9">
-        <v>44254</v>
-      </c>
-      <c r="H356">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A357" s="5">
-        <v>44255</v>
-      </c>
-      <c r="C357" s="9">
-        <v>44255</v>
-      </c>
-      <c r="D357">
-        <v>3</v>
-      </c>
-      <c r="G357" s="9">
-        <v>44255</v>
-      </c>
-      <c r="H357">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A358" s="5">
-        <v>44256</v>
-      </c>
-      <c r="C358" s="9">
-        <v>44256</v>
-      </c>
-      <c r="D358">
-        <v>4</v>
-      </c>
-      <c r="G358" s="9">
-        <v>44256</v>
-      </c>
-      <c r="H358">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A359" s="5">
-        <v>44257</v>
-      </c>
-      <c r="C359" s="9">
-        <v>44257</v>
-      </c>
-      <c r="D359">
-        <v>5</v>
-      </c>
-      <c r="G359" s="9">
-        <v>44257</v>
-      </c>
-      <c r="H359">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A360" s="5">
-        <v>44258</v>
-      </c>
-      <c r="C360" s="9">
-        <v>44258</v>
-      </c>
-      <c r="D360">
-        <v>5</v>
-      </c>
-      <c r="G360" s="9">
-        <v>44258</v>
-      </c>
-      <c r="H360">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A361" s="5">
-        <v>44259</v>
-      </c>
-      <c r="C361" s="9">
-        <v>44259</v>
-      </c>
-      <c r="D361">
-        <v>7</v>
-      </c>
-      <c r="G361" s="9">
-        <v>44259</v>
-      </c>
-      <c r="H361">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A362" s="5">
-        <v>44260</v>
-      </c>
-      <c r="C362" s="9">
-        <v>44260</v>
-      </c>
-      <c r="D362">
-        <v>8</v>
-      </c>
-      <c r="G362" s="9">
-        <v>44260</v>
-      </c>
-      <c r="H362">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A363" s="5">
-        <v>44261</v>
-      </c>
-      <c r="C363" s="9">
-        <v>44261</v>
-      </c>
-      <c r="D363">
-        <v>8</v>
-      </c>
-      <c r="G363" s="9">
-        <v>44261</v>
-      </c>
-      <c r="H363">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A364" s="5">
-        <v>44262</v>
-      </c>
-      <c r="C364" s="9">
-        <v>44262</v>
-      </c>
-      <c r="D364">
-        <v>10</v>
-      </c>
-      <c r="G364" s="9">
-        <v>44262</v>
-      </c>
-      <c r="H364">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A365" s="5">
-        <v>44263</v>
-      </c>
-      <c r="C365" s="9">
-        <v>44263</v>
-      </c>
-      <c r="D365">
-        <v>12</v>
-      </c>
-      <c r="G365" s="9">
-        <v>44263</v>
-      </c>
-      <c r="H365">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A366" s="5">
-        <v>44264</v>
-      </c>
-      <c r="C366" s="9">
-        <v>44264</v>
-      </c>
-      <c r="D366">
-        <v>12</v>
-      </c>
-      <c r="G366" s="9">
-        <v>44264</v>
-      </c>
-      <c r="H366">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A367" s="5">
-        <v>44265</v>
-      </c>
-      <c r="C367" s="9">
-        <v>44265</v>
-      </c>
-      <c r="D367">
-        <v>11</v>
-      </c>
-      <c r="G367" s="9">
-        <v>44265</v>
-      </c>
-      <c r="H367">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A368" s="5">
-        <v>44266</v>
-      </c>
-      <c r="C368" s="9">
-        <v>44266</v>
-      </c>
-      <c r="D368">
-        <v>9</v>
-      </c>
-      <c r="G368" s="9">
-        <v>44266</v>
-      </c>
-      <c r="H368">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A369" s="5">
-        <v>44267</v>
-      </c>
-      <c r="C369" s="9">
-        <v>44267</v>
-      </c>
-      <c r="D369">
-        <v>11</v>
-      </c>
-      <c r="G369" s="9">
-        <v>44267</v>
-      </c>
-      <c r="H369">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A370" s="5">
-        <v>44268</v>
-      </c>
-      <c r="C370" s="9">
-        <v>44268</v>
-      </c>
-      <c r="D370">
-        <v>12</v>
-      </c>
-      <c r="G370" s="9">
-        <v>44268</v>
-      </c>
-      <c r="H370">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A371" s="5">
-        <v>44269</v>
-      </c>
-      <c r="C371" s="9">
-        <v>44269</v>
-      </c>
-      <c r="D371">
-        <v>13</v>
-      </c>
-      <c r="G371" s="9">
-        <v>44269</v>
-      </c>
-      <c r="H371">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A372" s="5">
-        <v>44270</v>
-      </c>
-      <c r="C372" s="9">
-        <v>44270</v>
-      </c>
-      <c r="D372">
-        <v>14</v>
-      </c>
-      <c r="G372" s="9">
-        <v>44270</v>
-      </c>
-      <c r="H372">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A373" s="5">
-        <v>44271</v>
-      </c>
-      <c r="C373" s="9">
-        <v>44271</v>
-      </c>
-      <c r="D373">
-        <v>15</v>
-      </c>
-      <c r="G373" s="9">
-        <v>44271</v>
-      </c>
-      <c r="H373">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A374" s="5">
-        <v>44272</v>
-      </c>
-      <c r="C374" s="9">
-        <v>44272</v>
-      </c>
-      <c r="D374">
-        <v>13</v>
-      </c>
-      <c r="G374" s="9">
-        <v>44272</v>
-      </c>
-      <c r="H374">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A375" s="5">
-        <v>44273</v>
-      </c>
-      <c r="C375" s="9">
-        <v>44273</v>
-      </c>
-      <c r="D375">
-        <v>17</v>
-      </c>
-      <c r="G375" s="9">
-        <v>44273</v>
-      </c>
-      <c r="H375">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A376" s="5">
-        <v>44274</v>
-      </c>
-      <c r="C376" s="9">
-        <v>44274</v>
-      </c>
-      <c r="D376">
-        <v>18</v>
-      </c>
-      <c r="G376" s="9">
-        <v>44274</v>
-      </c>
-      <c r="H376">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A377" s="5">
-        <v>44275</v>
-      </c>
-      <c r="C377" s="9">
-        <v>44275</v>
-      </c>
-      <c r="D377">
-        <v>17</v>
-      </c>
-      <c r="G377" s="9">
-        <v>44275</v>
-      </c>
-      <c r="H377">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A378" s="5">
-        <v>44276</v>
-      </c>
-      <c r="C378" s="9">
-        <v>44276</v>
-      </c>
-      <c r="D378">
-        <v>18</v>
-      </c>
-      <c r="G378" s="9">
-        <v>44276</v>
-      </c>
-      <c r="H378">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A379" s="5">
-        <v>44277</v>
-      </c>
-      <c r="C379" s="9">
-        <v>44277</v>
-      </c>
-      <c r="D379">
-        <v>18</v>
-      </c>
-      <c r="G379" s="9">
-        <v>44277</v>
-      </c>
-      <c r="H379">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A380" s="5">
-        <v>44278</v>
-      </c>
-      <c r="C380" s="9">
-        <v>44278</v>
-      </c>
-      <c r="D380">
-        <v>19</v>
-      </c>
-      <c r="G380" s="9">
-        <v>44278</v>
-      </c>
-      <c r="H380">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A381" s="5">
-        <v>44279</v>
-      </c>
-      <c r="C381" s="9">
-        <v>44279</v>
-      </c>
-      <c r="D381">
-        <v>19</v>
-      </c>
-      <c r="G381" s="9">
-        <v>44279</v>
-      </c>
-      <c r="H381">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A382" s="5">
-        <v>44280</v>
-      </c>
-      <c r="C382" s="9">
-        <v>44280</v>
-      </c>
-      <c r="D382">
-        <v>19</v>
-      </c>
-      <c r="G382" s="9">
-        <v>44280</v>
-      </c>
-      <c r="H382">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" s="5">
-        <v>44281</v>
-      </c>
-      <c r="C383" s="9">
-        <v>44281</v>
-      </c>
-      <c r="D383">
-        <v>19</v>
-      </c>
-      <c r="G383" s="9">
-        <v>44281</v>
-      </c>
-      <c r="H383">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A384" s="5">
-        <v>44282</v>
-      </c>
-      <c r="C384" s="9">
-        <v>44282</v>
-      </c>
-      <c r="D384">
-        <v>20</v>
-      </c>
-      <c r="G384" s="9">
-        <v>44282</v>
-      </c>
-      <c r="H384">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" s="5">
-        <v>44283</v>
-      </c>
-      <c r="C385" s="9">
-        <v>44283</v>
-      </c>
-      <c r="D385">
-        <v>20</v>
-      </c>
-      <c r="G385" s="9">
-        <v>44283</v>
-      </c>
-      <c r="H385">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
-        <v>44284</v>
-      </c>
-      <c r="C386" s="9">
-        <v>44284</v>
-      </c>
-      <c r="D386">
-        <v>22</v>
-      </c>
-      <c r="G386" s="9">
-        <v>44284</v>
-      </c>
-      <c r="H386">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
-        <v>44285</v>
-      </c>
-      <c r="C387" s="9">
-        <v>44285</v>
-      </c>
-      <c r="D387">
-        <v>22</v>
-      </c>
-      <c r="G387" s="9">
-        <v>44285</v>
-      </c>
-      <c r="H387">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
-        <v>44286</v>
-      </c>
-      <c r="C388" s="9">
-        <v>44286</v>
-      </c>
-      <c r="D388">
-        <v>24</v>
-      </c>
-      <c r="G388" s="9">
-        <v>44286</v>
-      </c>
-      <c r="H388">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C389" s="9">
-        <v>44287</v>
-      </c>
-      <c r="D389">
-        <v>26</v>
-      </c>
-      <c r="G389" s="9">
-        <v>44287</v>
-      </c>
-      <c r="H389">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390" s="4">
-        <v>44288</v>
-      </c>
-      <c r="C390" s="9">
-        <v>44288</v>
-      </c>
-      <c r="D390">
-        <v>25</v>
-      </c>
-      <c r="G390" s="9">
-        <v>44288</v>
-      </c>
-      <c r="H390">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="4">
-        <v>44289</v>
-      </c>
-      <c r="C391" s="9">
-        <v>44289</v>
-      </c>
-      <c r="D391">
-        <v>25</v>
-      </c>
-      <c r="G391" s="9">
-        <v>44289</v>
-      </c>
-      <c r="H391">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A392" s="4">
-        <v>44290</v>
-      </c>
-      <c r="C392" s="9">
-        <v>44290</v>
-      </c>
-      <c r="D392">
-        <v>24</v>
-      </c>
-      <c r="G392" s="9">
-        <v>44290</v>
-      </c>
-      <c r="H392">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A393" s="4">
-        <v>44291</v>
-      </c>
-      <c r="C393" s="9">
-        <v>44291</v>
-      </c>
-      <c r="D393">
-        <v>25</v>
-      </c>
-      <c r="G393" s="9">
-        <v>44291</v>
-      </c>
-      <c r="H393">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" s="4">
-        <v>44292</v>
-      </c>
-      <c r="C394" s="9">
-        <v>44292</v>
-      </c>
-      <c r="D394">
-        <v>25</v>
-      </c>
-      <c r="G394" s="9">
-        <v>44292</v>
-      </c>
-      <c r="H394">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A395" s="4">
-        <v>44293</v>
-      </c>
-      <c r="C395" s="9">
-        <v>44293</v>
-      </c>
-      <c r="D395">
-        <v>25</v>
-      </c>
-      <c r="G395" s="9">
-        <v>44293</v>
-      </c>
-      <c r="H395">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A396" s="4">
-        <v>44294</v>
-      </c>
-      <c r="C396" s="9">
-        <v>44294</v>
-      </c>
-      <c r="D396">
-        <v>24</v>
-      </c>
-      <c r="G396" s="9">
-        <v>44294</v>
-      </c>
-      <c r="H396">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397" s="4">
-        <v>44295</v>
-      </c>
-      <c r="C397" s="9">
-        <v>44295</v>
-      </c>
-      <c r="D397">
-        <v>24</v>
-      </c>
-      <c r="G397" s="9">
-        <v>44295</v>
-      </c>
-      <c r="H397">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A398" s="4">
-        <v>44296</v>
-      </c>
-      <c r="C398" s="9">
-        <v>44296</v>
-      </c>
-      <c r="D398">
-        <v>25</v>
-      </c>
-      <c r="G398" s="9">
-        <v>44296</v>
-      </c>
-      <c r="H398">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A399" s="4">
-        <v>44297</v>
-      </c>
-      <c r="C399" s="9">
-        <v>44297</v>
-      </c>
-      <c r="D399">
-        <v>25</v>
-      </c>
-      <c r="G399" s="9">
-        <v>44297</v>
-      </c>
-      <c r="H399">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A400" s="4">
-        <v>44298</v>
-      </c>
-      <c r="C400" s="9">
-        <v>44298</v>
-      </c>
-      <c r="D400">
-        <v>25</v>
-      </c>
-      <c r="G400" s="9">
-        <v>44298</v>
-      </c>
-      <c r="H400">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" s="4">
-        <v>44299</v>
-      </c>
-      <c r="C401" s="9">
-        <v>44299</v>
-      </c>
-      <c r="D401">
-        <v>25</v>
-      </c>
-      <c r="G401" s="9">
-        <v>44299</v>
-      </c>
-      <c r="H401">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A402" s="4">
-        <v>44300</v>
-      </c>
-      <c r="C402" s="9">
-        <v>44300</v>
-      </c>
-      <c r="D402">
-        <v>27</v>
-      </c>
-      <c r="G402" s="9">
-        <v>44300</v>
-      </c>
-      <c r="H402">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A403" s="4">
-        <v>44301</v>
-      </c>
-      <c r="C403" s="9">
-        <v>44301</v>
-      </c>
-      <c r="D403">
-        <v>27</v>
-      </c>
-      <c r="G403" s="9">
-        <v>44301</v>
-      </c>
-      <c r="H403">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A404" s="4">
-        <v>44302</v>
-      </c>
-      <c r="C404" s="9">
-        <v>44302</v>
-      </c>
-      <c r="D404">
-        <v>23</v>
-      </c>
-      <c r="G404" s="9">
-        <v>44302</v>
-      </c>
-      <c r="H404">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A405" s="4">
-        <v>44303</v>
-      </c>
-      <c r="C405" s="9">
-        <v>44303</v>
-      </c>
-      <c r="D405">
-        <v>25</v>
-      </c>
-      <c r="G405" s="9">
-        <v>44303</v>
-      </c>
-      <c r="H405">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A406" s="4">
-        <v>44304</v>
-      </c>
-      <c r="C406" s="9">
-        <v>44304</v>
-      </c>
-      <c r="D406">
-        <v>24</v>
-      </c>
-      <c r="G406" s="9">
-        <v>44304</v>
-      </c>
-      <c r="H406">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A407" s="4">
-        <v>44305</v>
-      </c>
-      <c r="C407" s="9">
-        <v>44305</v>
-      </c>
-      <c r="D407">
-        <v>23</v>
-      </c>
-      <c r="G407" s="9">
-        <v>44305</v>
-      </c>
-      <c r="H407">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" s="4">
-        <v>44306</v>
-      </c>
-      <c r="C408" s="9">
-        <v>44306</v>
-      </c>
-      <c r="D408">
-        <v>25</v>
-      </c>
-      <c r="G408" s="9">
-        <v>44306</v>
-      </c>
-      <c r="H408">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" s="4">
-        <v>44307</v>
-      </c>
-      <c r="C409" s="9">
-        <v>44307</v>
-      </c>
-      <c r="D409">
-        <v>26</v>
-      </c>
-      <c r="G409" s="9">
-        <v>44307</v>
-      </c>
-      <c r="H409">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A410" s="4">
-        <v>44308</v>
-      </c>
-      <c r="C410" s="9">
-        <v>44308</v>
-      </c>
-      <c r="D410">
-        <v>23</v>
-      </c>
-      <c r="G410" s="9">
-        <v>44308</v>
-      </c>
-      <c r="H410">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" s="4">
-        <v>44309</v>
-      </c>
-      <c r="C411" s="9">
-        <v>44309</v>
-      </c>
-      <c r="D411">
-        <v>23</v>
-      </c>
-      <c r="G411" s="9">
-        <v>44309</v>
-      </c>
-      <c r="H411">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A412" s="4">
-        <v>44310</v>
-      </c>
-      <c r="C412" s="9">
-        <v>44310</v>
-      </c>
-      <c r="D412">
-        <v>24</v>
-      </c>
-      <c r="G412" s="9">
-        <v>44310</v>
-      </c>
-      <c r="H412">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A413" s="4">
-        <v>44311</v>
-      </c>
-      <c r="C413" s="9">
-        <v>44311</v>
-      </c>
-      <c r="D413">
-        <v>23</v>
-      </c>
-      <c r="G413" s="9">
-        <v>44311</v>
-      </c>
-      <c r="H413">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A414" s="4">
-        <v>44312</v>
-      </c>
-      <c r="C414" s="9">
-        <v>44312</v>
-      </c>
-      <c r="D414">
-        <v>23</v>
-      </c>
-      <c r="G414" s="9">
-        <v>44312</v>
-      </c>
-      <c r="H414">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" s="4">
-        <v>44313</v>
-      </c>
-      <c r="C415" s="9">
-        <v>44313</v>
-      </c>
-      <c r="D415">
-        <v>24</v>
-      </c>
-      <c r="G415" s="9">
-        <v>44313</v>
-      </c>
-      <c r="H415">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A416" s="4">
-        <v>44314</v>
-      </c>
-      <c r="C416" s="9">
-        <v>44314</v>
-      </c>
-      <c r="D416">
-        <v>25</v>
-      </c>
-      <c r="G416" s="9">
-        <v>44314</v>
-      </c>
-      <c r="H416">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A417" s="4">
-        <v>44315</v>
-      </c>
-      <c r="C417" s="9">
-        <v>44315</v>
-      </c>
-      <c r="D417">
-        <v>25</v>
-      </c>
-      <c r="G417" s="9">
-        <v>44315</v>
-      </c>
-      <c r="H417">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A418" s="4">
-        <v>44316</v>
-      </c>
-      <c r="C418" s="9">
-        <v>44316</v>
-      </c>
-      <c r="D418">
-        <v>25</v>
-      </c>
-      <c r="G418" s="9">
-        <v>44316</v>
-      </c>
-      <c r="H418">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A419" s="5">
-        <v>44317</v>
-      </c>
-      <c r="C419" s="9">
-        <v>44317</v>
-      </c>
-      <c r="D419">
-        <v>24</v>
-      </c>
-      <c r="G419" s="9">
-        <v>44317</v>
-      </c>
-      <c r="H419">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A420" s="5">
-        <v>44318</v>
-      </c>
-      <c r="C420" s="9">
-        <v>44318</v>
-      </c>
-      <c r="D420">
-        <v>25</v>
-      </c>
-      <c r="G420" s="9">
-        <v>44318</v>
-      </c>
-      <c r="H420">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A421" s="5">
-        <v>44319</v>
-      </c>
-      <c r="C421" s="9">
-        <v>44319</v>
-      </c>
-      <c r="D421">
-        <v>22</v>
-      </c>
-      <c r="G421" s="9">
-        <v>44319</v>
-      </c>
-      <c r="H421">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A422" s="5">
-        <v>44320</v>
-      </c>
-      <c r="C422" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D422">
-        <v>22</v>
-      </c>
-      <c r="G422" s="9">
-        <v>44320</v>
-      </c>
-      <c r="H422">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A423" s="5">
-        <v>44321</v>
-      </c>
-      <c r="C423" s="9">
-        <v>44321</v>
-      </c>
-      <c r="D423">
-        <v>20</v>
-      </c>
-      <c r="G423" s="9">
-        <v>44321</v>
-      </c>
-      <c r="H423">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A424" s="5">
-        <v>44322</v>
-      </c>
-      <c r="C424" s="9">
-        <v>44322</v>
-      </c>
-      <c r="D424">
-        <v>20</v>
-      </c>
-      <c r="G424" s="9">
-        <v>44322</v>
-      </c>
-      <c r="H424">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A425" s="5">
-        <v>44323</v>
-      </c>
-      <c r="C425" s="9">
-        <v>44323</v>
-      </c>
-      <c r="D425">
-        <v>19</v>
-      </c>
-      <c r="G425" s="9">
-        <v>44323</v>
-      </c>
-      <c r="H425">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A426" s="5">
-        <v>44324</v>
-      </c>
-      <c r="C426" s="9">
-        <v>44324</v>
-      </c>
-      <c r="D426">
-        <v>18</v>
-      </c>
-      <c r="G426" s="9">
-        <v>44324</v>
-      </c>
-      <c r="H426">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A427" s="5">
-        <v>44325</v>
-      </c>
-      <c r="C427" s="9">
-        <v>44325</v>
-      </c>
-      <c r="D427">
-        <v>16</v>
-      </c>
-      <c r="G427" s="9">
-        <v>44325</v>
-      </c>
-      <c r="H427">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A428" s="5">
-        <v>44326</v>
-      </c>
-      <c r="C428" s="9">
-        <v>44326</v>
-      </c>
-      <c r="D428">
-        <v>15</v>
-      </c>
-      <c r="G428" s="9">
-        <v>44326</v>
-      </c>
-      <c r="H428">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD37C77-46DD-D043-8CE9-374BC1C54EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFEDB11-0FF8-3844-B695-AAC1B00A0809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6486,6 +6486,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>134</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6594,7 +6601,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11294,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D429" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12033,6 +12040,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12141,7 +12155,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16840,7 +16854,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17579,6 +17593,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430" s="2">
+        <v>0</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -17686,8 +17707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23213,6 +23234,17 @@
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>184</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" ref="D430" si="50">AVERAGE(C424:C430)</f>
+        <v>190.71428571428572</v>
+      </c>
+      <c r="E430">
+        <f t="shared" ref="E430" si="51">C430-C429</f>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -23320,8 +23352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28012,7 +28044,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28751,6 +28783,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430" s="2">
+        <v>14</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFEDB11-0FF8-3844-B695-AAC1B00A0809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458CD31-3C2E-CD44-85EE-E59E5A7F220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6498,6 +6498,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>110</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6601,7 +6608,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11301,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D430" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12052,6 +12059,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12155,7 +12169,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16854,7 +16868,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17605,6 +17619,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431" s="2">
+        <v>196</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>102.14285714285714</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -17708,7 +17729,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23250,6 +23271,17 @@
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>182</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" ref="D431" si="52">AVERAGE(C425:C431)</f>
+        <v>187.71428571428572</v>
+      </c>
+      <c r="E431">
+        <f t="shared" ref="E431" si="53">C431-C430</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -23353,7 +23385,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28044,7 +28076,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28795,6 +28827,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431" s="2">
+        <v>14</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458CD31-3C2E-CD44-85EE-E59E5A7F220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308BA104-C191-9649-8F3A-FEEBDBE3E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
+    <sheetView topLeftCell="A410" workbookViewId="0">
       <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
@@ -17728,7 +17728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
       <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
@@ -23273,15 +23273,15 @@
         <v>44329</v>
       </c>
       <c r="C431">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D431" s="3">
         <f t="shared" ref="D431" si="52">AVERAGE(C425:C431)</f>
-        <v>187.71428571428572</v>
+        <v>187.28571428571428</v>
       </c>
       <c r="E431">
         <f t="shared" ref="E431" si="53">C431-C430</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -23384,7 +23384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+    <sheetView topLeftCell="A418" workbookViewId="0">
       <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308BA104-C191-9649-8F3A-FEEBDBE3E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EAB64E-B18E-3C4A-B524-3A0EF891499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6510,6 +6510,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>118</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -6608,7 +6615,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11308,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D431" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12071,6 +12078,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>4</v>
+      </c>
+      <c r="D432" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -12169,7 +12183,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16868,7 +16882,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17631,6 +17645,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432" s="2">
+        <v>85</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>114.14285714285714</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -17728,8 +17749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23287,6 +23308,17 @@
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>166</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" ref="D432" si="54">AVERAGE(C426:C432)</f>
+        <v>182.85714285714286</v>
+      </c>
+      <c r="E432">
+        <f t="shared" ref="E432" si="55">C432-C431</f>
+        <v>-13</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -23384,8 +23416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28076,7 +28108,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28839,6 +28871,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432" s="2">
+        <v>12</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>14.857142857142858</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EAB64E-B18E-3C4A-B524-3A0EF891499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CB9FE3-19EC-5047-B697-D561001C9127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6519,82 +6519,89 @@
         <v>97.142857142857139</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>68</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>90.285714285714292</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -6615,7 +6622,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11315,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D432" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12087,82 +12094,89 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>3</v>
+      </c>
+      <c r="D433" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -12183,7 +12197,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16882,7 +16896,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17654,82 +17668,89 @@
         <v>114.14285714285714</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433" s="2">
+        <v>3</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>69.142857142857139</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -17750,7 +17771,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23321,82 +23342,93 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>166</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" ref="D433" si="56">AVERAGE(C427:C433)</f>
+        <v>179</v>
+      </c>
+      <c r="E433">
+        <f t="shared" ref="E433" si="57">C433-C432</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -23417,7 +23449,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="G436" sqref="G436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28108,7 +28140,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28880,82 +28912,89 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433" s="2">
+        <v>9</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>13.571428571428571</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CB9FE3-19EC-5047-B697-D561001C9127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124D747-3C80-EC41-9B95-94BD8C568B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -17770,7 +17770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
       <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
@@ -23347,15 +23347,15 @@
         <v>44331</v>
       </c>
       <c r="C433">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D433" s="3">
         <f t="shared" ref="D433" si="56">AVERAGE(C427:C433)</f>
-        <v>179</v>
+        <v>178.28571428571428</v>
       </c>
       <c r="E433">
         <f t="shared" ref="E433" si="57">C433-C432</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -23448,7 +23448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+    <sheetView topLeftCell="A418" workbookViewId="0">
       <selection activeCell="G436" sqref="G436"/>
     </sheetView>
   </sheetViews>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124D747-3C80-EC41-9B95-94BD8C568B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FC45DA-4D86-4A4D-8E06-D8067AAE31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6534,6 +6534,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>53</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>77.714285714285708</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6622,7 +6629,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11322,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D433" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12109,6 +12116,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+      <c r="D434" s="8">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12197,7 +12211,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16896,7 +16910,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17683,6 +17697,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434" s="2">
+        <v>1</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>69.142857142857139</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -17771,7 +17792,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23350,17 +23371,28 @@
         <v>161</v>
       </c>
       <c r="D433" s="3">
-        <f t="shared" ref="D433" si="56">AVERAGE(C427:C433)</f>
+        <f>AVERAGE(C427:C433)</f>
         <v>178.28571428571428</v>
       </c>
       <c r="E433">
-        <f t="shared" ref="E433" si="57">C433-C432</f>
+        <f>C433-C432</f>
         <v>-5</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>154</v>
+      </c>
+      <c r="D434" s="3">
+        <f>AVERAGE(C428:C434)</f>
+        <v>172.85714285714286</v>
+      </c>
+      <c r="E434">
+        <f>C434-C433</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -23449,7 +23481,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="G436" sqref="G436"/>
+      <selection activeCell="D442" sqref="D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28140,7 +28172,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28927,6 +28959,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434" s="2">
+        <v>7</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>12.285714285714286</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FC45DA-4D86-4A4D-8E06-D8067AAE31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EB121-7A85-F246-BBC0-2464C91C19FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="840" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6546,6 +6546,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>9</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>73</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6628,8 +6635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11329,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D434" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12128,6 +12135,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12210,8 +12224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16910,7 +16924,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17709,6 +17723,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435" s="2">
+        <v>297</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>97.571428571428569</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -17792,7 +17813,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="A434" sqref="A434:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23398,6 +23419,17 @@
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>148</v>
+      </c>
+      <c r="D435" s="3">
+        <f>AVERAGE(C429:C435)</f>
+        <v>168</v>
+      </c>
+      <c r="E435">
+        <f>C435-C434</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -23481,7 +23513,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="D442" sqref="D442"/>
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28172,7 +28204,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -28971,6 +29003,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435" s="2">
+        <v>7</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EB121-7A85-F246-BBC0-2464C91C19FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6B916-586E-464F-9016-23717A6FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6558,6 +6558,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>5</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6636,7 +6643,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11336,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D435" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12147,6 +12154,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436" s="8">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12225,7 +12239,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16924,7 +16938,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17735,6 +17749,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436" s="2">
+        <v>96</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>96.857142857142861</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -17812,8 +17833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D435"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23513,7 +23534,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28204,7 +28225,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29015,6 +29036,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436" s="2">
+        <v>9</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6B916-586E-464F-9016-23717A6FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39297E5-29AC-E044-AD80-388AF171ADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -17834,7 +17834,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23456,6 +23456,17 @@
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>147</v>
+      </c>
+      <c r="D436" s="3">
+        <f>AVERAGE(C430:C436)</f>
+        <v>162.71428571428572</v>
+      </c>
+      <c r="E436">
+        <f>C436-C435</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39297E5-29AC-E044-AD80-388AF171ADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD77671E-2CAF-D34F-BFB2-A5314C744857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6570,6 +6570,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>104</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>66.714285714285708</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6643,7 +6650,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11343,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D436" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12166,6 +12173,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" s="8">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12239,7 +12253,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16938,7 +16952,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17761,6 +17775,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437" s="2">
+        <v>206</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>126.28571428571429</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -17834,7 +17855,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23472,6 +23493,17 @@
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>142</v>
+      </c>
+      <c r="D437" s="3">
+        <f>AVERAGE(C431:C437)</f>
+        <v>156.71428571428572</v>
+      </c>
+      <c r="E437">
+        <f>C437-C436</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -23545,7 +23577,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28236,7 +28268,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29059,6 +29091,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437" s="2">
+        <v>10</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD77671E-2CAF-D34F-BFB2-A5314C744857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B609E-6B67-B24D-9054-1CA946B1962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="D437" sqref="D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6582,6 +6582,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>41</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>56.857142857142854</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6649,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="D437" sqref="D437"/>
+    <sheetView topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11350,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D437" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12185,6 +12192,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12253,7 +12267,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C437" sqref="C437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16952,7 +16966,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17787,6 +17801,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438" s="2">
+        <v>0</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>98.285714285714292</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -17854,8 +17875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23509,6 +23530,17 @@
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>135</v>
+      </c>
+      <c r="D438" s="3">
+        <f>AVERAGE(C432:C438)</f>
+        <v>150.42857142857142</v>
+      </c>
+      <c r="E438">
+        <f>C438-C437</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -23576,8 +23608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="D437" sqref="D437"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28268,7 +28300,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29103,6 +29135,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438" s="2">
+        <v>11</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2857142857142865</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B609E-6B67-B24D-9054-1CA946B1962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13710BDE-99D6-414D-83A9-8F54FD8670BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6594,6 +6594,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>71</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>50.142857142857146</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,7 +6664,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11357,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D438" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12204,6 +12211,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>3</v>
+      </c>
+      <c r="D439" s="8">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12267,7 +12281,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16966,7 +16980,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17813,6 +17827,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439" s="2">
+        <v>51</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>93.428571428571431</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -17875,8 +17896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23455,11 +23476,11 @@
         <v>161</v>
       </c>
       <c r="D433" s="3">
-        <f>AVERAGE(C427:C433)</f>
+        <f t="shared" ref="D433:D439" si="56">AVERAGE(C427:C433)</f>
         <v>178.28571428571428</v>
       </c>
       <c r="E433">
-        <f>C433-C432</f>
+        <f t="shared" ref="E433:E438" si="57">C433-C432</f>
         <v>-5</v>
       </c>
     </row>
@@ -23471,11 +23492,11 @@
         <v>154</v>
       </c>
       <c r="D434" s="3">
-        <f>AVERAGE(C428:C434)</f>
+        <f t="shared" si="56"/>
         <v>172.85714285714286</v>
       </c>
       <c r="E434">
-        <f>C434-C433</f>
+        <f t="shared" si="57"/>
         <v>-7</v>
       </c>
     </row>
@@ -23487,11 +23508,11 @@
         <v>148</v>
       </c>
       <c r="D435" s="3">
-        <f>AVERAGE(C429:C435)</f>
+        <f t="shared" si="56"/>
         <v>168</v>
       </c>
       <c r="E435">
-        <f>C435-C434</f>
+        <f t="shared" si="57"/>
         <v>-6</v>
       </c>
     </row>
@@ -23503,11 +23524,11 @@
         <v>147</v>
       </c>
       <c r="D436" s="3">
-        <f>AVERAGE(C430:C436)</f>
+        <f t="shared" si="56"/>
         <v>162.71428571428572</v>
       </c>
       <c r="E436">
-        <f>C436-C435</f>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
     </row>
@@ -23519,11 +23540,11 @@
         <v>142</v>
       </c>
       <c r="D437" s="3">
-        <f>AVERAGE(C431:C437)</f>
+        <f t="shared" si="56"/>
         <v>156.71428571428572</v>
       </c>
       <c r="E437">
-        <f>C437-C436</f>
+        <f t="shared" si="57"/>
         <v>-5</v>
       </c>
     </row>
@@ -23535,17 +23556,28 @@
         <v>135</v>
       </c>
       <c r="D438" s="3">
-        <f>AVERAGE(C432:C438)</f>
+        <f t="shared" si="56"/>
         <v>150.42857142857142</v>
       </c>
       <c r="E438">
-        <f>C438-C437</f>
+        <f t="shared" si="57"/>
         <v>-7</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>124</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="56"/>
+        <v>144.42857142857142</v>
+      </c>
+      <c r="E439">
+        <f t="shared" ref="E439" si="58">C439-C438</f>
+        <v>-11</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -23608,8 +23640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28300,7 +28332,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29147,6 +29179,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439" s="2">
+        <v>11</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>9.1428571428571423</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13710BDE-99D6-414D-83A9-8F54FD8670BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD541A3D-620F-644D-8AA6-925B5939CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6606,6 +6606,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>52</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>47.857142857142854</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6664,7 +6671,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11364,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D439" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12223,6 +12230,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="D440" s="8">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12281,7 +12295,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16980,7 +16994,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17839,6 +17853,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440" s="2">
+        <v>2</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>93.285714285714292</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -17897,7 +17918,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23583,6 +23604,17 @@
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>118</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" ref="D440" si="59">AVERAGE(C434:C440)</f>
+        <v>138.28571428571428</v>
+      </c>
+      <c r="E440">
+        <f t="shared" ref="E440" si="60">C440-C439</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -23641,7 +23673,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28332,7 +28364,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29191,6 +29223,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440" s="2">
+        <v>10</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2857142857142865</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD541A3D-620F-644D-8AA6-925B5939CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403366C-19EA-9F44-878C-1A64E91188B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="600" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8360" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6618,6 +6618,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>69</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>50.142857142857146</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6671,7 +6678,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11371,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D440" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12242,6 +12249,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12294,8 +12308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16994,7 +17008,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17865,6 +17879,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441" s="2">
+        <v>1</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>93.285714285714292</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -17917,8 +17938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="C440" sqref="C440:C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23606,20 +23627,31 @@
         <v>44338</v>
       </c>
       <c r="C440">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D440" s="3">
         <f t="shared" ref="D440" si="59">AVERAGE(C434:C440)</f>
-        <v>138.28571428571428</v>
+        <v>138.14285714285714</v>
       </c>
       <c r="E440">
         <f t="shared" ref="E440" si="60">C440-C439</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>112</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" ref="D441" si="61">AVERAGE(C435:C441)</f>
+        <v>132.14285714285714</v>
+      </c>
+      <c r="E441">
+        <f t="shared" ref="E441" si="62">C441-C440</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -23672,8 +23704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28364,7 +28396,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29235,6 +29267,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441" s="2">
+        <v>12</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403366C-19EA-9F44-878C-1A64E91188B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540EF1CC-A60C-3F4C-B8B9-08D6467E96CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6630,6 +6630,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>4</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>49.428571428571431</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6678,7 +6685,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11378,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D441" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12261,6 +12268,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" s="8">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12309,7 +12323,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17008,7 +17022,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17891,6 +17905,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442" s="2">
+        <v>121</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>68.142857142857139</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -17938,8 +17959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440:C441"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23657,6 +23678,17 @@
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>111</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" ref="D442" si="63">AVERAGE(C436:C442)</f>
+        <v>126.85714285714286</v>
+      </c>
+      <c r="E442">
+        <f t="shared" ref="E442" si="64">C442-C441</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -23704,8 +23736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28396,7 +28428,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29279,6 +29311,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442" s="2">
+        <v>11</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>10.571428571428571</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540EF1CC-A60C-3F4C-B8B9-08D6467E96CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B83A57-9B7A-5E41-ACD7-B9811FF1CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6642,6 +6642,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>21</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>51.714285714285715</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6685,7 +6692,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11385,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D442" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12280,6 +12287,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12323,7 +12337,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17022,7 +17036,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17917,6 +17931,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443" s="2">
+        <v>149</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>75.714285714285708</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -17960,7 +17981,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23694,6 +23715,17 @@
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>114</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" ref="D443" si="65">AVERAGE(C437:C443)</f>
+        <v>122.14285714285714</v>
+      </c>
+      <c r="E443">
+        <f t="shared" ref="E443" si="66">C443-C442</f>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -23737,7 +23769,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28428,7 +28460,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29323,6 +29355,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443" s="2">
+        <v>9</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>10.571428571428571</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B83A57-9B7A-5E41-ACD7-B9811FF1CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06758DF0-CA7E-8B40-9750-9F33BBBB4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6654,6 +6654,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>93</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>50.142857142857146</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6692,7 +6699,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11392,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D443" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12299,6 +12306,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>3</v>
+      </c>
+      <c r="D444" s="8">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12337,7 +12351,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17036,7 +17050,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17943,6 +17957,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444" s="2">
+        <v>0</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -17980,8 +18001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23731,6 +23752,17 @@
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>112</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" ref="D444" si="67">AVERAGE(C438:C444)</f>
+        <v>117.85714285714286</v>
+      </c>
+      <c r="E444">
+        <f t="shared" ref="E444" si="68">C444-C443</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -23768,8 +23800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28460,7 +28492,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29367,6 +29399,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444" s="2">
+        <v>8</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06758DF0-CA7E-8B40-9750-9F33BBBB4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496CC83-6F7C-BD41-952C-C488594DD9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -18001,7 +18001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
       <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
@@ -23754,15 +23754,15 @@
         <v>44342</v>
       </c>
       <c r="C444">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D444" s="3">
         <f t="shared" ref="D444" si="67">AVERAGE(C438:C444)</f>
-        <v>117.85714285714286</v>
+        <v>118.14285714285714</v>
       </c>
       <c r="E444">
         <f t="shared" ref="E444" si="68">C444-C443</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -23800,7 +23800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+    <sheetView topLeftCell="A531" workbookViewId="0">
       <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496CC83-6F7C-BD41-952C-C488594DD9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10391B3E-88DF-DA40-8E44-84B00BD990C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6666,6 +6666,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>66</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>53.714285714285715</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6699,7 +6706,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11399,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D444" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12318,6 +12325,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12351,7 +12365,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17050,7 +17064,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17969,6 +17983,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445" s="2">
+        <v>103</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -18002,7 +18023,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23768,6 +23789,17 @@
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>109</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" ref="D445" si="69">AVERAGE(C439:C445)</f>
+        <v>114.42857142857143</v>
+      </c>
+      <c r="E445">
+        <f t="shared" ref="E445" si="70">C445-C444</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -23800,8 +23832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28492,7 +28524,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29411,6 +29443,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445" s="2">
+        <v>7</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10391B3E-88DF-DA40-8E44-84B00BD990C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72942D9-6E68-6C47-9C07-EAB32D39985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6678,6 +6678,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>6</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>44.428571428571431</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6706,7 +6713,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11406,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D445" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12337,6 +12344,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12365,7 +12379,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17064,7 +17078,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -17995,6 +18009,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446" s="2">
+        <v>139</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>73.571428571428569</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -18022,8 +18043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23832,8 +23853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28524,7 +28545,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29455,6 +29476,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446" s="2">
+        <v>6</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72942D9-6E68-6C47-9C07-EAB32D39985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3AA6E7-F841-D543-B9BE-B15398CBA841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -18043,8 +18043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C446" sqref="C446"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23826,6 +23826,17 @@
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>107</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" ref="D446" si="71">AVERAGE(C440:C446)</f>
+        <v>112</v>
+      </c>
+      <c r="E446">
+        <f t="shared" ref="E446" si="72">C446-C445</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -23853,7 +23864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+    <sheetView topLeftCell="A432" workbookViewId="0">
       <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3AA6E7-F841-D543-B9BE-B15398CBA841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD5BB4-4CFA-684C-BB1E-8310F27E3C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6691,10 +6691,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>67</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>46.571428571428569</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>23</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -6712,8 +6726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11413,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D446" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12357,10 +12371,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" s="8">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -12378,8 +12406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17078,7 +17106,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18022,10 +18050,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447" s="2">
+        <v>0</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>73.285714285714292</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448" s="2">
+        <v>113</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>89.285714285714292</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -18043,8 +18085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23842,6 +23884,17 @@
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
+      </c>
+      <c r="C447">
+        <v>112</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" ref="D447" si="73">AVERAGE(C441:C447)</f>
+        <v>111.28571428571429</v>
+      </c>
+      <c r="E447">
+        <f t="shared" ref="E447" si="74">C447-C446</f>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -23864,8 +23917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28556,7 +28609,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29500,10 +29553,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447" s="2">
+        <v>7</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448" s="2">
+        <v>6</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD5BB4-4CFA-684C-BB1E-8310F27E3C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C2F2D-E28D-1341-833D-139A483CB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -18085,8 +18085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443:C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23886,20 +23886,31 @@
         <v>44345</v>
       </c>
       <c r="C447">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D447" s="3">
-        <f t="shared" ref="D447" si="73">AVERAGE(C441:C447)</f>
-        <v>111.28571428571429</v>
+        <f t="shared" ref="D447:D448" si="73">AVERAGE(C441:C447)</f>
+        <v>109.85714285714286</v>
       </c>
       <c r="E447">
-        <f t="shared" ref="E447" si="74">C447-C446</f>
-        <v>5</v>
+        <f t="shared" ref="E447:E448" si="74">C447-C446</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>100</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="73"/>
+        <v>108.14285714285714</v>
+      </c>
+      <c r="E448">
+        <f t="shared" si="74"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -23917,7 +23928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+    <sheetView topLeftCell="A432" workbookViewId="0">
       <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C2F2D-E28D-1341-833D-139A483CB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C170CE-3961-DC40-A84E-8C2738BE46C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6711,9 +6711,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>7</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>40.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -6727,7 +6734,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11427,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D448" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12391,9 +12398,16 @@
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" s="8">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -12407,7 +12421,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17106,7 +17120,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18070,9 +18084,16 @@
         <v>89.285714285714292</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449" s="2">
+        <v>50</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>79.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -18086,7 +18107,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443:C448"/>
+      <selection activeCell="C449" sqref="C449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23913,9 +23934,20 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>99</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" ref="D449" si="75">AVERAGE(C443:C449)</f>
+        <v>106.42857142857143</v>
+      </c>
+      <c r="E449">
+        <f t="shared" ref="E449" si="76">C449-C448</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -23929,7 +23961,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28620,7 +28652,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29584,9 +29616,16 @@
         <v>7.7142857142857144</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449" s="2">
+        <v>6</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C170CE-3961-DC40-A84E-8C2738BE46C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442014C-7095-B642-A386-DE141A684519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6960" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6721,6 +6721,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>40.428571428571431</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>28</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>41.428571428571431</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -6731,10 +6888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11434,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D449" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12408,6 +12565,163 @@
       <c r="D449" s="8">
         <f t="shared" si="6"/>
         <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+      <c r="D450" s="8">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -12418,10 +12732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17120,7 +17434,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18094,6 +18408,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>79.142857142857139</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450" s="2">
+        <v>126</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>75.857142857142861</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -18104,10 +18575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C449" sqref="C449:D449"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23950,6 +24421,167 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>93</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" ref="D450" si="77">AVERAGE(C444:C450)</f>
+        <v>103.42857142857143</v>
+      </c>
+      <c r="E450">
+        <f t="shared" ref="E450" si="78">C450-C449</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -23958,10 +24590,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28652,7 +29284,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -29626,6 +30258,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450" s="2">
+        <v>6</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442014C-7095-B642-A386-DE141A684519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CFCA8A-58DB-7A46-B91C-C15B6F91C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:A479"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6738,6 +6738,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>52</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6891,7 +6898,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11591,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D450" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12582,6 +12589,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451" s="8">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -12735,7 +12749,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17434,7 +17448,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18425,6 +18439,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451" s="2">
+        <v>214</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>106.42857142857143</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -18577,8 +18598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24440,6 +24461,17 @@
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>92</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" ref="D451" si="79">AVERAGE(C445:C451)</f>
+        <v>100.28571428571429</v>
+      </c>
+      <c r="E451">
+        <f t="shared" ref="E451" si="80">C451-C450</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -24592,8 +24624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29284,7 +29316,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30275,6 +30307,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451" s="2">
+        <v>6</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>6.2857142857142856</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CFCA8A-58DB-7A46-B91C-C15B6F91C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70120CB5-6B1A-884F-A478-34302295BACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6750,6 +6750,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>46</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>32.714285714285715</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -6898,7 +6905,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11598,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D451" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12601,6 +12608,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -12749,7 +12763,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17448,7 +17462,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18451,6 +18465,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452" s="2">
+        <v>69</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>101.57142857142857</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -18599,7 +18620,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452:E452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24477,6 +24498,17 @@
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>93</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" ref="D452" si="81">AVERAGE(C446:C452)</f>
+        <v>98</v>
+      </c>
+      <c r="E452">
+        <f t="shared" ref="E452" si="82">C452-C451</f>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -24625,7 +24657,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29316,7 +29348,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30319,6 +30351,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452" s="2">
+        <v>7</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>6.2857142857142856</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70120CB5-6B1A-884F-A478-34302295BACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6101E6D3-22D6-D540-BD2E-6B6E6FE0AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6762,6 +6762,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>72</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>42.142857142857146</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6905,7 +6912,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11605,7 +11612,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D452" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12620,6 +12627,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>4</v>
+      </c>
+      <c r="D453" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -12762,8 +12776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17462,7 +17476,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18477,6 +18491,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453" s="2">
+        <v>58</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -18620,7 +18641,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452:E452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24514,6 +24535,17 @@
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>83</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" ref="D453" si="83">AVERAGE(C447:C453)</f>
+        <v>94.571428571428569</v>
+      </c>
+      <c r="E453">
+        <f t="shared" ref="E453" si="84">C453-C452</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -24656,8 +24688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29348,7 +29380,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30363,6 +30395,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453" s="2">
+        <v>7</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6101E6D3-22D6-D540-BD2E-6B6E6FE0AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0980F2-8F15-1546-A6D0-99A7757ADA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6774,6 +6774,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>22</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6912,7 +6919,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11612,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D453" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12639,6 +12646,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -12776,8 +12790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17476,7 +17490,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18503,6 +18517,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454" s="2">
+        <v>65</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>99.285714285714292</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -18641,7 +18662,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24551,6 +24572,17 @@
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>80</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" ref="D454" si="85">AVERAGE(C448:C454)</f>
+        <v>91.428571428571431</v>
+      </c>
+      <c r="E454">
+        <f t="shared" ref="E454" si="86">C454-C453</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -24688,8 +24720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29380,7 +29412,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30407,6 +30439,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454" s="2">
+        <v>5</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0980F2-8F15-1546-A6D0-99A7757ADA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A370181-87A6-1840-9399-16CAED5C29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6787,10 +6787,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>57</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>40.571428571428569</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>15</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>41.714285714285715</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6919,7 +6933,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11619,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D454" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12659,10 +12673,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+      <c r="D456" s="8">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -12791,7 +12819,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17490,7 +17518,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18530,10 +18558,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455" s="2">
+        <v>25</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>86.714285714285708</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456" s="2">
+        <v>9</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>80.857142857142861</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -18662,7 +18704,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C449" sqref="C449:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24558,15 +24600,15 @@
         <v>44351</v>
       </c>
       <c r="C453">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D453" s="3">
         <f t="shared" ref="D453" si="83">AVERAGE(C447:C453)</f>
-        <v>94.571428571428569</v>
+        <v>94.428571428571431</v>
       </c>
       <c r="E453">
         <f t="shared" ref="E453" si="84">C453-C452</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -24574,11 +24616,11 @@
         <v>44352</v>
       </c>
       <c r="C454">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D454" s="3">
         <f t="shared" ref="D454" si="85">AVERAGE(C448:C454)</f>
-        <v>91.428571428571431</v>
+        <v>91.142857142857139</v>
       </c>
       <c r="E454">
         <f t="shared" ref="E454" si="86">C454-C453</f>
@@ -24589,10 +24631,32 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>73</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" ref="D455" si="87">AVERAGE(C449:C455)</f>
+        <v>87.285714285714292</v>
+      </c>
+      <c r="E455">
+        <f t="shared" ref="E455" si="88">C455-C454</f>
+        <v>-6</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>72</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" ref="D456" si="89">AVERAGE(C450:C456)</f>
+        <v>83.428571428571431</v>
+      </c>
+      <c r="E456">
+        <f t="shared" ref="E456" si="90">C456-C455</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -24721,7 +24785,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="E463" sqref="E463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29412,7 +29476,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30452,10 +30516,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455" s="2">
+        <v>4</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456" s="2">
+        <v>4</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>5.5714285714285712</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A370181-87A6-1840-9399-16CAED5C29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C953ED2-7059-2747-81D9-0DF97052964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6810,6 +6810,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>5</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>38.428571428571431</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,7 +6940,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11633,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D456" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12696,6 +12703,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457" s="8">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -12819,7 +12833,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17518,7 +17532,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18581,6 +18595,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457" s="2">
+        <v>39</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>68.428571428571431</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -18704,7 +18725,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C449" sqref="C449:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24662,6 +24683,17 @@
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>68</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" ref="D457" si="91">AVERAGE(C451:C457)</f>
+        <v>79.857142857142861</v>
+      </c>
+      <c r="E457">
+        <f t="shared" ref="E457" si="92">C457-C456</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -24785,7 +24817,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="E463" sqref="E463"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29476,7 +29508,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30539,6 +30571,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457" s="2">
+        <v>4</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>5.2857142857142856</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C953ED2-7059-2747-81D9-0DF97052964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AC876-37D9-1B4B-A766-307B17792FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6822,6 +6822,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>62</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>39.857142857142854</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6940,7 +6947,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11640,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D457" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12715,6 +12722,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458" s="8">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -12832,8 +12846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17532,7 +17546,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18607,6 +18621,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458" s="2">
+        <v>28</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>41.857142857142854</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -18725,7 +18746,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24699,6 +24720,17 @@
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>64</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" ref="D458" si="93">AVERAGE(C452:C458)</f>
+        <v>75.857142857142861</v>
+      </c>
+      <c r="E458">
+        <f t="shared" ref="E458" si="94">C458-C457</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -24816,8 +24848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29508,7 +29540,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30583,6 +30615,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458" s="2">
+        <v>5</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AC876-37D9-1B4B-A766-307B17792FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC028AAD-EF4C-A446-BA78-209E68582DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6834,6 +6834,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>27</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>37.142857142857146</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -6947,7 +6954,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11647,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D458" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12734,6 +12741,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459" s="8">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -12846,8 +12860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17546,7 +17560,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18633,6 +18647,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459" s="2">
+        <v>178</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>57.428571428571431</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -18743,10 +18764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23821,7 +23842,7 @@
         <v>217.57142857142858</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>44299</v>
       </c>
@@ -23833,7 +23854,7 @@
         <v>220.28571428571428</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>44300</v>
       </c>
@@ -23845,7 +23866,7 @@
         <v>220.71428571428572</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>44301</v>
       </c>
@@ -23857,7 +23878,7 @@
         <v>223.28571428571428</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>44302</v>
       </c>
@@ -23869,7 +23890,7 @@
         <v>225.42857142857142</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>44303</v>
       </c>
@@ -23880,12 +23901,8 @@
         <f t="shared" si="5"/>
         <v>224.85714285714286</v>
       </c>
-      <c r="E405">
-        <f t="shared" ref="E405:E410" si="6">C405-C404</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>44304</v>
       </c>
@@ -23893,15 +23910,11 @@
         <v>224</v>
       </c>
       <c r="D406" s="3">
-        <f t="shared" ref="D406" si="7">AVERAGE(C400:C406)</f>
+        <f t="shared" ref="D406" si="6">AVERAGE(C400:C406)</f>
         <v>225.14285714285714</v>
       </c>
-      <c r="E406">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>44305</v>
       </c>
@@ -23909,15 +23922,11 @@
         <v>228</v>
       </c>
       <c r="D407" s="3">
-        <f t="shared" ref="D407" si="8">AVERAGE(C401:C407)</f>
+        <f t="shared" ref="D407" si="7">AVERAGE(C401:C407)</f>
         <v>226</v>
       </c>
-      <c r="E407">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>44306</v>
       </c>
@@ -23925,15 +23934,11 @@
         <v>234</v>
       </c>
       <c r="D408" s="3">
-        <f t="shared" ref="D408" si="9">AVERAGE(C402:C408)</f>
+        <f t="shared" ref="D408" si="8">AVERAGE(C402:C408)</f>
         <v>227.14285714285714</v>
       </c>
-      <c r="E408">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>44307</v>
       </c>
@@ -23941,15 +23946,11 @@
         <v>231</v>
       </c>
       <c r="D409" s="3">
-        <f t="shared" ref="D409" si="10">AVERAGE(C403:C409)</f>
+        <f t="shared" ref="D409" si="9">AVERAGE(C403:C409)</f>
         <v>228.57142857142858</v>
       </c>
-      <c r="E409">
-        <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>44308</v>
       </c>
@@ -23957,15 +23958,11 @@
         <v>219</v>
       </c>
       <c r="D410" s="3">
-        <f t="shared" ref="D410" si="11">AVERAGE(C404:C410)</f>
+        <f t="shared" ref="D410" si="10">AVERAGE(C404:C410)</f>
         <v>226.42857142857142</v>
       </c>
-      <c r="E410">
-        <f t="shared" si="6"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>44309</v>
       </c>
@@ -23973,15 +23970,11 @@
         <v>215</v>
       </c>
       <c r="D411" s="3">
-        <f t="shared" ref="D411" si="12">AVERAGE(C405:C411)</f>
+        <f t="shared" ref="D411" si="11">AVERAGE(C405:C411)</f>
         <v>224.14285714285714</v>
       </c>
-      <c r="E411">
-        <f t="shared" ref="E411" si="13">C411-C410</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>44310</v>
       </c>
@@ -23989,15 +23982,11 @@
         <v>211</v>
       </c>
       <c r="D412" s="3">
-        <f t="shared" ref="D412" si="14">AVERAGE(C406:C412)</f>
+        <f t="shared" ref="D412" si="12">AVERAGE(C406:C412)</f>
         <v>223.14285714285714</v>
       </c>
-      <c r="E412">
-        <f t="shared" ref="E412" si="15">C412-C411</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>44311</v>
       </c>
@@ -24005,15 +23994,11 @@
         <v>212</v>
       </c>
       <c r="D413" s="3">
-        <f t="shared" ref="D413" si="16">AVERAGE(C407:C413)</f>
+        <f t="shared" ref="D413" si="13">AVERAGE(C407:C413)</f>
         <v>221.42857142857142</v>
       </c>
-      <c r="E413">
-        <f t="shared" ref="E413" si="17">C413-C412</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>44312</v>
       </c>
@@ -24021,15 +24006,11 @@
         <v>216</v>
       </c>
       <c r="D414" s="3">
-        <f t="shared" ref="D414" si="18">AVERAGE(C408:C414)</f>
+        <f t="shared" ref="D414" si="14">AVERAGE(C408:C414)</f>
         <v>219.71428571428572</v>
       </c>
-      <c r="E414">
-        <f t="shared" ref="E414" si="19">C414-C413</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>44313</v>
       </c>
@@ -24037,15 +24018,11 @@
         <v>218</v>
       </c>
       <c r="D415" s="3">
-        <f t="shared" ref="D415" si="20">AVERAGE(C409:C415)</f>
+        <f t="shared" ref="D415" si="15">AVERAGE(C409:C415)</f>
         <v>217.42857142857142</v>
       </c>
-      <c r="E415">
-        <f t="shared" ref="E415" si="21">C415-C414</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>44314</v>
       </c>
@@ -24053,15 +24030,11 @@
         <v>225</v>
       </c>
       <c r="D416" s="3">
-        <f t="shared" ref="D416" si="22">AVERAGE(C410:C416)</f>
+        <f t="shared" ref="D416" si="16">AVERAGE(C410:C416)</f>
         <v>216.57142857142858</v>
       </c>
-      <c r="E416">
-        <f t="shared" ref="E416" si="23">C416-C415</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>44315</v>
       </c>
@@ -24069,15 +24042,11 @@
         <v>223</v>
       </c>
       <c r="D417" s="3">
-        <f t="shared" ref="D417" si="24">AVERAGE(C411:C417)</f>
+        <f t="shared" ref="D417" si="17">AVERAGE(C411:C417)</f>
         <v>217.14285714285714</v>
       </c>
-      <c r="E417">
-        <f t="shared" ref="E417" si="25">C417-C416</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>44316</v>
       </c>
@@ -24085,15 +24054,11 @@
         <v>218</v>
       </c>
       <c r="D418" s="3">
-        <f t="shared" ref="D418" si="26">AVERAGE(C412:C418)</f>
+        <f t="shared" ref="D418" si="18">AVERAGE(C412:C418)</f>
         <v>217.57142857142858</v>
       </c>
-      <c r="E418">
-        <f t="shared" ref="E418" si="27">C418-C417</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>44317</v>
       </c>
@@ -24101,15 +24066,11 @@
         <v>213</v>
       </c>
       <c r="D419" s="3">
-        <f t="shared" ref="D419" si="28">AVERAGE(C413:C419)</f>
+        <f t="shared" ref="D419" si="19">AVERAGE(C413:C419)</f>
         <v>217.85714285714286</v>
       </c>
-      <c r="E419">
-        <f t="shared" ref="E419" si="29">C419-C418</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>44318</v>
       </c>
@@ -24117,15 +24078,11 @@
         <v>212</v>
       </c>
       <c r="D420" s="3">
-        <f t="shared" ref="D420" si="30">AVERAGE(C414:C420)</f>
+        <f t="shared" ref="D420" si="20">AVERAGE(C414:C420)</f>
         <v>217.85714285714286</v>
       </c>
-      <c r="E420">
-        <f t="shared" ref="E420" si="31">C420-C419</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>44319</v>
       </c>
@@ -24133,15 +24090,11 @@
         <v>208</v>
       </c>
       <c r="D421" s="3">
-        <f t="shared" ref="D421" si="32">AVERAGE(C415:C421)</f>
+        <f t="shared" ref="D421" si="21">AVERAGE(C415:C421)</f>
         <v>216.71428571428572</v>
       </c>
-      <c r="E421">
-        <f t="shared" ref="E421" si="33">C421-C420</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
       </c>
@@ -24149,15 +24102,11 @@
         <v>208</v>
       </c>
       <c r="D422" s="3">
-        <f t="shared" ref="D422" si="34">AVERAGE(C416:C422)</f>
+        <f t="shared" ref="D422" si="22">AVERAGE(C416:C422)</f>
         <v>215.28571428571428</v>
       </c>
-      <c r="E422">
-        <f t="shared" ref="E422" si="35">C422-C421</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
       </c>
@@ -24165,15 +24114,11 @@
         <v>205</v>
       </c>
       <c r="D423" s="3">
-        <f t="shared" ref="D423" si="36">AVERAGE(C417:C423)</f>
+        <f t="shared" ref="D423" si="23">AVERAGE(C417:C423)</f>
         <v>212.42857142857142</v>
       </c>
-      <c r="E423">
-        <f t="shared" ref="E423" si="37">C423-C422</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
       </c>
@@ -24181,15 +24126,11 @@
         <v>203</v>
       </c>
       <c r="D424" s="3">
-        <f t="shared" ref="D424" si="38">AVERAGE(C418:C424)</f>
+        <f t="shared" ref="D424" si="24">AVERAGE(C418:C424)</f>
         <v>209.57142857142858</v>
       </c>
-      <c r="E424">
-        <f t="shared" ref="E424" si="39">C424-C423</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
       </c>
@@ -24197,15 +24138,11 @@
         <v>197</v>
       </c>
       <c r="D425" s="3">
-        <f t="shared" ref="D425" si="40">AVERAGE(C419:C425)</f>
+        <f t="shared" ref="D425" si="25">AVERAGE(C419:C425)</f>
         <v>206.57142857142858</v>
       </c>
-      <c r="E425">
-        <f t="shared" ref="E425" si="41">C425-C424</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
       </c>
@@ -24213,15 +24150,11 @@
         <v>193</v>
       </c>
       <c r="D426" s="3">
-        <f t="shared" ref="D426" si="42">AVERAGE(C420:C426)</f>
+        <f t="shared" ref="D426" si="26">AVERAGE(C420:C426)</f>
         <v>203.71428571428572</v>
       </c>
-      <c r="E426">
-        <f t="shared" ref="E426" si="43">C426-C425</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
       </c>
@@ -24229,15 +24162,11 @@
         <v>192</v>
       </c>
       <c r="D427" s="3">
-        <f t="shared" ref="D427" si="44">AVERAGE(C421:C427)</f>
+        <f t="shared" ref="D427" si="27">AVERAGE(C421:C427)</f>
         <v>200.85714285714286</v>
       </c>
-      <c r="E427">
-        <f t="shared" ref="E427" si="45">C427-C426</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
       </c>
@@ -24245,15 +24174,11 @@
         <v>182</v>
       </c>
       <c r="D428" s="3">
-        <f t="shared" ref="D428" si="46">AVERAGE(C422:C428)</f>
+        <f t="shared" ref="D428" si="28">AVERAGE(C422:C428)</f>
         <v>197.14285714285714</v>
       </c>
-      <c r="E428">
-        <f t="shared" ref="E428" si="47">C428-C427</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
       </c>
@@ -24261,15 +24186,11 @@
         <v>184</v>
       </c>
       <c r="D429" s="3">
-        <f t="shared" ref="D429" si="48">AVERAGE(C423:C429)</f>
+        <f t="shared" ref="D429" si="29">AVERAGE(C423:C429)</f>
         <v>193.71428571428572</v>
       </c>
-      <c r="E429">
-        <f t="shared" ref="E429" si="49">C429-C428</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
       </c>
@@ -24277,15 +24198,11 @@
         <v>184</v>
       </c>
       <c r="D430" s="3">
-        <f t="shared" ref="D430" si="50">AVERAGE(C424:C430)</f>
+        <f t="shared" ref="D430" si="30">AVERAGE(C424:C430)</f>
         <v>190.71428571428572</v>
       </c>
-      <c r="E430">
-        <f t="shared" ref="E430" si="51">C430-C429</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
       </c>
@@ -24293,15 +24210,11 @@
         <v>179</v>
       </c>
       <c r="D431" s="3">
-        <f t="shared" ref="D431" si="52">AVERAGE(C425:C431)</f>
+        <f t="shared" ref="D431" si="31">AVERAGE(C425:C431)</f>
         <v>187.28571428571428</v>
       </c>
-      <c r="E431">
-        <f t="shared" ref="E431" si="53">C431-C430</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
       </c>
@@ -24309,15 +24222,11 @@
         <v>166</v>
       </c>
       <c r="D432" s="3">
-        <f t="shared" ref="D432" si="54">AVERAGE(C426:C432)</f>
+        <f t="shared" ref="D432" si="32">AVERAGE(C426:C432)</f>
         <v>182.85714285714286</v>
       </c>
-      <c r="E432">
-        <f t="shared" ref="E432" si="55">C432-C431</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
@@ -24325,15 +24234,11 @@
         <v>161</v>
       </c>
       <c r="D433" s="3">
-        <f t="shared" ref="D433:D439" si="56">AVERAGE(C427:C433)</f>
+        <f t="shared" ref="D433:D439" si="33">AVERAGE(C427:C433)</f>
         <v>178.28571428571428</v>
       </c>
-      <c r="E433">
-        <f t="shared" ref="E433:E438" si="57">C433-C432</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
@@ -24341,15 +24246,11 @@
         <v>154</v>
       </c>
       <c r="D434" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="33"/>
         <v>172.85714285714286</v>
       </c>
-      <c r="E434">
-        <f t="shared" si="57"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
@@ -24357,15 +24258,11 @@
         <v>148</v>
       </c>
       <c r="D435" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="33"/>
         <v>168</v>
       </c>
-      <c r="E435">
-        <f t="shared" si="57"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
@@ -24373,15 +24270,11 @@
         <v>147</v>
       </c>
       <c r="D436" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="33"/>
         <v>162.71428571428572</v>
       </c>
-      <c r="E436">
-        <f t="shared" si="57"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
@@ -24389,15 +24282,11 @@
         <v>142</v>
       </c>
       <c r="D437" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="33"/>
         <v>156.71428571428572</v>
       </c>
-      <c r="E437">
-        <f t="shared" si="57"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
@@ -24405,15 +24294,11 @@
         <v>135</v>
       </c>
       <c r="D438" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="33"/>
         <v>150.42857142857142</v>
       </c>
-      <c r="E438">
-        <f t="shared" si="57"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
@@ -24421,15 +24306,11 @@
         <v>124</v>
       </c>
       <c r="D439" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="33"/>
         <v>144.42857142857142</v>
       </c>
-      <c r="E439">
-        <f t="shared" ref="E439" si="58">C439-C438</f>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
@@ -24437,15 +24318,11 @@
         <v>117</v>
       </c>
       <c r="D440" s="3">
-        <f t="shared" ref="D440" si="59">AVERAGE(C434:C440)</f>
+        <f t="shared" ref="D440" si="34">AVERAGE(C434:C440)</f>
         <v>138.14285714285714</v>
       </c>
-      <c r="E440">
-        <f t="shared" ref="E440" si="60">C440-C439</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
@@ -24453,15 +24330,11 @@
         <v>112</v>
       </c>
       <c r="D441" s="3">
-        <f t="shared" ref="D441" si="61">AVERAGE(C435:C441)</f>
+        <f t="shared" ref="D441" si="35">AVERAGE(C435:C441)</f>
         <v>132.14285714285714</v>
       </c>
-      <c r="E441">
-        <f t="shared" ref="E441" si="62">C441-C440</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
@@ -24469,15 +24342,11 @@
         <v>111</v>
       </c>
       <c r="D442" s="3">
-        <f t="shared" ref="D442" si="63">AVERAGE(C436:C442)</f>
+        <f t="shared" ref="D442" si="36">AVERAGE(C436:C442)</f>
         <v>126.85714285714286</v>
       </c>
-      <c r="E442">
-        <f t="shared" ref="E442" si="64">C442-C441</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
@@ -24485,15 +24354,11 @@
         <v>114</v>
       </c>
       <c r="D443" s="3">
-        <f t="shared" ref="D443" si="65">AVERAGE(C437:C443)</f>
+        <f t="shared" ref="D443" si="37">AVERAGE(C437:C443)</f>
         <v>122.14285714285714</v>
       </c>
-      <c r="E443">
-        <f t="shared" ref="E443" si="66">C443-C442</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
@@ -24501,15 +24366,11 @@
         <v>114</v>
       </c>
       <c r="D444" s="3">
-        <f t="shared" ref="D444" si="67">AVERAGE(C438:C444)</f>
+        <f t="shared" ref="D444" si="38">AVERAGE(C438:C444)</f>
         <v>118.14285714285714</v>
       </c>
-      <c r="E444">
-        <f t="shared" ref="E444" si="68">C444-C443</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
@@ -24517,15 +24378,11 @@
         <v>109</v>
       </c>
       <c r="D445" s="3">
-        <f t="shared" ref="D445" si="69">AVERAGE(C439:C445)</f>
+        <f t="shared" ref="D445" si="39">AVERAGE(C439:C445)</f>
         <v>114.42857142857143</v>
       </c>
-      <c r="E445">
-        <f t="shared" ref="E445" si="70">C445-C444</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
@@ -24533,15 +24390,11 @@
         <v>107</v>
       </c>
       <c r="D446" s="3">
-        <f t="shared" ref="D446" si="71">AVERAGE(C440:C446)</f>
+        <f t="shared" ref="D446" si="40">AVERAGE(C440:C446)</f>
         <v>112</v>
       </c>
-      <c r="E446">
-        <f t="shared" ref="E446" si="72">C446-C445</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
@@ -24549,15 +24402,11 @@
         <v>102</v>
       </c>
       <c r="D447" s="3">
-        <f t="shared" ref="D447:D448" si="73">AVERAGE(C441:C447)</f>
+        <f t="shared" ref="D447:D448" si="41">AVERAGE(C441:C447)</f>
         <v>109.85714285714286</v>
       </c>
-      <c r="E447">
-        <f t="shared" ref="E447:E448" si="74">C447-C446</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -24565,15 +24414,11 @@
         <v>100</v>
       </c>
       <c r="D448" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="41"/>
         <v>108.14285714285714</v>
       </c>
-      <c r="E448">
-        <f t="shared" si="74"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
       </c>
@@ -24581,15 +24426,11 @@
         <v>99</v>
       </c>
       <c r="D449" s="3">
-        <f t="shared" ref="D449" si="75">AVERAGE(C443:C449)</f>
+        <f t="shared" ref="D449" si="42">AVERAGE(C443:C449)</f>
         <v>106.42857142857143</v>
       </c>
-      <c r="E449">
-        <f t="shared" ref="E449" si="76">C449-C448</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>44348</v>
       </c>
@@ -24597,15 +24438,11 @@
         <v>93</v>
       </c>
       <c r="D450" s="3">
-        <f t="shared" ref="D450" si="77">AVERAGE(C444:C450)</f>
+        <f t="shared" ref="D450" si="43">AVERAGE(C444:C450)</f>
         <v>103.42857142857143</v>
       </c>
-      <c r="E450">
-        <f t="shared" ref="E450" si="78">C450-C449</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
       </c>
@@ -24613,15 +24450,11 @@
         <v>92</v>
       </c>
       <c r="D451" s="3">
-        <f t="shared" ref="D451" si="79">AVERAGE(C445:C451)</f>
+        <f t="shared" ref="D451" si="44">AVERAGE(C445:C451)</f>
         <v>100.28571428571429</v>
       </c>
-      <c r="E451">
-        <f t="shared" ref="E451" si="80">C451-C450</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
       </c>
@@ -24629,15 +24462,11 @@
         <v>93</v>
       </c>
       <c r="D452" s="3">
-        <f t="shared" ref="D452" si="81">AVERAGE(C446:C452)</f>
+        <f t="shared" ref="D452" si="45">AVERAGE(C446:C452)</f>
         <v>98</v>
       </c>
-      <c r="E452">
-        <f t="shared" ref="E452" si="82">C452-C451</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
       </c>
@@ -24645,15 +24474,11 @@
         <v>82</v>
       </c>
       <c r="D453" s="3">
-        <f t="shared" ref="D453" si="83">AVERAGE(C447:C453)</f>
+        <f t="shared" ref="D453" si="46">AVERAGE(C447:C453)</f>
         <v>94.428571428571431</v>
       </c>
-      <c r="E453">
-        <f t="shared" ref="E453" si="84">C453-C452</f>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
       </c>
@@ -24661,15 +24486,11 @@
         <v>79</v>
       </c>
       <c r="D454" s="3">
-        <f t="shared" ref="D454" si="85">AVERAGE(C448:C454)</f>
+        <f t="shared" ref="D454" si="47">AVERAGE(C448:C454)</f>
         <v>91.142857142857139</v>
       </c>
-      <c r="E454">
-        <f t="shared" ref="E454" si="86">C454-C453</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>44353</v>
       </c>
@@ -24677,15 +24498,11 @@
         <v>73</v>
       </c>
       <c r="D455" s="3">
-        <f t="shared" ref="D455" si="87">AVERAGE(C449:C455)</f>
+        <f t="shared" ref="D455" si="48">AVERAGE(C449:C455)</f>
         <v>87.285714285714292</v>
       </c>
-      <c r="E455">
-        <f t="shared" ref="E455" si="88">C455-C454</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
       </c>
@@ -24693,15 +24510,11 @@
         <v>72</v>
       </c>
       <c r="D456" s="3">
-        <f t="shared" ref="D456" si="89">AVERAGE(C450:C456)</f>
+        <f t="shared" ref="D456" si="49">AVERAGE(C450:C456)</f>
         <v>83.428571428571431</v>
       </c>
-      <c r="E456">
-        <f t="shared" ref="E456" si="90">C456-C455</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
       </c>
@@ -24709,15 +24522,11 @@
         <v>68</v>
       </c>
       <c r="D457" s="3">
-        <f t="shared" ref="D457" si="91">AVERAGE(C451:C457)</f>
+        <f t="shared" ref="D457" si="50">AVERAGE(C451:C457)</f>
         <v>79.857142857142861</v>
       </c>
-      <c r="E457">
-        <f t="shared" ref="E457" si="92">C457-C456</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
       </c>
@@ -24725,40 +24534,43 @@
         <v>64</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458" si="93">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D459" si="51">AVERAGE(C452:C458)</f>
         <v>75.857142857142861</v>
       </c>
-      <c r="E458">
-        <f t="shared" ref="E458" si="94">C458-C457</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C459">
+        <v>61</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="51"/>
+        <v>71.285714285714292</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>44359</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
@@ -24848,8 +24660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29540,7 +29352,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30627,6 +30439,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459" s="2">
+        <v>5</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC028AAD-EF4C-A446-BA78-209E68582DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50619BCD-F66E-DE4A-BB19-FBBC1AFC1E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9840" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6846,6 +6846,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>25</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>30.428571428571427</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,7 +6961,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11654,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D459" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12753,6 +12760,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -12861,7 +12875,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17560,7 +17574,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18659,6 +18673,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460" s="2">
+        <v>33</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>53.857142857142854</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -18766,8 +18787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452:C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24531,11 +24552,11 @@
         <v>44356</v>
       </c>
       <c r="C458">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D459" si="51">AVERAGE(C452:C458)</f>
-        <v>75.857142857142861</v>
+        <f t="shared" ref="D458:D460" si="51">AVERAGE(C452:C458)</f>
+        <v>75.714285714285708</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -24543,16 +24564,23 @@
         <v>44357</v>
       </c>
       <c r="C459">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D459" s="3">
         <f t="shared" si="51"/>
-        <v>71.285714285714292</v>
+        <v>71</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>59</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="51"/>
+        <v>67.714285714285708</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -24660,8 +24688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29352,7 +29380,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30451,6 +30479,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460" s="2">
+        <v>4</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4285714285714288</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50619BCD-F66E-DE4A-BB19-FBBC1AFC1E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884372B-C760-854A-9C16-FC8AA33E8BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6859,93 +6859,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>40</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>17</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>27.285714285714285</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>25.428571428571427</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>24.857142857142858</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>7</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>41</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -6961,7 +7003,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11661,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D460" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12773,93 +12815,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461" s="8">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462" s="8">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463" s="8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464" s="8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" s="8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -12874,8 +12958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17574,7 +17658,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18686,93 +18770,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461" s="2">
+        <v>3</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462" s="2">
+        <v>149</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>62.714285714285715</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463" s="2">
+        <v>38</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>66.857142857142861</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464" s="2">
+        <v>1</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>61.428571428571431</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465" s="2">
+        <v>246</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>92.571428571428569</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466" s="2">
+        <v>9</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>68.428571428571431</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -18787,8 +18913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C452" sqref="C452:C460"/>
+    <sheetView topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24555,7 +24681,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D460" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D466" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -24587,93 +24713,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>56</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="51"/>
+        <v>64.428571428571431</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>52</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="51"/>
+        <v>61.428571428571431</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>50</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="51"/>
+        <v>58.285714285714285</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>48</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="51"/>
+        <v>55.428571428571431</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>49</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="51"/>
+        <v>53.428571428571431</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>42</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="51"/>
+        <v>50.857142857142854</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -24688,8 +24856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29380,7 +29548,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30492,93 +30660,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461" s="2">
+        <v>4</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462" s="2">
+        <v>4</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463" s="2">
+        <v>3</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464" s="2">
+        <v>4</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465" s="2">
+        <v>4</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466" s="2">
+        <v>4</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884372B-C760-854A-9C16-FC8AA33E8BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF90278-D058-E749-BDEC-458E517FFA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5940" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6931,10 +6931,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>22</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>18.571428571428573</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>33</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -7003,7 +7017,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11703,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D466" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D468" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12887,10 +12901,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467" s="8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468" s="8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -12958,8 +12986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17658,7 +17686,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18842,10 +18870,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467" s="2">
+        <v>225</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>95.857142857142861</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468" s="2">
+        <v>111</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>111.28571428571429</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -18914,7 +18956,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24681,7 +24723,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D466" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D468" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -24785,10 +24827,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>40</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="51"/>
+        <v>48.142857142857146</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>38</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="51"/>
+        <v>45.571428571428569</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -24856,8 +24912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29548,7 +29604,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>10</v>
       </c>
     </row>
@@ -30732,10 +30788,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467" s="2">
+        <v>4</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468" s="2">
+        <v>4</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF90278-D058-E749-BDEC-458E517FFA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837881C5-1A83-B44C-AA44-7264FE7C26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6955,15 +6955,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>39</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>20.714285714285715</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>20.571428571428573</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>3</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="5"/>
+        <v>20.857142857142858</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -7016,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11717,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D468" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D471" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12925,15 +12946,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="8">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="8">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" s="8">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -12986,8 +13028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17686,7 +17728,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18894,15 +18936,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469" s="2">
+        <v>30</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>94.285714285714292</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470" s="2">
+        <v>10</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>90.285714285714292</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471" s="2">
+        <v>260</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="5"/>
+        <v>127.28571428571429</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -18956,7 +19019,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24723,7 +24786,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D468" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D471" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -24851,15 +24914,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>33</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="51"/>
+        <v>42.857142857142854</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>33</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="51"/>
+        <v>40.428571428571431</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>32</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="51"/>
+        <v>38.142857142857146</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -24913,7 +24997,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30804,7 +30888,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -30812,15 +30896,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469" s="2">
+        <v>4</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470" s="2">
+        <v>4</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471" s="2">
+        <v>4</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837881C5-1A83-B44C-AA44-7264FE7C26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE8BE0-BD29-0B47-923F-D74505724BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="E480" sqref="E480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D472" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -6990,6 +6990,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>48</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="5"/>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,7 +7045,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11738,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D471" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D472" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -12981,6 +12988,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" s="8">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13028,8 +13042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17728,7 +17742,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D472" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18971,6 +18985,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472" s="2">
+        <v>212</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="5"/>
+        <v>122.42857142857143</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -19019,7 +19040,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24786,7 +24807,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D471" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D472" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -24949,6 +24970,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>30</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="51"/>
+        <v>35.428571428571431</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -24997,7 +25025,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30888,7 +30916,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -30931,6 +30959,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472" s="2">
+        <v>4</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE8BE0-BD29-0B47-923F-D74505724BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5BCF79-B571-CE45-8BF3-296C5C12E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="E480" sqref="E480"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D472" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D473" si="5">AVERAGE(C362:C368)</f>
         <v>83.571428571428569</v>
       </c>
     </row>
@@ -7003,15 +7003,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>9</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="5"/>
+        <v>22.142857142857142</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <v>19.285714285714285</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>11</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>16.142857142857142</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7045,7 +7066,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11745,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" ref="D368:D472" si="6">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D473" si="6">AVERAGE(C362:C368)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -13001,15 +13022,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" s="8">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" s="8">
+        <f t="shared" ref="D474:D475" si="7">AVERAGE(C468:C474)</f>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475" s="8">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13042,8 +13084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17742,7 +17784,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D472" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D473" si="5">AVERAGE(C362:C368)</f>
         <v>36.142857142857146</v>
       </c>
     </row>
@@ -18998,15 +19040,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473" s="2">
+        <v>123</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="5"/>
+        <v>138.71428571428572</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474" s="2">
+        <v>67</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <v>116.14285714285714</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475" s="2">
+        <v>247</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>135.57142857142858</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -19040,7 +19103,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24807,7 +24870,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D472" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D475" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -24983,15 +25046,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>27</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="51"/>
+        <v>33.285714285714285</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>25</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="51"/>
+        <v>31.142857142857142</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>24</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="51"/>
+        <v>29.142857142857142</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -25024,8 +25108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30916,7 +31000,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -30972,15 +31056,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473" s="2">
+        <v>4</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474" s="2">
+        <v>3</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475" s="2">
+        <v>3</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5BCF79-B571-CE45-8BF3-296C5C12E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB99EB4-0E06-3643-B264-1EDC892C4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6620" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J479"/>
+  <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7039,20 +7039,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>17</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>7</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>13.571428571428571</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>11</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>8.2857142857142865</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>24</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>10.428571428571429</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>4</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>10.714285714285714</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>41</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>7</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>13.571428571428571</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>9</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>14.714285714285714</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -7063,10 +7281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13038,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="D474" s="8">
-        <f t="shared" ref="D474:D475" si="7">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D484" si="7">AVERAGE(C468:C474)</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -13058,20 +13276,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" s="8">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="8">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" s="8">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" s="8">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480" s="8">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" s="8">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="8">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -13082,10 +13518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19056,7 +19492,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -19076,20 +19512,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476" s="2">
+        <v>156</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>153.57142857142858</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477" s="2">
+        <v>8</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>153.28571428571428</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478" s="2">
+        <v>130</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>134.71428571428572</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479" s="2">
+        <v>140</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>124.42857142857143</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480" s="2">
+        <v>105</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>121.85714285714286</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481" s="2">
+        <v>264</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482" s="2">
+        <v>1304</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483" s="2">
+        <v>225</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>310.85714285714283</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484" s="2">
+        <v>242</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>344.28571428571428</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -19100,10 +19754,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24870,7 +25524,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D475" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D484" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -25082,20 +25736,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>24</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="51"/>
+        <v>27.857142857142858</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>25</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="51"/>
+        <v>26.714285714285715</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>25</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="51"/>
+        <v>25.714285714285715</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>25</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>20</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>17</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="51"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>19</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="51"/>
+        <v>22.142857142857142</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>18</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="51"/>
+        <v>21.285714285714285</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>24</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="51"/>
+        <v>21.142857142857142</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -25106,10 +25978,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31000,7 +31872,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -31092,20 +31964,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476" s="2">
+        <v>3</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477" s="2">
+        <v>3</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478" s="2">
+        <v>3</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479" s="2">
+        <v>3</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480" s="2">
+        <v>4</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481" s="2">
+        <v>4</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482" s="2">
+        <v>4</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483" s="2">
+        <v>4</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484" s="2">
+        <v>4</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB99EB4-0E06-3643-B264-1EDC892C4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CAED2C-72F4-C241-A35B-09B3880AD584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7146,6 +7146,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>15</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,7 +7291,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13256,7 +13263,7 @@
         <v>1</v>
       </c>
       <c r="D474" s="8">
-        <f t="shared" ref="D474:D484" si="7">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D485" si="7">AVERAGE(C468:C474)</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -13383,6 +13390,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+      <c r="D485" s="8">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13521,7 +13535,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19492,7 +19506,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -19619,6 +19633,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485" s="2">
+        <v>231</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>358.71428571428572</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -19757,7 +19778,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25524,7 +25545,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D484" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D485" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -25843,6 +25864,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>24</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="51"/>
+        <v>21</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -25980,8 +26008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+    <sheetView topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31872,7 +31900,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -32071,6 +32099,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485" s="2">
+        <v>3</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Cosenza/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CAED2C-72F4-C241-A35B-09B3880AD584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BE6AC-82C9-6D49-8E34-6F9FEB9E5C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="C494" sqref="C494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D493" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7159,40 +7159,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>22</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>17.428571428571427</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>35</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>5</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>19.142857142857142</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>6</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>19</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>15.857142857142858</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>15.142857142857142</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>29</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>17.142857142857142</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>23</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>17.285714285714285</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -7291,7 +7347,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="C463" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13403,40 +13459,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486" s="8">
+        <f t="shared" ref="D486" si="8">AVERAGE(C480:C486)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487" s="8">
+        <f t="shared" ref="D487" si="9">AVERAGE(C481:C487)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" s="8">
+        <f t="shared" ref="D488" si="10">AVERAGE(C482:C488)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="8">
+        <f t="shared" ref="D489" si="11">AVERAGE(C483:C489)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="8">
+        <f t="shared" ref="D490:D492" si="12">AVERAGE(C484:C490)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" s="8">
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" s="8">
+        <f t="shared" si="12"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" s="8">
+        <f t="shared" ref="D493" si="13">AVERAGE(C487:C493)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13534,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="C465" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19506,7 +19618,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D493" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -19646,40 +19758,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486" s="2">
+        <v>46</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>345.28571428571428</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487" s="2">
+        <v>135</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>349.57142857142856</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488" s="2">
+        <v>47</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>318.57142857142856</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489" s="2">
+        <v>360</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>183.71428571428572</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490" s="2">
+        <v>12</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>153.28571428571428</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491" s="2">
+        <v>22</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>121.85714285714286</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492" s="2">
+        <v>39</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>94.428571428571431</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493" s="2">
+        <v>92</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>101</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -19778,7 +19946,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25545,7 +25713,7 @@
         <v>63</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D485" si="51">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D489" si="51">AVERAGE(C452:C458)</f>
         <v>75.714285714285708</v>
       </c>
     </row>
@@ -25877,40 +26045,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>25</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>25</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="51"/>
+        <v>21.714285714285715</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>26</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="51"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>28</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="51"/>
+        <v>24.285714285714285</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>28</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490" si="52">AVERAGE(C484:C490)</f>
+        <v>25.714285714285715</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>28</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491:D493" si="53">AVERAGE(C485:C491)</f>
+        <v>26.285714285714285</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>26</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="53"/>
+        <v>26.571428571428573</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>29</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="53"/>
+        <v>27.142857142857142</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -26008,8 +26232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493:D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31900,7 +32124,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D486" si="6">AVERAGE(C462:C468)</f>
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -32112,40 +32336,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486" s="2">
+        <v>2</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487" s="2">
+        <v>2</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487:D488" si="7">AVERAGE(C481:C487)</f>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488" s="2">
+        <v>2</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489" s="2">
+        <v>2</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="8">AVERAGE(C483:C489)</f>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490" s="2">
+        <v>2</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490:D491" si="9">AVERAGE(C484:C490)</f>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491" s="2">
+        <v>1</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492" s="2">
+        <v>1</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492" si="10">AVERAGE(C486:C492)</f>
+        <v>1.7142857142857142</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493" s="2">
+        <v>1</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="11">AVERAGE(C487:C493)</f>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BE6AC-82C9-6D49-8E34-6F9FEB9E5C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1ABB01-F113-F441-A413-74600454AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D493" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D494" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7254,6 +7254,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>13</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7346,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="C463" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13554,6 +13561,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="8">
+        <f t="shared" ref="D494" si="14">AVERAGE(C488:C494)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13647,7 +13661,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C465" sqref="C1:C1048576"/>
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19618,7 +19632,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D493" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D494" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -19853,6 +19867,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494" s="2">
+        <v>50</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>88.857142857142861</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -19945,8 +19966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26109,7 +26130,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D493" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D494" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26140,6 +26161,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>28</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="53"/>
+        <v>27.571428571428573</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -26232,8 +26260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D493"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32424,13 +32452,20 @@
         <v>1</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493" si="11">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D494" si="11">AVERAGE(C487:C493)</f>
         <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494" s="2">
+        <v>1</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1ABB01-F113-F441-A413-74600454AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA817BA-40DC-D74B-963D-B24D6A41DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9660" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D494" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D496" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7267,10 +7267,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>42</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>19.428571428571427</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>21</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>21.571428571428573</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -7353,8 +7367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13574,10 +13588,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="8">
+        <f t="shared" ref="D495:D496" si="15">AVERAGE(C489:C495)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="8">
+        <f t="shared" si="15"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -13660,8 +13688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19632,7 +19660,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D494" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D496" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -19880,10 +19908,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495" s="2">
+        <v>36</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>87.285714285714292</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496" s="2">
+        <v>41</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>41.714285714285715</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -19967,7 +20009,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26130,7 +26172,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D494" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D496" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26174,10 +26216,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>26</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="53"/>
+        <v>27.571428571428573</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>25</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="53"/>
+        <v>27.142857142857142</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -26260,8 +26316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32452,7 +32508,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D494" si="11">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D496" si="11">AVERAGE(C487:C493)</f>
         <v>1.5714285714285714</v>
       </c>
     </row>
@@ -32472,10 +32528,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495" s="2">
+        <v>1</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496" s="2">
+        <v>1</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Cosenza/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA817BA-40DC-D74B-963D-B24D6A41DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B439368-FBCB-3940-A274-339A28C9708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D496" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D499" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7287,72 +7287,93 @@
         <v>21.571428571428573</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>15</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>35</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>25.428571428571427</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>6</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>22.142857142857142</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -7368,7 +7389,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13592,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="8">
-        <f t="shared" ref="D495:D496" si="15">AVERAGE(C489:C495)</f>
+        <f t="shared" ref="D495:D499" si="15">AVERAGE(C489:C495)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -13608,72 +13629,93 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" s="8">
+        <f t="shared" si="15"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="8">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" s="8">
+        <f t="shared" si="15"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -13688,8 +13730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19660,7 +19702,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D496" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D499" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -19928,72 +19970,93 @@
         <v>41.714285714285715</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497" s="2">
+        <v>33</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>44.714285714285715</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498" s="2">
+        <v>1</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>41.714285714285715</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499" s="2">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>36.285714285714285</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -20008,8 +20071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26172,7 +26235,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D496" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D499" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26236,72 +26299,93 @@
         <v>27.142857142857142</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>27</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="53"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>26</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="53"/>
+        <v>26.714285714285715</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>24</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="53"/>
+        <v>26.428571428571427</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -26316,8 +26400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32508,7 +32592,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D496" si="11">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D499" si="11">AVERAGE(C487:C493)</f>
         <v>1.5714285714285714</v>
       </c>
     </row>
@@ -32548,72 +32632,93 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497" s="2">
+        <v>1</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498" s="2">
+        <v>2</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499" s="2">
+        <v>2</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B439368-FBCB-3940-A274-339A28C9708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896AD7A-1E29-AD47-A03A-C8B9627CD8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8980" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D499" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D500" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7326,6 +7326,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>28</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7388,8 +7395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13668,6 +13675,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500" s="8">
+        <f t="shared" ref="D500" si="16">AVERAGE(C494:C500)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -13731,7 +13745,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19702,7 +19716,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D499" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D500" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20009,6 +20023,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500" s="2">
+        <v>24</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>26.571428571428573</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -20071,8 +20092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26235,7 +26256,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D499" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D500" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26338,6 +26359,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>25</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="53"/>
+        <v>25.857142857142858</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -26400,8 +26428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32592,7 +32620,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D499" si="11">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D500" si="11">AVERAGE(C487:C493)</f>
         <v>1.5714285714285714</v>
       </c>
     </row>
@@ -32671,6 +32699,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500" s="2">
+        <v>3</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896AD7A-1E29-AD47-A03A-C8B9627CD8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A17E6-654D-5449-AFB6-0A0744F1EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D500" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D504" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7339,20 +7339,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>16</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>23.285714285714285</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>29</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>21.428571428571427</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>36</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>23.571428571428573</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>32</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7395,8 +7423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13680,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="D500" s="8">
-        <f t="shared" ref="D500" si="16">AVERAGE(C494:C500)</f>
+        <f t="shared" ref="D500:D504" si="16">AVERAGE(C494:C500)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -13688,20 +13716,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="8">
+        <f t="shared" si="16"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>5</v>
+      </c>
+      <c r="D502" s="8">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" s="8">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="8">
+        <f t="shared" si="16"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -13744,8 +13800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19716,7 +19772,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D500" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D504" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20036,20 +20092,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501" s="2">
+        <v>94</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>32.857142857142854</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502" s="2">
+        <v>61</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>36.428571428571431</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503" s="2">
+        <v>30</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>34.857142857142854</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504" s="2">
+        <v>1</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>30.285714285714285</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -20092,8 +20176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26256,7 +26340,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D500" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D504" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26372,20 +26456,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>27</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="53"/>
+        <v>25.714285714285715</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>29</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="53"/>
+        <v>26.142857142857142</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>34</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="53"/>
+        <v>27.428571428571427</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>31</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="53"/>
+        <v>28</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -26428,8 +26540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32620,7 +32732,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D500" si="11">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D504" si="11">AVERAGE(C487:C493)</f>
         <v>1.5714285714285714</v>
       </c>
     </row>
@@ -32712,20 +32824,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501" s="2">
+        <v>3</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="11"/>
+        <v>1.8571428571428572</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502" s="2">
+        <v>3</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="11"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503" s="2">
+        <v>3</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="11"/>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504" s="2">
+        <v>3</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="11"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A17E6-654D-5449-AFB6-0A0744F1EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592FBB9F-1345-1C43-A636-2F06A6F32543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9060" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D504" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D506" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7387,10 +7387,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>21.285714285714285</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>32</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7424,7 +7438,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13708,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="D500" s="8">
-        <f t="shared" ref="D500:D504" si="16">AVERAGE(C494:C500)</f>
+        <f t="shared" ref="D500:D506" si="16">AVERAGE(C494:C500)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -13764,10 +13778,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>9</v>
+      </c>
+      <c r="D505" s="8">
+        <f t="shared" si="16"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506" s="8">
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -13800,8 +13828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19772,7 +19800,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D504" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D506" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20140,10 +20168,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505" s="2">
+        <v>14</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>32.142857142857146</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506" s="2">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -20177,7 +20219,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26340,7 +26382,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D504" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D506" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26504,10 +26546,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>31</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="53"/>
+        <v>28.714285714285715</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>33</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="53"/>
+        <v>30</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -26541,7 +26597,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32732,7 +32788,7 @@
         <v>1</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D504" si="11">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D506" si="11">AVERAGE(C487:C493)</f>
         <v>1.5714285714285714</v>
       </c>
     </row>
@@ -32872,10 +32928,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505" s="3">
+        <v>3</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428572</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506" s="2">
+        <v>3</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592FBB9F-1345-1C43-A636-2F06A6F32543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249D9E0-94EC-524D-849A-01E01BEF3CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505:C506"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D506" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D507" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7410,6 +7410,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>33</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -7437,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13801,6 +13808,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="8">
+        <f t="shared" ref="D507" si="17">AVERAGE(C501:C507)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -13829,7 +13843,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19800,7 +19814,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D506" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D507" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20191,6 +20205,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507" s="2">
+        <v>58</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>36.857142857142854</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -20218,8 +20239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26382,7 +26403,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D506" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D507" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26569,6 +26590,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>35</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="53"/>
+        <v>31.428571428571427</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -26596,8 +26624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+    <sheetView topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32952,6 +32980,13 @@
       <c r="A507" s="5">
         <v>44405</v>
       </c>
+      <c r="C507" s="2">
+        <v>3</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="12">AVERAGE(C501:C507)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249D9E0-94EC-524D-849A-01E01BEF3CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5B4E5-9C0C-0240-B3AB-258CE160E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D507" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D508" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7422,6 +7422,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>30</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>27.714285714285715</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -7445,7 +7452,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13813,13 +13820,20 @@
         <v>0</v>
       </c>
       <c r="D507" s="8">
-        <f t="shared" ref="D507" si="17">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D508" si="17">AVERAGE(C501:C507)</f>
         <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" s="8">
+        <f t="shared" si="17"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -13843,7 +13857,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19814,7 +19828,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D507" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D508" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20217,6 +20231,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508" s="2">
+        <v>3</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>23.857142857142858</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -20240,7 +20261,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26403,7 +26424,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D507" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D508" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26602,6 +26623,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>30</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="53"/>
+        <v>31.857142857142858</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -26624,8 +26652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32984,13 +33012,20 @@
         <v>3</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507" si="12">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D508" si="12">AVERAGE(C501:C507)</f>
         <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508" s="2">
+        <v>3</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5B4E5-9C0C-0240-B3AB-258CE160E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F87E3-D705-9847-BC23-F19AA89C53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7920" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J510"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6284,11 +6284,11 @@
         <v>44311</v>
       </c>
       <c r="C413">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D413" s="3">
         <f t="shared" si="5"/>
-        <v>202.85714285714286</v>
+        <v>202.71428571428572</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="D414" s="3">
         <f t="shared" si="5"/>
-        <v>201</v>
+        <v>200.85714285714286</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
         <v>44313</v>
       </c>
       <c r="C415">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D415" s="3">
         <f t="shared" si="5"/>
@@ -6320,11 +6320,11 @@
         <v>44314</v>
       </c>
       <c r="C416">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D416" s="3">
         <f t="shared" si="5"/>
-        <v>182.85714285714286</v>
+        <v>183</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -6332,7 +6332,7 @@
         <v>44315</v>
       </c>
       <c r="C417">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D417" s="3">
         <f t="shared" si="5"/>
@@ -6344,11 +6344,11 @@
         <v>44316</v>
       </c>
       <c r="C418">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D418" s="3">
         <f t="shared" si="5"/>
-        <v>149.71428571428572</v>
+        <v>149.57142857142858</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="D419" s="3">
         <f t="shared" si="5"/>
-        <v>141.14285714285714</v>
+        <v>141</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -6368,11 +6368,11 @@
         <v>44318</v>
       </c>
       <c r="C420">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D420" s="3">
         <f t="shared" si="5"/>
-        <v>127.85714285714286</v>
+        <v>128.85714285714286</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -6380,11 +6380,11 @@
         <v>44319</v>
       </c>
       <c r="C421">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D421" s="3">
         <f t="shared" si="5"/>
-        <v>139.28571428571428</v>
+        <v>139.42857142857142</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -6392,11 +6392,11 @@
         <v>44320</v>
       </c>
       <c r="C422">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D422" s="3">
         <f t="shared" si="5"/>
-        <v>132.14285714285714</v>
+        <v>132.85714285714286</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6404,11 +6404,11 @@
         <v>44321</v>
       </c>
       <c r="C423">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D423" s="3">
         <f t="shared" si="5"/>
-        <v>123.71428571428571</v>
+        <v>124.71428571428571</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6416,11 +6416,11 @@
         <v>44322</v>
       </c>
       <c r="C424">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D424" s="3">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6428,11 +6428,11 @@
         <v>44323</v>
       </c>
       <c r="C425">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D425" s="3">
         <f t="shared" si="5"/>
-        <v>125.28571428571429</v>
+        <v>126.57142857142857</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6440,11 +6440,11 @@
         <v>44324</v>
       </c>
       <c r="C426">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D426" s="3">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>119.57142857142857</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D427" s="3">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>116.57142857142857</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6464,11 +6464,11 @@
         <v>44326</v>
       </c>
       <c r="C428">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D428" s="3">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>111.14285714285714</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6476,11 +6476,11 @@
         <v>44327</v>
       </c>
       <c r="C429">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D429" s="3">
         <f t="shared" si="5"/>
-        <v>102.57142857142857</v>
+        <v>104.14285714285714</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="D430" s="3">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>109.14285714285714</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="D431" s="3">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>108.28571428571429</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6512,11 +6512,11 @@
         <v>44330</v>
       </c>
       <c r="C432">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D432" s="3">
         <f t="shared" si="5"/>
-        <v>97.142857142857139</v>
+        <v>98.857142857142861</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -6524,11 +6524,11 @@
         <v>44331</v>
       </c>
       <c r="C433">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D433" s="3">
         <f t="shared" si="5"/>
-        <v>90.285714285714292</v>
+        <v>92.285714285714292</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="D434" s="3">
         <f t="shared" si="5"/>
-        <v>77.714285714285708</v>
+        <v>79.714285714285708</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6548,11 +6548,11 @@
         <v>44333</v>
       </c>
       <c r="C435">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D435" s="3">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>74.571428571428569</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="D436" s="3">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>72.428571428571431</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6572,11 +6572,11 @@
         <v>44335</v>
       </c>
       <c r="C437">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D437" s="3">
         <f t="shared" si="5"/>
-        <v>66.714285714285708</v>
+        <v>68.285714285714292</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="D438" s="3">
         <f t="shared" si="5"/>
-        <v>56.857142857142854</v>
+        <v>58.428571428571431</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6596,11 +6596,11 @@
         <v>44337</v>
       </c>
       <c r="C439">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D439" s="3">
         <f t="shared" si="5"/>
-        <v>50.142857142857146</v>
+        <v>51.285714285714285</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="D440" s="3">
         <f t="shared" si="5"/>
-        <v>47.857142857142854</v>
+        <v>48.428571428571431</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6620,11 +6620,11 @@
         <v>44339</v>
       </c>
       <c r="C441">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D441" s="3">
         <f t="shared" si="5"/>
-        <v>50.142857142857146</v>
+        <v>50.857142857142854</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="D442" s="3">
         <f t="shared" si="5"/>
-        <v>49.428571428571431</v>
+        <v>49.857142857142854</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="D443" s="3">
         <f t="shared" si="5"/>
-        <v>51.714285714285715</v>
+        <v>52.142857142857146</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="D444" s="3">
         <f t="shared" si="5"/>
-        <v>50.142857142857146</v>
+        <v>50.428571428571431</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6668,11 +6668,11 @@
         <v>44343</v>
       </c>
       <c r="C445">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D445" s="3">
         <f t="shared" si="5"/>
-        <v>53.714285714285715</v>
+        <v>53.285714285714285</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D446" s="3">
         <f t="shared" si="5"/>
-        <v>44.428571428571431</v>
+        <v>43.857142857142854</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="D447" s="3">
         <f t="shared" si="5"/>
-        <v>46.571428571428569</v>
+        <v>46</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="D448" s="3">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>39.285714285714285</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="D449" s="3">
         <f t="shared" si="5"/>
-        <v>40.428571428571431</v>
+        <v>39.714285714285715</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="D450" s="3">
         <f t="shared" si="5"/>
-        <v>41.428571428571431</v>
+        <v>40.714285714285715</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="D451" s="3">
         <f t="shared" si="5"/>
-        <v>35.571428571428569</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6764,11 +6764,11 @@
         <v>44351</v>
       </c>
       <c r="C453">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D453" s="3">
         <f t="shared" si="5"/>
-        <v>42.142857142857146</v>
+        <v>42.285714285714285</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="D454" s="3">
         <f t="shared" si="5"/>
-        <v>35.714285714285715</v>
+        <v>35.857142857142854</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="D455" s="3">
         <f t="shared" si="5"/>
-        <v>40.571428571428569</v>
+        <v>40.714285714285715</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="D456" s="3">
         <f t="shared" si="5"/>
-        <v>41.714285714285715</v>
+        <v>41.857142857142854</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D457" s="3">
         <f t="shared" si="5"/>
-        <v>38.428571428571431</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="D458" s="3">
         <f t="shared" si="5"/>
-        <v>39.857142857142854</v>
+        <v>40</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="D459" s="3">
         <f t="shared" si="5"/>
-        <v>37.142857142857146</v>
+        <v>37.285714285714285</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D508" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D521" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7256,11 +7256,11 @@
         <v>44392</v>
       </c>
       <c r="C494">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="D494" s="3">
         <f t="shared" si="6"/>
-        <v>14.142857142857142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="D495" s="3">
         <f t="shared" si="6"/>
-        <v>19.428571428571427</v>
+        <v>17.285714285714285</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="D496" s="3">
         <f t="shared" si="6"/>
-        <v>21.571428571428573</v>
+        <v>19.428571428571427</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="D497" s="3">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>18.857142857142858</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="D498" s="3">
         <f t="shared" si="6"/>
-        <v>25.428571428571427</v>
+        <v>23.285714285714285</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="D499" s="3">
         <f t="shared" si="6"/>
-        <v>22.142857142857142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="D500" s="3">
         <f t="shared" si="6"/>
-        <v>22.857142857142858</v>
+        <v>20.714285714285715</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7435,10 +7435,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>21</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="6"/>
+        <v>26.571428571428573</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>35</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="6"/>
+        <v>26.428571428571427</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>43</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="6"/>
+        <v>27.857142857142858</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>14</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="6"/>
+        <v>25.285714285714285</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>62</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="6"/>
+        <v>29.428571428571427</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>44</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="6"/>
+        <v>31.428571428571427</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>53</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>65</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="6"/>
+        <v>40.285714285714285</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>22</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="6"/>
+        <v>37.285714285714285</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>-19</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="6"/>
+        <v>34.428571428571431</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>14</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="6"/>
+        <v>34.428571428571431</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>81</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="6"/>
+        <v>37.142857142857146</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -7449,10 +7695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="C509" sqref="C509:C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13820,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="D507" s="8">
-        <f t="shared" ref="D507:D508" si="17">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D510" si="17">AVERAGE(C501:C507)</f>
         <v>2</v>
       </c>
     </row>
@@ -13840,10 +14086,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="8">
+        <f t="shared" si="17"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510" s="8">
+        <f t="shared" si="17"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="8">
+        <f t="shared" ref="D511:D512" si="18">AVERAGE(C505:C511)</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="8">
+        <f t="shared" si="18"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513" s="8">
+        <f t="shared" ref="D513:D515" si="19">AVERAGE(C507:C513)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514" s="8">
+        <f t="shared" si="19"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515" s="8">
+        <f t="shared" si="19"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516" s="8">
+        <f t="shared" ref="D516" si="20">AVERAGE(C510:C516)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517" s="8">
+        <f t="shared" ref="D517:D520" si="21">AVERAGE(C511:C517)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" s="8">
+        <f t="shared" si="21"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" s="8">
+        <f t="shared" si="21"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520" s="8">
+        <f t="shared" si="21"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521" s="8">
+        <f t="shared" ref="D521" si="22">AVERAGE(C515:C521)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -13854,10 +14346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="C509" sqref="C509:C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19828,7 +20320,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D508" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D521" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20244,10 +20736,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509" s="2">
+        <v>39</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="6"/>
+        <v>20.714285714285715</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510" s="2">
+        <v>3</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="6"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511" s="2">
+        <v>26</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="6"/>
+        <v>20.428571428571427</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512" s="2">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="6"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513" s="2">
+        <v>137</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514" s="2">
+        <v>181</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="6"/>
+        <v>55.571428571428569</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515" s="2">
+        <v>329</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="6"/>
+        <v>102.14285714285714</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516" s="2">
+        <v>51</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="6"/>
+        <v>103.85714285714286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517" s="2">
+        <v>75</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="6"/>
+        <v>114.14285714285714</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518" s="2">
+        <v>23</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="6"/>
+        <v>113.71428571428571</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519" s="2">
+        <v>15</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="6"/>
+        <v>115.85714285714286</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520" s="2">
+        <v>41</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="6"/>
+        <v>102.14285714285714</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521" s="2">
+        <v>56</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="6"/>
+        <v>84.285714285714292</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -20258,10 +20996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="C509" sqref="C509:C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26424,7 +27162,7 @@
         <v>28</v>
       </c>
       <c r="D491" s="3">
-        <f t="shared" ref="D491:D508" si="53">AVERAGE(C485:C491)</f>
+        <f t="shared" ref="D491:D512" si="53">AVERAGE(C485:C491)</f>
         <v>26.285714285714285</v>
       </c>
     </row>
@@ -26636,10 +27374,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>32</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="53"/>
+        <v>32.285714285714285</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>29</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="53"/>
+        <v>31.571428571428573</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>30</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="53"/>
+        <v>31.428571428571427</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>31</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="53"/>
+        <v>31.428571428571427</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>31</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513:D517" si="54">AVERAGE(C507:C513)</f>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>35</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="54"/>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>36</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="54"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>34</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="54"/>
+        <v>32.285714285714285</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>32</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="54"/>
+        <v>32.714285714285715</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>32</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" ref="D518:D521" si="55">AVERAGE(C512:C518)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>33</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="55"/>
+        <v>33.285714285714285</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>36</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="55"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>39</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="55"/>
+        <v>34.571428571428569</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -26650,10 +27634,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C509" sqref="C509:C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33012,7 +33996,7 @@
         <v>3</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507:D508" si="12">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D511" si="12">AVERAGE(C501:C507)</f>
         <v>3</v>
       </c>
     </row>
@@ -33032,10 +34016,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509" s="2">
+        <v>4</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1428571428571428</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510" s="2">
+        <v>3</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511" s="2">
+        <v>2</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512" s="2">
+        <v>2</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512:D514" si="13">AVERAGE(C506:C512)</f>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513" s="2">
+        <v>2</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="13"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514" s="2">
+        <v>1</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="13"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515" s="2">
+        <v>1</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515" si="14">AVERAGE(C509:C515)</f>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516" s="2">
+        <v>1</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516:D517" si="15">AVERAGE(C510:C516)</f>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517" s="2">
+        <v>1</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="15"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518" s="2">
+        <v>1</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" ref="D518:D520" si="16">AVERAGE(C512:C518)</f>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519" s="2">
+        <v>1</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520" s="2">
+        <v>1</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521" s="2">
+        <v>1</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" ref="D521" si="17">AVERAGE(C515:C521)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F87E3-D705-9847-BC23-F19AA89C53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7CA071-A92A-DE40-9344-FF8595DFAB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="11340" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D521"/>
+    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D521" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D522" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7590,6 +7590,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>102</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="6"/>
+        <v>45.428571428571431</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -7697,8 +7704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509:C521"/>
+    <sheetView topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14241,6 +14248,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522" s="8">
+        <f t="shared" ref="D522" si="23">AVERAGE(C516:C522)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14349,7 +14363,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509:C521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20320,7 +20334,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D521" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D522" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20891,6 +20905,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522" s="2">
+        <v>14</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="6"/>
+        <v>39.285714285714285</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -20999,7 +21020,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509:C521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27486,7 +27507,7 @@
         <v>32</v>
       </c>
       <c r="D518" s="3">
-        <f t="shared" ref="D518:D521" si="55">AVERAGE(C512:C518)</f>
+        <f t="shared" ref="D518:D522" si="55">AVERAGE(C512:C518)</f>
         <v>33</v>
       </c>
     </row>
@@ -27529,6 +27550,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>38</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="55"/>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -27636,8 +27664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C509" sqref="C509:C521"/>
+    <sheetView topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34164,13 +34192,20 @@
         <v>1</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521" si="17">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D522" si="17">AVERAGE(C515:C521)</f>
         <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522" s="2">
+        <v>3</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="17"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7CA071-A92A-DE40-9344-FF8595DFAB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6020EEC-6A01-504C-9CAA-2B1C7D428253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D522" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D523" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7602,6 +7602,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>70</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="6"/>
+        <v>47.857142857142854</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -7705,7 +7712,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14260,6 +14267,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" s="8">
+        <f t="shared" ref="D523" si="24">AVERAGE(C517:C523)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14362,8 +14376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20334,7 +20348,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D522" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D523" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20917,6 +20931,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523" s="2">
+        <v>8</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="6"/>
+        <v>33.142857142857146</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -21020,7 +21041,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27507,7 +27528,7 @@
         <v>32</v>
       </c>
       <c r="D518" s="3">
-        <f t="shared" ref="D518:D522" si="55">AVERAGE(C512:C518)</f>
+        <f t="shared" ref="D518:D523" si="55">AVERAGE(C512:C518)</f>
         <v>33</v>
       </c>
     </row>
@@ -27562,6 +27583,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>40</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="55"/>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -27665,7 +27693,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34192,7 +34220,7 @@
         <v>1</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D522" si="17">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D523" si="17">AVERAGE(C515:C521)</f>
         <v>1</v>
       </c>
     </row>
@@ -34211,6 +34239,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523" s="2">
+        <v>3</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6020EEC-6A01-504C-9CAA-2B1C7D428253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6460FE-1071-CE4C-926E-0509D106C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540:D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D523" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D540" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7615,88 +7615,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>55</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="6"/>
+        <v>46.428571428571431</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>87</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="6"/>
+        <v>55.714285714285715</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="6"/>
+        <v>58.714285714285715</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>45</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="6"/>
+        <v>63.142857142857146</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>32</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="6"/>
+        <v>56.142857142857146</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>44</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="6"/>
+        <v>47.857142857142854</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>74</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="6"/>
+        <v>48.428571428571431</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>56</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="6"/>
+        <v>48.571428571428569</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>47</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="6"/>
+        <v>42.857142857142854</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="6"/>
+        <v>42.571428571428569</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>45</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="6"/>
+        <v>42.571428571428569</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>85</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="6"/>
+        <v>50.142857142857146</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>102</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="6"/>
+        <v>58.428571428571431</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>104</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="6"/>
+        <v>62.714285714285715</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>127</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="6"/>
+        <v>72.857142857142861</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>55</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>3</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="6"/>
+        <v>74.428571428571431</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -7711,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540:D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14272,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="8">
-        <f t="shared" ref="D523" si="24">AVERAGE(C517:C523)</f>
+        <f t="shared" ref="D523:D531" si="24">AVERAGE(C517:C523)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14280,88 +14399,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" s="8">
+        <f t="shared" si="24"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525" s="8">
+        <f t="shared" si="24"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526" s="8">
+        <f t="shared" si="24"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527" s="8">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528" s="8">
+        <f t="shared" si="24"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>9</v>
+      </c>
+      <c r="D529" s="8">
+        <f t="shared" si="24"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530" s="8">
+        <f t="shared" si="24"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531" s="8">
+        <f t="shared" si="24"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" s="8">
+        <f t="shared" ref="D532:D540" si="25">AVERAGE(C526:C532)</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533" s="8">
+        <f t="shared" si="25"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534" s="8">
+        <f t="shared" si="25"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535" s="8">
+        <f t="shared" si="25"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>2</v>
+      </c>
+      <c r="D536" s="8">
+        <f t="shared" si="25"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537" s="8">
+        <f t="shared" si="25"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" s="8">
+        <f t="shared" si="25"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" s="8">
+        <f t="shared" si="25"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" s="8">
+        <f t="shared" si="25"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -14376,8 +14614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540:D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20348,7 +20586,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D523" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D540" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -20944,88 +21182,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524" s="2">
+        <v>117</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="6"/>
+        <v>39.142857142857146</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525" s="2">
+        <v>156</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="6"/>
+        <v>58.142857142857146</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526" s="2">
+        <v>27</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="6"/>
+        <v>59.857142857142854</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527" s="2">
+        <v>71</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="6"/>
+        <v>64.142857142857139</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528" s="2">
+        <v>47</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="6"/>
+        <v>62.857142857142854</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529" s="2">
+        <v>16</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="6"/>
+        <v>63.142857142857146</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530" s="2">
+        <v>112</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531" s="2">
+        <v>1</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="6"/>
+        <v>61.428571428571431</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532" s="2">
+        <v>99</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="6"/>
+        <v>53.285714285714285</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533" s="2">
+        <v>6</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="6"/>
+        <v>50.285714285714285</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534" s="2">
+        <v>50</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="6"/>
+        <v>47.285714285714285</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535" s="2">
+        <v>35</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="6"/>
+        <v>45.571428571428569</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536" s="2">
+        <v>48</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="6"/>
+        <v>50.142857142857146</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537" s="2">
+        <v>26</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="6"/>
+        <v>37.857142857142854</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538" s="2">
+        <v>13</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="6"/>
+        <v>39.571428571428569</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539" s="2">
+        <v>2</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="6"/>
+        <v>25.714285714285715</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540" s="2">
+        <v>64</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -21040,8 +21397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540:D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27528,7 +27885,7 @@
         <v>32</v>
       </c>
       <c r="D518" s="3">
-        <f t="shared" ref="D518:D523" si="55">AVERAGE(C512:C518)</f>
+        <f t="shared" ref="D518:D526" si="55">AVERAGE(C512:C518)</f>
         <v>33</v>
       </c>
     </row>
@@ -27596,88 +27953,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>40</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="55"/>
+        <v>36.857142857142854</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>39</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="55"/>
+        <v>37.857142857142854</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>38</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="55"/>
+        <v>38.571428571428569</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>38</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" ref="D527" si="56">AVERAGE(C521:C527)</f>
+        <v>38.857142857142854</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>38</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" ref="D528:D534" si="57">AVERAGE(C522:C528)</f>
+        <v>38.714285714285715</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>32</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="57"/>
+        <v>37.857142857142854</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>30</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="57"/>
+        <v>36.428571428571431</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>31</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="57"/>
+        <v>35.142857142857146</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>34</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="57"/>
+        <v>34.428571428571431</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>32</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="57"/>
+        <v>33.571428571428569</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>34</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="57"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>34</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" ref="D535:D540" si="58">AVERAGE(C529:C535)</f>
+        <v>32.428571428571431</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>36</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="58"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>39</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="58"/>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>44</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="58"/>
+        <v>36.142857142857146</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>42</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="58"/>
+        <v>37.285714285714285</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>41</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="58"/>
+        <v>38.571428571428569</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -27692,8 +28168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540:D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34220,7 +34696,7 @@
         <v>1</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D523" si="17">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D527" si="17">AVERAGE(C515:C521)</f>
         <v>1</v>
       </c>
     </row>
@@ -34252,88 +34728,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524" s="2">
+        <v>3</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="17"/>
+        <v>1.8571428571428572</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525" s="2">
+        <v>3</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="17"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526" s="2">
+        <v>3</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="17"/>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527" s="2">
+        <v>4</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="17"/>
+        <v>2.8571428571428572</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528" s="2">
+        <v>4</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" ref="D528:D530" si="18">AVERAGE(C522:C528)</f>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529" s="2">
+        <v>4</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="18"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530" s="2">
+        <v>3</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="18"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531" s="2">
+        <v>3</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" ref="D531:D534" si="19">AVERAGE(C525:C531)</f>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532" s="2">
+        <v>2</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="19"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533" s="2">
+        <v>2</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="19"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534" s="2">
+        <v>3</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535" s="2">
+        <v>3</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" ref="D535:D537" si="20">AVERAGE(C529:C535)</f>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536" s="2">
+        <v>4</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="20"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537" s="2">
+        <v>5</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538" s="2">
+        <v>5</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538:D540" si="21">AVERAGE(C532:C538)</f>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539" s="2">
+        <v>5</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="21"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540" s="2">
+        <v>6</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="21"/>
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6460FE-1071-CE4C-926E-0509D106C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BF9A9D-8101-C64B-97D1-109092140A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A540" sqref="A540:D540"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D540" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D541" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7818,6 +7818,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>43</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="6"/>
+        <v>74.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -7831,7 +7838,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A540" sqref="A540:D540"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14499,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="8">
-        <f t="shared" ref="D532:D540" si="25">AVERAGE(C526:C532)</f>
+        <f t="shared" ref="D532:D541" si="25">AVERAGE(C526:C532)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -14602,6 +14609,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" s="8">
+        <f t="shared" si="25"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -14614,8 +14628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A540" sqref="A540:D540"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20586,7 +20600,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D540" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D541" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -21385,6 +21399,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541" s="2">
+        <v>62</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="6"/>
+        <v>35.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -21397,8 +21418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A540" sqref="A540:D540"/>
+    <sheetView topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28089,7 +28110,7 @@
         <v>34</v>
       </c>
       <c r="D535" s="3">
-        <f t="shared" ref="D535:D540" si="58">AVERAGE(C529:C535)</f>
+        <f t="shared" ref="C535:D541" si="58">AVERAGE(C529:C535)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -28156,6 +28177,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541" s="3">
+        <v>43</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="58"/>
+        <v>39.857142857142854</v>
       </c>
     </row>
   </sheetData>
@@ -28168,8 +28196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A540" sqref="A540:D540"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34900,7 +34928,7 @@
         <v>5</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D540" si="21">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D541" si="21">AVERAGE(C532:C538)</f>
         <v>3.4285714285714284</v>
       </c>
     </row>
@@ -34931,6 +34959,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541" s="2">
+        <v>4</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="21"/>
+        <v>4.5714285714285712</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BF9A9D-8101-C64B-97D1-109092140A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799544C0-D694-B946-A146-98504C09B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D541" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D542" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7825,6 +7825,18 @@
       <c r="D541" s="3">
         <f t="shared" si="6"/>
         <v>74.142857142857139</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>137</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="6"/>
+        <v>81.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -7835,10 +7847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14506,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="8">
-        <f t="shared" ref="D532:D541" si="25">AVERAGE(C526:C532)</f>
+        <f t="shared" ref="D532:D542" si="25">AVERAGE(C526:C532)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -14616,6 +14628,18 @@
       <c r="D541" s="8">
         <f t="shared" si="25"/>
         <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542" s="8">
+        <f t="shared" si="25"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -14626,10 +14650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20600,7 +20624,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D541" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D542" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -21406,6 +21430,18 @@
       <c r="D541" s="3">
         <f t="shared" si="6"/>
         <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542" s="2">
+        <v>69</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="6"/>
+        <v>40.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -21416,10 +21452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28110,7 +28146,7 @@
         <v>34</v>
       </c>
       <c r="D535" s="3">
-        <f t="shared" ref="C535:D541" si="58">AVERAGE(C529:C535)</f>
+        <f t="shared" ref="D535:D542" si="58">AVERAGE(C529:C535)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -28184,6 +28220,18 @@
       <c r="D541" s="3">
         <f t="shared" si="58"/>
         <v>39.857142857142854</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>45</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="58"/>
+        <v>41.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -28194,10 +28242,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34928,7 +34976,7 @@
         <v>5</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D541" si="21">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D542" si="21">AVERAGE(C532:C538)</f>
         <v>3.4285714285714284</v>
       </c>
     </row>
@@ -34964,6 +35012,18 @@
         <v>4</v>
       </c>
       <c r="D541" s="3">
+        <f t="shared" si="21"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542" s="2">
+        <v>3</v>
+      </c>
+      <c r="D542" s="3">
         <f t="shared" si="21"/>
         <v>4.5714285714285712</v>
       </c>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799544C0-D694-B946-A146-98504C09B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6869553-3EAC-264C-8FF0-EF145F9F5405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D542" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D543" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7837,6 +7837,158 @@
       <c r="D542" s="3">
         <f t="shared" si="6"/>
         <v>81.571428571428569</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>136</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="6"/>
+        <v>86.428571428571431</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -7847,10 +7999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14518,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="8">
-        <f t="shared" ref="D532:D542" si="25">AVERAGE(C526:C532)</f>
+        <f t="shared" ref="D532:D543" si="25">AVERAGE(C526:C532)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -14640,6 +14792,158 @@
       <c r="D542" s="8">
         <f t="shared" si="25"/>
         <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+      <c r="D543" s="8">
+        <f t="shared" si="25"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -14650,10 +14954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20624,7 +20928,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D542" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D543" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -21442,6 +21746,158 @@
       <c r="D542" s="3">
         <f t="shared" si="6"/>
         <v>40.571428571428569</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543" s="2">
+        <v>41</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="6"/>
+        <v>39.571428571428569</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -21452,10 +21908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28146,7 +28602,7 @@
         <v>34</v>
       </c>
       <c r="D535" s="3">
-        <f t="shared" ref="D535:D542" si="58">AVERAGE(C529:C535)</f>
+        <f t="shared" ref="D535:D543" si="58">AVERAGE(C529:C535)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -28232,6 +28688,158 @@
       <c r="D542" s="3">
         <f t="shared" si="58"/>
         <v>41.428571428571431</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>42</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="58"/>
+        <v>42.285714285714285</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -28242,10 +28850,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35028,6 +35636,158 @@
         <v>4.5714285714285712</v>
       </c>
     </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543" s="2">
+        <v>3</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" ref="D543" si="22">AVERAGE(C537:C543)</f>
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6869553-3EAC-264C-8FF0-EF145F9F5405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4515F14-3BC2-1546-A085-C0197C75CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7380" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D543" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D544" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7854,6 +7854,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>124</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="6"/>
+        <v>89.285714285714292</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -8002,7 +8009,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14670,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="8">
-        <f t="shared" ref="D532:D543" si="25">AVERAGE(C526:C532)</f>
+        <f t="shared" ref="D532:D544" si="25">AVERAGE(C526:C532)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -14809,6 +14816,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+      <c r="D544" s="8">
+        <f t="shared" si="25"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -14956,8 +14970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20928,7 +20942,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D543" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D544" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -21763,6 +21777,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544" s="2">
+        <v>52</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="6"/>
+        <v>43.285714285714285</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -21911,7 +21932,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28602,7 +28623,7 @@
         <v>34</v>
       </c>
       <c r="D535" s="3">
-        <f t="shared" ref="D535:D543" si="58">AVERAGE(C529:C535)</f>
+        <f t="shared" ref="D535:D544" si="58">AVERAGE(C529:C535)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -28705,6 +28726,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>42</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="58"/>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -28852,8 +28880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35644,13 +35672,20 @@
         <v>3</v>
       </c>
       <c r="D543" s="3">
-        <f t="shared" ref="D543" si="22">AVERAGE(C537:C543)</f>
+        <f t="shared" ref="D543:D544" si="22">AVERAGE(C537:C543)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544" s="2">
+        <v>2</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Cosenza/Cosenza.xlsx
+++ b/dati/provincia/Cosenza/Cosenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Cosenza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4515F14-3BC2-1546-A085-C0197C75CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23EA5B8-5DD6-0048-B81C-C177159354AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5680" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D544" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D545" si="6">AVERAGE(C468:C474)</f>
         <v>19.285714285714285</v>
       </c>
     </row>
@@ -7863,82 +7863,89 @@
         <v>89.285714285714292</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545">
+        <v>128</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="6"/>
+        <v>89.428571428571431</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -8009,7 +8016,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14677,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="8">
-        <f t="shared" ref="D532:D544" si="25">AVERAGE(C526:C532)</f>
+        <f t="shared" ref="D532:D545" si="25">AVERAGE(C526:C532)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -14825,82 +14832,89 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="D545" s="8">
+        <f t="shared" si="25"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -14971,7 +14985,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20942,7 +20956,7 @@
         <v>67</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D544" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D545" si="6">AVERAGE(C468:C474)</f>
         <v>116.14285714285714</v>
       </c>
     </row>
@@ -21786,82 +21800,89 @@
         <v>43.285714285714285</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545" s="2">
+        <v>45</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="6"/>
+        <v>47.857142857142854</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -21932,7 +21953,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28623,7 +28644,7 @@
         <v>34</v>
       </c>
       <c r="D535" s="3">
-        <f t="shared" ref="D535:D544" si="58">AVERAGE(C529:C535)</f>
+        <f t="shared" ref="D535:D545" si="58">AVERAGE(C529:C535)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -28735,82 +28756,89 @@
         <v>42.714285714285715</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545">
+        <v>44</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="58"/>
+        <v>42.714285714285715</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -28881,7 +28909,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35672,7 +35700,7 @@
         <v>3</v>
       </c>
       <c r="D543" s="3">
-        <f t="shared" ref="D543:D544" si="22">AVERAGE(C537:C543)</f>
+        <f t="shared" ref="D543:D545" si="22">AVERAGE(C537:C543)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -35688,82 +35716,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545" s="2">
+        <v>3</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="22"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
